--- a/data/Research metrics new.xlsx
+++ b/data/Research metrics new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinzen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium-my.sharepoint.com/personal/rcunning_sheddaquarium_org/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E69F5ADF-92C4-45A0-9B1D-D07531817124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89D01FB0-E5E3-40E5-A5DD-CA206CF650DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="255">
   <si>
     <t>Id</t>
   </si>
@@ -489,6 +489,318 @@
   </si>
   <si>
     <t>Joint Field and Shedd AUX Board event - social with scientists</t>
+  </si>
+  <si>
+    <t>Iguana research</t>
+  </si>
+  <si>
+    <t>Iguanas</t>
+  </si>
+  <si>
+    <t>Mentored two University of The Bahamas students on the iguana trip.</t>
+  </si>
+  <si>
+    <t>hwind@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Hilary Wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentation at Shedd for Lake Forest College Biology Class - Marine ACCA Promotion </t>
+  </si>
+  <si>
+    <t>Marine ACCA</t>
+  </si>
+  <si>
+    <t>ACCA Marine Ecology course Classroom portion only</t>
+  </si>
+  <si>
+    <t>Marine invertebrates;Coral;Microbial ecology</t>
+  </si>
+  <si>
+    <t>ACCA - presentation/lecture (SM)</t>
+  </si>
+  <si>
+    <t>Marine invertebrates</t>
+  </si>
+  <si>
+    <t>ACCA - lecture</t>
+  </si>
+  <si>
+    <t>ACCA lecture on taxomony and microbial ecology</t>
+  </si>
+  <si>
+    <t>ACCA marine field course</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Follow up interview for the climate change pilot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch and Learn on Coral Spawning </t>
+  </si>
+  <si>
+    <t>Marine Ecology ACCA Course field component CRII (18 days X 8 hours X 18 students)</t>
+  </si>
+  <si>
+    <t>Fieldwork in Hawaii with the Coral Resilience Lab studying the impact of translocation on coral microbial communities and gene expression</t>
+  </si>
+  <si>
+    <t>I hosted the Lake Forest Open Lands undergrad interns at Shedd for a presentation on coral conservation research and careers in conservation. Included bts tour.</t>
+  </si>
+  <si>
+    <t>Blanding's turtle fieldwork with Forest Preserve District of DuPage County and UIUC Wildlife Epidemiology Lab</t>
+  </si>
+  <si>
+    <t>Blanding's Turtles</t>
+  </si>
+  <si>
+    <t>Microbial ecology</t>
+  </si>
+  <si>
+    <t>Jenkins, L., McKnight, D. T., Parks, M., Byer, N. W., Oliaro, F. J., Thompson, D., &amp; Scott, R. (2024). Variable effects of captivity on microbiomes in populations of IUCN-endangered Blanding’s turtles (Emydoidea blandingii). Journal of Applied Microbiology, 135(5), lxae121.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/jambio/lxae121</t>
+  </si>
+  <si>
+    <t>Iguana fieldwork in Exuma Cays, Bahamas in collaboration with Chuck Knapp and partners from Utah State University, Arizona State University, Earlham College.</t>
+  </si>
+  <si>
+    <t>myoungquist@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Melissa Youngquist</t>
+  </si>
+  <si>
+    <t>1st quarter field days</t>
+  </si>
+  <si>
+    <t>2nd quarter field days</t>
+  </si>
+  <si>
+    <t>Talk at WWA Wetland Science Conference</t>
+  </si>
+  <si>
+    <t>Poster at WWA Wetland Science Conference, by intern E. Wasilewski</t>
+  </si>
+  <si>
+    <t>Talk at Calumet Science Research Summit</t>
+  </si>
+  <si>
+    <t>Webinar for Environment Illinois on Wetland Wildlife</t>
+  </si>
+  <si>
+    <t>SheddTalk - Wetland Conservation at Shedd</t>
+  </si>
+  <si>
+    <t>Talk at SSAR/PARC conference</t>
+  </si>
+  <si>
+    <t>After School Matters engagment</t>
+  </si>
+  <si>
+    <t>Young Women in Biology career panel</t>
+  </si>
+  <si>
+    <t>Climate Innovation Summit - Water We Need Panel</t>
+  </si>
+  <si>
+    <t>2nd quarter intern mentoring: Noah Kaplan and Paula Uta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwanho, K.C., Lewis, E.L., Wu, E., Oliaro, F.J., Aubry, L.M., Knapp, C.R., Kapheim, K.M., DeNardo, D., &amp; French, S.S. (2024). High sugar diet alters immune function and the gut microbiome in juvenile green iguanas (Iguana iguana). Journal of Experimental Biology, 227, jeb246981. https://doi:10.1242/jeb.246981 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi:10.1242/jeb.246981 </t>
+  </si>
+  <si>
+    <t>Educator presentation for a teacher event hosted by L&amp;C along Lake Michigan (Promotory Pt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentation at the Joint Meeting Of Ichthyology and Herpetology to ~ 170 delegates </t>
+  </si>
+  <si>
+    <t>Happel, A., Lederman, N., &amp; Snyder, C. (2024). Natural shorelines support greater diversity and abundances of fishes than armoured shores along Chicago's waterways. Aquatic Conservation: Marine and Freshwater Ecosystems, 34(5), e4158.</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/aqc.4158</t>
+  </si>
+  <si>
+    <t>Bridgehouse Museum talk with Jaclyn. ~20 people in attendance</t>
+  </si>
+  <si>
+    <t>Tagging and kayaking days on the river</t>
+  </si>
+  <si>
+    <t>kinoue@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Kentaro Inoue</t>
+  </si>
+  <si>
+    <t>Visited the Genoa National Fish Hatchery and Minnesota Department of Natural Resources mussel facility, discussed the on-going collaborative projects, and received samples.</t>
+  </si>
+  <si>
+    <t>Mussel survey in El Salvador</t>
+  </si>
+  <si>
+    <t>Mussel survey in Costa Rica</t>
+  </si>
+  <si>
+    <t>Mussel survey and workshop in Guatemala</t>
+  </si>
+  <si>
+    <t>Mussel survey in New Mexico</t>
+  </si>
+  <si>
+    <t>People from the USGS Great Lakes Science Center visited Shedd and discussed potential collaboration on mussel genetics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Met with the ARCS visitor group to discuss coral conservation research and show them the NWQ. This is a group that I received a fellowship grant from during my PhD, but they were having a separate visit.  </t>
+  </si>
+  <si>
+    <t>Mentored graduate students (Gabby Sanfilippo, Central Michigan University; Gabe Inoshita, Miami University; Kevin Soto, University of Costa Rica). Engagement includes online meetings, manuscript/thesis proposal reviews, data analysis assistance, and graduate committee duties.</t>
+  </si>
+  <si>
+    <t>AKOUGH@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Andy Kough</t>
+  </si>
+  <si>
+    <t>UB leg of BI trip</t>
+  </si>
+  <si>
+    <t>Marine invertebrates;Coral</t>
+  </si>
+  <si>
+    <t>Habitat and species loss;Climate change;Sustainable fisheries</t>
+  </si>
+  <si>
+    <t>Hosted L&amp;L on The Secret life of lobsters</t>
+  </si>
+  <si>
+    <t>Sustainable fisheries;Climate change;Habitat and species loss</t>
+  </si>
+  <si>
+    <t>Too sparse for snail sex: Scaling patchiness between and within queen conch populations</t>
+  </si>
+  <si>
+    <t>Barnes Memorial Lecture at Gettysburg College</t>
+  </si>
+  <si>
+    <t>Round-robin Biology Honors Day Dinner for Undergraduates at Gettysburg College</t>
+  </si>
+  <si>
+    <t>Hosted team from FWC and NOAA on board the CRii to survey queen conch at Port Everglades</t>
+  </si>
+  <si>
+    <t>Travelled to St Laurence for in person sheddacademy connection</t>
+  </si>
+  <si>
+    <t>https://www.sciencefriday.com/segments/helping-queen-conchs-mate-florida-keys/</t>
+  </si>
+  <si>
+    <t>Interview for NPR's Science Friday on queen conch</t>
+  </si>
+  <si>
+    <t>https://chicago.suntimes.com/environment/2024/05/05/marine-research-ocean-predators-conch-snail-fake-shells-northwestern-students-shedd-aquarium</t>
+  </si>
+  <si>
+    <t>Interview for a feature about the gastropop project in the Chicago Sun Times</t>
+  </si>
+  <si>
+    <t>Marine invertebrates;Animal care</t>
+  </si>
+  <si>
+    <t>Lead the second ACCA trip</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>Hosted 4 students from NWU on the CRii and in Miami for research on GastroPops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dailyherald.com/20240614/news/students-collaboration-with-shedd-aquarium-aids-conch-conservation-efforts/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interview about GastroPop project and how Shedd creates authentic conservation connection moments </t>
+  </si>
+  <si>
+    <t>https://news.northwestern.edu/stories/2024/06/forget-imitation-crab-researchers-test-out-snack-able-snails</t>
+  </si>
+  <si>
+    <t>Gastropop project, covered by NWU media</t>
+  </si>
+  <si>
+    <t>•	WGN Midday News, WBBM-AM, WBEZ-FM and ABC 7 aired segments about a collaboration between Shedd scientists and students from Northwestern University to design “GastroPops,” artificial shells that could be used as new research tools to inform conservation efforts for conch populations.</t>
+  </si>
+  <si>
+    <t>Queen conch research cruise on CRii</t>
+  </si>
+  <si>
+    <t>Gave a presentation on using acoustics in marine research to Shedd Teen Programs</t>
+  </si>
+  <si>
+    <t>Kough AS (2024) Empirical support of predicted larval connectivity patterns demand conservation action for queen conch (Aliger gigas) in The Bahamas. Conservation Science and Practice, 6, e13162.  DOI: 10.1111/csp2.13162</t>
+  </si>
+  <si>
+    <t>https://conbio.onlinelibrary.wiley.com/doi/10.1111/csp2.13162</t>
+  </si>
+  <si>
+    <t>https://www.vox.com/down-to-earth/24085776/queen-conch-florida-climate-change-conservation</t>
+  </si>
+  <si>
+    <t>Presentation on not being a vet, but loving animals, to Pre-vet club of UIUC</t>
+  </si>
+  <si>
+    <t>Marine invertebrates;Andy</t>
+  </si>
+  <si>
+    <t>Participated in the Lockport High School Career Day for 50 to 70 upperclass hs students</t>
+  </si>
+  <si>
+    <t>Hosted NOAA FKNMS permitting staff, Dr. Harrison and Dr. Hunter on board the CRii to learn all about our conservation research efforts</t>
+  </si>
+  <si>
+    <t>marine</t>
+  </si>
+  <si>
+    <t>Client for NWU Gastropop project - date selected is end of project</t>
+  </si>
+  <si>
+    <t>Stoner, A. W., Davis, M., &amp; Kough, A. S. (2023). Relationships between Queen Conch Larval Biology and Recruitment, Connectivity, and Fishery Management. Reviews in Fisheries Science &amp; Aquaculture, 31(4), 535–597. https://doi.org/10.1080/23308249.2023.2228905</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/citedby/10.1080/23308249.2023.2228905?scroll=top&amp;needAccess=true</t>
+  </si>
+  <si>
+    <t>Zhao M, Plough LV, Behringer DC, Bojko J, Kough AS, Alper NW, Xu L, Schott EJ (2023) Cross-Hemispheric Genetic Diversity and Spatial Genetic Structure of Callinectes sapidus Reovirus 1 (CsRV1). Viruses. doi: 10.3390/v15020563</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/1999-4915/15/2/563</t>
+  </si>
+  <si>
+    <t>Virtual Lightning Talk for Seattle Aquarium, around 400 viewers.  Subject of the talk was an overview of the SharkRay360 program</t>
+  </si>
+  <si>
+    <t>Cunning, R., Matsuda, S.B., Bartels, E. et al. On the use of rapid acute heat tolerance assays to resolve ecologically relevant differences among corals. Coral Reefs (2024). https://doi.org/10.1007/s00338-024-02577-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00338-024-02577-7</t>
+  </si>
+  <si>
+    <t>Dry Tortugas coral research trip</t>
+  </si>
+  <si>
+    <t>Coral spawn research trip</t>
+  </si>
+  <si>
+    <t>Port Everglades coral survey trip</t>
   </si>
 </sst>
 </file>
@@ -527,13 +839,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,8 +909,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:O83" totalsRowShown="0">
-  <autoFilter ref="A1:O83" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:O156" totalsRowShown="0">
+  <autoFilter ref="A1:O156" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Ross Cunning"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6">
       <filters>
         <dateGroupItem year="2024" dateTimeGrouping="year"/>
@@ -716,7 +1032,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="WmKV9QsF-ESGzEsfiGZoTb83Sl3n5wlHr3isCMIkazlUREdPWjQwWjdHU1IxNFdNOVVTSVpHNktFSi4u" isFormConnected="1" maxResponseId="83" latestEventMarker="82">
+      <xlmsforms:msForm id="WmKV9QsF-ESGzEsfiGZoTb83Sl3n5wlHr3isCMIkazlUREdPWjQwWjdHU1IxNFdNOVVTSVpHNktFSi4u" isFormConnected="1" maxResponseId="157" latestEventMarker="156">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -1035,13 +1351,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:O156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F26" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="12" width="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="40.42578125" customWidth="1"/>
@@ -1096,7 +1412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" hidden="1">
       <c r="B2" s="1">
         <v>45373.418958333299</v>
       </c>
@@ -1130,7 +1446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" hidden="1">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1167,7 +1483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" hidden="1">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1204,7 +1520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" hidden="1">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1241,7 +1557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" hidden="1">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1278,7 +1594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" hidden="1">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1315,7 +1631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" hidden="1">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1352,7 +1668,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" hidden="1">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1389,7 +1705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" hidden="1">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1426,7 +1742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" hidden="1">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1466,7 +1782,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" hidden="1">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1506,7 +1822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" hidden="1">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1545,7 +1861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" hidden="1">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1662,7 +1978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" hidden="1">
       <c r="A17">
         <v>17</v>
       </c>
@@ -1699,7 +2015,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" hidden="1">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1736,7 +2052,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" hidden="1">
       <c r="A19">
         <v>19</v>
       </c>
@@ -1776,7 +2092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" hidden="1">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1970,7 +2286,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" hidden="1">
       <c r="A25">
         <v>25</v>
       </c>
@@ -2007,7 +2323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" hidden="1">
       <c r="A26">
         <v>26</v>
       </c>
@@ -2042,7 +2358,7 @@
       </c>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" hidden="1">
       <c r="A27">
         <v>27</v>
       </c>
@@ -2079,7 +2395,7 @@
       </c>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" hidden="1">
       <c r="A28">
         <v>28</v>
       </c>
@@ -2114,7 +2430,7 @@
       </c>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" hidden="1">
       <c r="A29">
         <v>29</v>
       </c>
@@ -2154,7 +2470,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" hidden="1">
       <c r="A30">
         <v>30</v>
       </c>
@@ -2197,7 +2513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" hidden="1">
       <c r="A31">
         <v>31</v>
       </c>
@@ -2236,7 +2552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" hidden="1">
       <c r="A32">
         <v>32</v>
       </c>
@@ -2279,7 +2595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" hidden="1">
       <c r="A33">
         <v>33</v>
       </c>
@@ -2322,7 +2638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" hidden="1">
       <c r="A34">
         <v>34</v>
       </c>
@@ -2365,7 +2681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" hidden="1">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2408,7 +2724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" hidden="1">
       <c r="A36">
         <v>36</v>
       </c>
@@ -2451,7 +2767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" hidden="1">
       <c r="A37">
         <v>37</v>
       </c>
@@ -2494,7 +2810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" hidden="1">
       <c r="A38">
         <v>38</v>
       </c>
@@ -2532,7 +2848,7 @@
       </c>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" hidden="1">
       <c r="A39">
         <v>39</v>
       </c>
@@ -2570,7 +2886,7 @@
       </c>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" hidden="1">
       <c r="A40">
         <v>40</v>
       </c>
@@ -2608,7 +2924,7 @@
       </c>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" hidden="1">
       <c r="A41">
         <v>41</v>
       </c>
@@ -2646,7 +2962,7 @@
       </c>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" hidden="1">
       <c r="A42">
         <v>42</v>
       </c>
@@ -2686,7 +3002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" hidden="1">
       <c r="A43">
         <v>43</v>
       </c>
@@ -2876,7 +3192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" hidden="1">
       <c r="A48">
         <v>48</v>
       </c>
@@ -2911,7 +3227,7 @@
       </c>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" hidden="1">
       <c r="A49">
         <v>49</v>
       </c>
@@ -2952,7 +3268,7 @@
       </c>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" hidden="1">
       <c r="A50">
         <v>50</v>
       </c>
@@ -2989,7 +3305,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" hidden="1">
       <c r="A51">
         <v>51</v>
       </c>
@@ -3024,7 +3340,7 @@
       </c>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" hidden="1">
       <c r="A52">
         <v>52</v>
       </c>
@@ -3065,7 +3381,7 @@
       </c>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" hidden="1">
       <c r="A53">
         <v>53</v>
       </c>
@@ -3102,7 +3418,7 @@
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" hidden="1">
       <c r="A54">
         <v>54</v>
       </c>
@@ -3139,7 +3455,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" hidden="1">
       <c r="A55">
         <v>55</v>
       </c>
@@ -3179,7 +3495,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" hidden="1">
       <c r="A56">
         <v>56</v>
       </c>
@@ -3258,7 +3574,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" hidden="1">
       <c r="A58">
         <v>58</v>
       </c>
@@ -3298,7 +3614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" hidden="1">
       <c r="A59">
         <v>59</v>
       </c>
@@ -3337,7 +3653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" hidden="1">
       <c r="A60">
         <v>60</v>
       </c>
@@ -3414,7 +3730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" hidden="1">
       <c r="A62">
         <v>62</v>
       </c>
@@ -3454,7 +3770,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" hidden="1">
       <c r="A63">
         <v>63</v>
       </c>
@@ -3493,7 +3809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" hidden="1">
       <c r="A64">
         <v>64</v>
       </c>
@@ -3545,7 +3861,7 @@
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" hidden="1">
       <c r="A66">
         <v>66</v>
       </c>
@@ -3588,7 +3904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" hidden="1">
       <c r="A67">
         <v>67</v>
       </c>
@@ -3623,7 +3939,7 @@
       </c>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" hidden="1">
       <c r="A68">
         <v>68</v>
       </c>
@@ -3658,7 +3974,7 @@
       </c>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" hidden="1">
       <c r="A69">
         <v>69</v>
       </c>
@@ -3695,7 +4011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" hidden="1">
       <c r="A70">
         <v>70</v>
       </c>
@@ -3732,7 +4048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" hidden="1">
       <c r="A71">
         <v>71</v>
       </c>
@@ -3772,7 +4088,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" hidden="1">
       <c r="A72">
         <v>72</v>
       </c>
@@ -3812,7 +4128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" hidden="1">
       <c r="A73">
         <v>73</v>
       </c>
@@ -3855,7 +4171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" hidden="1">
       <c r="A74">
         <v>74</v>
       </c>
@@ -3898,7 +4214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" hidden="1">
       <c r="A75">
         <v>75</v>
       </c>
@@ -3935,7 +4251,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" hidden="1">
       <c r="A76">
         <v>76</v>
       </c>
@@ -3978,7 +4294,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" hidden="1">
       <c r="A77">
         <v>77</v>
       </c>
@@ -4021,7 +4337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" hidden="1">
       <c r="A78">
         <v>78</v>
       </c>
@@ -4058,7 +4374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" hidden="1">
       <c r="A79">
         <v>79</v>
       </c>
@@ -4101,7 +4417,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" hidden="1">
       <c r="A80">
         <v>80</v>
       </c>
@@ -4142,7 +4458,7 @@
       </c>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" hidden="1">
       <c r="A81">
         <v>81</v>
       </c>
@@ -4181,7 +4497,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" hidden="1">
       <c r="A82">
         <v>82</v>
       </c>
@@ -4220,8 +4536,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="5">
+    <row r="83" spans="1:15" hidden="1">
+      <c r="A83">
         <v>83</v>
       </c>
       <c r="B83" s="1">
@@ -4247,10 +4563,10 @@
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="5">
+      <c r="K83">
         <v>3</v>
       </c>
-      <c r="L83" s="5">
+      <c r="L83">
         <v>20</v>
       </c>
       <c r="M83" s="3" t="s">
@@ -4261,6 +4577,2870 @@
       </c>
       <c r="O83" s="3" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" hidden="1">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45475.596435185202</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45475.596840277802</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="2">
+        <v>45471</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="L84">
+        <v>10</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" hidden="1">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45475.596863425897</v>
+      </c>
+      <c r="C85" s="1">
+        <v>45475.597407407397</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="2">
+        <v>45442</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85">
+        <v>144</v>
+      </c>
+      <c r="L85">
+        <v>9</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" hidden="1">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45476.401412036997</v>
+      </c>
+      <c r="C86" s="1">
+        <v>45476.403217592597</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" s="2">
+        <v>45357</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="M86" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="1:15" hidden="1">
+      <c r="A87">
+        <v>88</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45476.423692129603</v>
+      </c>
+      <c r="C87" s="1">
+        <v>45476.442303240699</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" s="2">
+        <v>45367</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87">
+        <v>864</v>
+      </c>
+      <c r="L87">
+        <v>18</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" hidden="1">
+      <c r="A88">
+        <v>89</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45476.442361111098</v>
+      </c>
+      <c r="C88" s="1">
+        <v>45476.443229166704</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" s="2">
+        <v>45367</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="M88" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" hidden="1">
+      <c r="A89">
+        <v>90</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45476.443252314799</v>
+      </c>
+      <c r="C89" s="1">
+        <v>45476.443437499998</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="2">
+        <v>45493</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="M89" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" hidden="1">
+      <c r="A90">
+        <v>91</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45476.443460648203</v>
+      </c>
+      <c r="C90" s="1">
+        <v>45476.444247685198</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" s="2">
+        <v>45395</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="M90" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" hidden="1">
+      <c r="A91">
+        <v>92</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45476.444270833301</v>
+      </c>
+      <c r="C91" s="1">
+        <v>45476.447465277801</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="2">
+        <v>45418</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91">
+        <v>810</v>
+      </c>
+      <c r="L91">
+        <v>9</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" hidden="1">
+      <c r="A92">
+        <v>93</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45476.447476851899</v>
+      </c>
+      <c r="C92" s="1">
+        <v>45476.448576388902</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="2">
+        <v>45416</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" hidden="1">
+      <c r="A93">
+        <v>94</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45476.448657407404</v>
+      </c>
+      <c r="C93" s="1">
+        <v>45476.450624999998</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" s="2">
+        <v>45405</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="M93" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" hidden="1">
+      <c r="A94">
+        <v>95</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45476.407210648104</v>
+      </c>
+      <c r="C94" s="1">
+        <v>45476.451041666704</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="2">
+        <v>45418</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94">
+        <v>2592</v>
+      </c>
+      <c r="L94">
+        <v>18</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="1:15" hidden="1">
+      <c r="A95">
+        <v>96</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45476.450648148202</v>
+      </c>
+      <c r="C95" s="1">
+        <v>45476.452372685198</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="2">
+        <v>45433</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="L95">
+        <v>14</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" hidden="1">
+      <c r="A96">
+        <v>97</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45476.452395833301</v>
+      </c>
+      <c r="C96" s="1">
+        <v>45476.454097222202</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="2">
+        <v>45475</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="M96" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" hidden="1">
+      <c r="A97">
+        <v>98</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45478.651516203703</v>
+      </c>
+      <c r="C97" s="1">
+        <v>45478.655914351897</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="2">
+        <v>45436</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" hidden="1">
+      <c r="A98">
+        <v>99</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45478.6559375</v>
+      </c>
+      <c r="C98" s="1">
+        <v>45478.670324074097</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" s="2">
+        <v>45400</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="1:15" hidden="1">
+      <c r="A99">
+        <v>100</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45478.6703472222</v>
+      </c>
+      <c r="C99" s="1">
+        <v>45478.6717361111</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" s="2">
+        <v>45428</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="1:15" hidden="1">
+      <c r="A100">
+        <v>101</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45478.671759259298</v>
+      </c>
+      <c r="C100" s="1">
+        <v>45478.687164351897</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" s="2">
+        <v>45441</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="L100">
+        <v>14</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" hidden="1">
+      <c r="A101">
+        <v>102</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45481.540196759299</v>
+      </c>
+      <c r="C101" s="1">
+        <v>45481.600208333301</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" s="2">
+        <v>45380</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="L101">
+        <v>11</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" hidden="1">
+      <c r="A102">
+        <v>103</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45481.600231481498</v>
+      </c>
+      <c r="C102" s="1">
+        <v>45481.600694444402</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="2">
+        <v>45473</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="L102">
+        <v>23</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" hidden="1">
+      <c r="A103">
+        <v>104</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45481.600717592599</v>
+      </c>
+      <c r="C103" s="1">
+        <v>45481.602094907401</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" s="2">
+        <v>45343</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="M103" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O103" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" hidden="1">
+      <c r="A104">
+        <v>105</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45481.602152777799</v>
+      </c>
+      <c r="C104" s="1">
+        <v>45481.602743055599</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" s="2">
+        <v>45343</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="M104" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" hidden="1">
+      <c r="A105">
+        <v>106</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45481.602858796301</v>
+      </c>
+      <c r="C105" s="1">
+        <v>45481.603460648097</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" s="2">
+        <v>45330</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="M105" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="N105" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O105" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" hidden="1">
+      <c r="A106">
+        <v>107</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45481.603472222203</v>
+      </c>
+      <c r="C106" s="1">
+        <v>45481.604803240698</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" s="2">
+        <v>45393</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="M106" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" hidden="1">
+      <c r="A107">
+        <v>108</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45481.604826388902</v>
+      </c>
+      <c r="C107" s="1">
+        <v>45481.605486111097</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" s="2">
+        <v>45429</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="M107" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O107" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" hidden="1">
+      <c r="A108">
+        <v>109</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45481.605509259301</v>
+      </c>
+      <c r="C108" s="1">
+        <v>45481.606006944399</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" s="2">
+        <v>45473</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="M108" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O108" s="3"/>
+    </row>
+    <row r="109" spans="1:15" hidden="1">
+      <c r="A109">
+        <v>110</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45481.606030092596</v>
+      </c>
+      <c r="C109" s="1">
+        <v>45481.608171296299</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109" s="2">
+        <v>45385</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109">
+        <v>10</v>
+      </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+      <c r="M109" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O109" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" hidden="1">
+      <c r="A110">
+        <v>111</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45481.608182870397</v>
+      </c>
+      <c r="C110" s="1">
+        <v>45481.6088310185</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" s="2">
+        <v>45426</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="M110" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" hidden="1">
+      <c r="A111">
+        <v>112</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45481.608854166698</v>
+      </c>
+      <c r="C111" s="1">
+        <v>45481.609548611101</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" s="2">
+        <v>45456</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="M111" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O111" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" hidden="1">
+      <c r="A112">
+        <v>113</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45481.609884259298</v>
+      </c>
+      <c r="C112" s="1">
+        <v>45481.612013888902</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G112" s="2">
+        <v>45473</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112">
+        <v>384</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" hidden="1">
+      <c r="A113">
+        <v>114</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45484.402291666702</v>
+      </c>
+      <c r="C113" s="1">
+        <v>45484.402870370403</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" s="2">
+        <v>45484</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O113" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" hidden="1">
+      <c r="A114">
+        <v>115</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45484.560949074097</v>
+      </c>
+      <c r="C114" s="1">
+        <v>45484.5617824074</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" s="2">
+        <v>45483</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="M114" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" hidden="1">
+      <c r="A115">
+        <v>116</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45490.3981712963</v>
+      </c>
+      <c r="C115" s="1">
+        <v>45490.398993055598</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" s="2">
+        <v>45486</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="M115" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N115" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O115" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" hidden="1">
+      <c r="A116">
+        <v>117</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45490.508425925902</v>
+      </c>
+      <c r="C116" s="1">
+        <v>45490.5108680556</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" s="2">
+        <v>45422</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" hidden="1">
+      <c r="A117">
+        <v>118</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45492.468726851803</v>
+      </c>
+      <c r="C117" s="1">
+        <v>45492.4991898148</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" s="2">
+        <v>45470</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="M117" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N117" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O117" s="3"/>
+    </row>
+    <row r="118" spans="1:15" hidden="1">
+      <c r="A118">
+        <v>119</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45492.4992361111</v>
+      </c>
+      <c r="C118" s="1">
+        <v>45492.500150462998</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="2">
+        <v>45455</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="L118">
+        <v>8</v>
+      </c>
+      <c r="M118" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N118" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O118" s="3"/>
+    </row>
+    <row r="119" spans="1:15" hidden="1">
+      <c r="A119">
+        <v>120</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45496.443009259303</v>
+      </c>
+      <c r="C119" s="1">
+        <v>45496.448078703703</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G119" s="2">
+        <v>45334</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N119" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O119" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" hidden="1">
+      <c r="A120">
+        <v>121</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45496.4481018519</v>
+      </c>
+      <c r="C120" s="1">
+        <v>45496.449201388903</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" s="2">
+        <v>45354</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="L120">
+        <v>6</v>
+      </c>
+      <c r="M120" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N120" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" hidden="1">
+      <c r="A121">
+        <v>122</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45496.449212963002</v>
+      </c>
+      <c r="C121" s="1">
+        <v>45496.449930555602</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" s="2">
+        <v>45369</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="L121">
+        <v>7</v>
+      </c>
+      <c r="M121" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N121" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O121" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" hidden="1">
+      <c r="A122">
+        <v>123</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45496.449953703697</v>
+      </c>
+      <c r="C122" s="1">
+        <v>45496.4515046296</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" s="2">
+        <v>45407</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="L122">
+        <v>9</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="N122" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" hidden="1">
+      <c r="A123">
+        <v>124</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45496.451562499999</v>
+      </c>
+      <c r="C123" s="1">
+        <v>45496.453425925902</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="2">
+        <v>45453</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="L123">
+        <v>6</v>
+      </c>
+      <c r="M123" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O123" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" hidden="1">
+      <c r="A124">
+        <v>125</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45496.453449074099</v>
+      </c>
+      <c r="C124" s="1">
+        <v>45496.455590277801</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124" s="2">
+        <v>45436</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" hidden="1">
+      <c r="A125">
+        <v>126</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45496.453738425902</v>
+      </c>
+      <c r="C125" s="1">
+        <v>45496.460312499999</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" s="2">
+        <v>45449</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>20</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N125" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O125" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" hidden="1">
+      <c r="A126">
+        <v>127</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45496.506782407399</v>
+      </c>
+      <c r="C126" s="1">
+        <v>45496.518217592602</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" s="2">
+        <v>45382</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126">
+        <v>15</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="N126" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O126" s="3"/>
+    </row>
+    <row r="127" spans="1:15" hidden="1">
+      <c r="A127">
+        <v>128</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45496.518240740697</v>
+      </c>
+      <c r="C127" s="1">
+        <v>45496.518437500003</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127" s="2">
+        <v>45473</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127">
+        <v>15</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="N127" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O127" s="3"/>
+    </row>
+    <row r="128" spans="1:15" hidden="1">
+      <c r="A128">
+        <v>129</v>
+      </c>
+      <c r="B128" s="1">
+        <v>45496.682835648098</v>
+      </c>
+      <c r="C128" s="1">
+        <v>45496.684652777803</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" s="2">
+        <v>45371</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128">
+        <v>660</v>
+      </c>
+      <c r="L128">
+        <v>7</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="N128" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O128" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" hidden="1">
+      <c r="A129">
+        <v>130</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45496.684733796297</v>
+      </c>
+      <c r="C129" s="1">
+        <v>45496.685624999998</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129" s="2">
+        <v>45360</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="M129" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="N129" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O129" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" hidden="1">
+      <c r="A130">
+        <v>131</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45496.685648148203</v>
+      </c>
+      <c r="C130" s="1">
+        <v>45496.687291666698</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G130" s="2">
+        <v>45393</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="M130" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N130" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O130" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" hidden="1">
+      <c r="A131">
+        <v>132</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45496.687314814801</v>
+      </c>
+      <c r="C131" s="1">
+        <v>45496.688506944403</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G131" s="2">
+        <v>45400</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="M131" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="N131" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O131" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" hidden="1">
+      <c r="A132">
+        <v>133</v>
+      </c>
+      <c r="B132" s="1">
+        <v>45496.688530092601</v>
+      </c>
+      <c r="C132" s="1">
+        <v>45496.689409722203</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G132" s="2">
+        <v>45400</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132">
+        <v>120</v>
+      </c>
+      <c r="L132">
+        <v>40</v>
+      </c>
+      <c r="M132" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="N132" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" hidden="1">
+      <c r="A133">
+        <v>134</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45496.6894328704</v>
+      </c>
+      <c r="C133" s="1">
+        <v>45496.690185185202</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" s="2">
+        <v>45395</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="L133">
+        <v>6</v>
+      </c>
+      <c r="M133" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N133" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O133" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" hidden="1">
+      <c r="A134">
+        <v>135</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45496.690208333297</v>
+      </c>
+      <c r="C134" s="1">
+        <v>45496.691435185203</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" s="2">
+        <v>45407</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="L134">
+        <v>60</v>
+      </c>
+      <c r="M134" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="N134" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O134" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" hidden="1">
+      <c r="A135">
+        <v>136</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45496.691458333298</v>
+      </c>
+      <c r="C135" s="1">
+        <v>45496.691956018498</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135" s="2">
+        <v>45408</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M135" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="N135" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O135" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" hidden="1">
+      <c r="A136">
+        <v>137</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45496.692002314798</v>
+      </c>
+      <c r="C136" s="1">
+        <v>45496.693252314799</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" s="2">
+        <v>45440</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M136" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="N136" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="O136" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" hidden="1">
+      <c r="A137">
+        <v>138</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45496.693935185198</v>
+      </c>
+      <c r="C137" s="1">
+        <v>45496.695462962998</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G137" s="2">
+        <v>45425</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137">
+        <v>1600</v>
+      </c>
+      <c r="L137">
+        <v>11</v>
+      </c>
+      <c r="M137" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="N137" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="O137" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" hidden="1">
+      <c r="A138">
+        <v>139</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45496.695486111101</v>
+      </c>
+      <c r="C138" s="1">
+        <v>45496.696134259299</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" s="2">
+        <v>45435</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="N138" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O138" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" hidden="1">
+      <c r="A139">
+        <v>140</v>
+      </c>
+      <c r="B139" s="1">
+        <v>45496.696145833303</v>
+      </c>
+      <c r="C139" s="1">
+        <v>45496.697812500002</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G139" s="2">
+        <v>45454</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="M139" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="N139" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O139" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" hidden="1">
+      <c r="A140">
+        <v>141</v>
+      </c>
+      <c r="B140" s="1">
+        <v>45496.697824074101</v>
+      </c>
+      <c r="C140" s="1">
+        <v>45496.698912036998</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" s="2">
+        <v>45463</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M140" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O140" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" hidden="1">
+      <c r="A141">
+        <v>142</v>
+      </c>
+      <c r="B141" s="1">
+        <v>45496.698935185203</v>
+      </c>
+      <c r="C141" s="1">
+        <v>45496.700648148202</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" s="2">
+        <v>45447</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M141" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O141" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" hidden="1">
+      <c r="A142">
+        <v>143</v>
+      </c>
+      <c r="B142" s="1">
+        <v>45496.700682870403</v>
+      </c>
+      <c r="C142" s="1">
+        <v>45496.701944444401</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" s="2">
+        <v>45471</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="L142">
+        <v>15</v>
+      </c>
+      <c r="M142" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O142" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" hidden="1">
+      <c r="A143">
+        <v>144</v>
+      </c>
+      <c r="B143" s="1">
+        <v>45496.7019560185</v>
+      </c>
+      <c r="C143" s="1">
+        <v>45496.703113425901</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143" s="2">
+        <v>45490</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143">
+        <v>11</v>
+      </c>
+      <c r="L143">
+        <v>8</v>
+      </c>
+      <c r="M143" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N143" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O143" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" hidden="1">
+      <c r="A144">
+        <v>145</v>
+      </c>
+      <c r="B144" s="1">
+        <v>45496.704224537003</v>
+      </c>
+      <c r="C144" s="1">
+        <v>45496.707928240699</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144" s="2">
+        <v>45457</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="M144" s="3"/>
+      <c r="N144" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O144" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" hidden="1">
+      <c r="A145">
+        <v>146</v>
+      </c>
+      <c r="B145" s="1">
+        <v>45496.709583333301</v>
+      </c>
+      <c r="C145" s="1">
+        <v>45496.710023148102</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G145" s="2">
+        <v>45350</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O145" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" hidden="1">
+      <c r="A146">
+        <v>147</v>
+      </c>
+      <c r="B146" s="1">
+        <v>45496.710960648197</v>
+      </c>
+      <c r="C146" s="1">
+        <v>45496.711643518502</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G146" s="2">
+        <v>45349</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="M146" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N146" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="O146" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" hidden="1">
+      <c r="A147">
+        <v>148</v>
+      </c>
+      <c r="B147" s="1">
+        <v>45496.711782407401</v>
+      </c>
+      <c r="C147" s="1">
+        <v>45496.712384259299</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G147" s="2">
+        <v>45358</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="M147" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="N147" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="O147" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" hidden="1">
+      <c r="A148">
+        <v>149</v>
+      </c>
+      <c r="B148" s="1">
+        <v>45496.713506944398</v>
+      </c>
+      <c r="C148" s="1">
+        <v>45496.714432870402</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G148" s="2">
+        <v>45484</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148">
+        <v>6</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="N148" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="O148" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" hidden="1">
+      <c r="A149">
+        <v>150</v>
+      </c>
+      <c r="B149" s="1">
+        <v>45496.717696759297</v>
+      </c>
+      <c r="C149" s="1">
+        <v>45496.718495370398</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G149" s="2">
+        <v>45362</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149">
+        <v>192</v>
+      </c>
+      <c r="L149">
+        <v>4</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="N149" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O149" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" hidden="1">
+      <c r="A150">
+        <v>151</v>
+      </c>
+      <c r="B150" s="1">
+        <v>45496.723425925898</v>
+      </c>
+      <c r="C150" s="1">
+        <v>45496.724930555603</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G150" s="2">
+        <v>45125</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O150" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" hidden="1">
+      <c r="A151">
+        <v>152</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45496.724953703699</v>
+      </c>
+      <c r="C151" s="1">
+        <v>45496.725937499999</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G151" s="2">
+        <v>44975</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="O151" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" hidden="1">
+      <c r="A152">
+        <v>153</v>
+      </c>
+      <c r="B152" s="1">
+        <v>45498.674467592602</v>
+      </c>
+      <c r="C152" s="1">
+        <v>45498.675254629597</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G152" s="2">
+        <v>45490</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="M152" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="N152" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O152" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153">
+        <v>154</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45573.296493055597</v>
+      </c>
+      <c r="C153" s="1">
+        <v>45573.296805555598</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153" s="2">
+        <v>45573</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M153" s="3"/>
+      <c r="N153" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O153" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154">
+        <v>155</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45573.298379629603</v>
+      </c>
+      <c r="C154" s="1">
+        <v>45573.299097222203</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G154" s="2">
+        <v>45504</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="L154">
+        <v>13</v>
+      </c>
+      <c r="M154" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N154" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O154" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155">
+        <v>156</v>
+      </c>
+      <c r="B155" s="1">
+        <v>45573.2991203704</v>
+      </c>
+      <c r="C155" s="1">
+        <v>45573.299560185202</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G155" s="2">
+        <v>45526</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="L155">
+        <v>13</v>
+      </c>
+      <c r="M155" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="N155" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O155" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156">
+        <v>157</v>
+      </c>
+      <c r="B156" s="1">
+        <v>45573.299583333297</v>
+      </c>
+      <c r="C156" s="1">
+        <v>45573.300011574102</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G156" s="2">
+        <v>45543</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+      <c r="L156">
+        <v>6</v>
+      </c>
+      <c r="M156" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="N156" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O156" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/Research metrics new.xlsx
+++ b/data/Research metrics new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28224"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium-my.sharepoint.com/personal/rcunning_sheddaquarium_org/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89D01FB0-E5E3-40E5-A5DD-CA206CF650DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B73E567-254B-4618-8467-416CD6F5001E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="268">
   <si>
     <t>Id</t>
   </si>
@@ -801,6 +801,45 @@
   </si>
   <si>
     <t>Port Everglades coral survey trip</t>
+  </si>
+  <si>
+    <t>Coral sampling in Bermuda</t>
+  </si>
+  <si>
+    <t>Virtual Q7A about sharks and marine biology for two 5th grader classes at Franklin Elementary School, WI</t>
+  </si>
+  <si>
+    <t>Great Lakes Shedd Adventure</t>
+  </si>
+  <si>
+    <t>AFS Hawaii - oral presentation "sucker for suckers: raising awareness and appreciation for swimming superheroes"</t>
+  </si>
+  <si>
+    <t>Murchie, K.J., E.S. Childress, and P.B. McIntyre. 2024. For the love of suckers: scientific benefits of engaging volunteers to monitor migrations and advocate for native non-game fishes. Environmental Biology of Fishes https://doi.org/10.1007/s10641-024-01616-0</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s10641-024-01616-0</t>
+  </si>
+  <si>
+    <t>Citizen Science Symposium at the Ridges Sanctuary</t>
+  </si>
+  <si>
+    <t>FishPass presentation on citizen science program</t>
+  </si>
+  <si>
+    <t>Presentation for freshwater ecology ACCA - habitat connectivity and climate change</t>
+  </si>
+  <si>
+    <t>Pfab, F., Detmer, A.R., Moeller, H.V. et al. Heat stress and bleaching in corals: a bioenergetic model. Coral Reefs (2024). https://doi.org/10.1007/s00338-024-02561-1</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00338-024-02561-1</t>
+  </si>
+  <si>
+    <t>https://www.local10.com/news/local/2024/11/06/theres-so-much-at-stake-port-everglades-corals-surveyed-ahead-of-widening-project/</t>
+  </si>
+  <si>
+    <t>Miami Local 10 field trip and interview about Port Everglades corals</t>
   </si>
 </sst>
 </file>
@@ -909,8 +948,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:O156" totalsRowShown="0">
-  <autoFilter ref="A1:O156" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:O166" totalsRowShown="0">
+  <autoFilter ref="A1:O166" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="Ross Cunning"/>
@@ -1032,7 +1071,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="WmKV9QsF-ESGzEsfiGZoTb83Sl3n5wlHr3isCMIkazlUREdPWjQwWjdHU1IxNFdNOVVTSVpHNktFSi4u" isFormConnected="1" maxResponseId="157" latestEventMarker="156">
+      <xlmsforms:msForm id="WmKV9QsF-ESGzEsfiGZoTb83Sl3n5wlHr3isCMIkazlUREdPWjQwWjdHU1IxNFdNOVVTSVpHNktFSi4u" isFormConnected="1" maxResponseId="167" latestEventMarker="166">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -1351,7 +1390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O156"/>
+  <dimension ref="A1:O166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C157" sqref="C157"/>
@@ -7443,6 +7482,395 @@
         <v>21</v>
       </c>
     </row>
+    <row r="157" spans="1:15">
+      <c r="A157">
+        <v>158</v>
+      </c>
+      <c r="B157" s="1">
+        <v>45573.345104166699</v>
+      </c>
+      <c r="C157" s="1">
+        <v>45573.345717592601</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G157" s="2">
+        <v>45347</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="L157">
+        <v>5</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="N157" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O157" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158">
+        <v>159</v>
+      </c>
+      <c r="B158" s="1">
+        <v>45596.518611111103</v>
+      </c>
+      <c r="C158" s="1">
+        <v>45596.520601851902</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G158" s="2">
+        <v>45596</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>40</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O158" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159">
+        <v>160</v>
+      </c>
+      <c r="B159" s="1">
+        <v>45596.714409722197</v>
+      </c>
+      <c r="C159" s="1">
+        <v>45596.724571759303</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G159" s="2">
+        <v>45531</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159">
+        <v>314</v>
+      </c>
+      <c r="L159">
+        <v>157</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="N159" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O159" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160">
+        <v>161</v>
+      </c>
+      <c r="B160" s="1">
+        <v>45596.724664351903</v>
+      </c>
+      <c r="C160" s="1">
+        <v>45596.726145833301</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G160" s="2">
+        <v>45548</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="M160" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="N160" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O160" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161">
+        <v>162</v>
+      </c>
+      <c r="B161" s="1">
+        <v>45596.726180555597</v>
+      </c>
+      <c r="C161" s="1">
+        <v>45596.727604166699</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" s="2">
+        <v>45594</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O161" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162">
+        <v>163</v>
+      </c>
+      <c r="B162" s="1">
+        <v>45596.727673611102</v>
+      </c>
+      <c r="C162" s="1">
+        <v>45596.728599536997</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G162" s="2">
+        <v>45591</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="M162" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="N162" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O162" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163">
+        <v>164</v>
+      </c>
+      <c r="B163" s="1">
+        <v>45596.728668981501</v>
+      </c>
+      <c r="C163" s="1">
+        <v>45596.729085648098</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G163" s="2">
+        <v>45594</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="M163" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="N163" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O163" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164">
+        <v>165</v>
+      </c>
+      <c r="B164" s="1">
+        <v>45596.729166666701</v>
+      </c>
+      <c r="C164" s="1">
+        <v>45596.729606481502</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G164" s="2">
+        <v>45584</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="M164" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="N164" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O164" s="3"/>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165">
+        <v>166</v>
+      </c>
+      <c r="B165" s="1">
+        <v>45603.420381944401</v>
+      </c>
+      <c r="C165" s="1">
+        <v>45603.421076388899</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G165" s="2">
+        <v>45595</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O165" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166">
+        <v>167</v>
+      </c>
+      <c r="B166" s="1">
+        <v>45603.421099537001</v>
+      </c>
+      <c r="C166" s="1">
+        <v>45603.421585648102</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" s="2">
+        <v>45602</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="N166" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O166" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/Research metrics new.xlsx
+++ b/data/Research metrics new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium-my.sharepoint.com/personal/rcunning_sheddaquarium_org/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89D01FB0-E5E3-40E5-A5DD-CA206CF650DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1947FC00-DA9D-4B16-BFB7-DB90330FE561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="362">
   <si>
     <t>Id</t>
   </si>
@@ -377,7 +377,7 @@
     <t>Sharks</t>
   </si>
   <si>
-    <t>Shar research aboard the CR2 - BRUVS and genetics</t>
+    <t>Shark research aboard the CR2 - BRUVS and genetics</t>
   </si>
   <si>
     <t>Tadpole surveys with Melissa and Noah</t>
@@ -801,6 +801,327 @@
   </si>
   <si>
     <t>Port Everglades coral survey trip</t>
+  </si>
+  <si>
+    <t>Coral sampling in Bermuda</t>
+  </si>
+  <si>
+    <t>Virtual Q7A about sharks and marine biology for two 5th grader classes at Franklin Elementary School, WI</t>
+  </si>
+  <si>
+    <t>Great Lakes Shedd Adventure</t>
+  </si>
+  <si>
+    <t>AFS Hawaii - oral presentation "sucker for suckers: raising awareness and appreciation for swimming superheroes"</t>
+  </si>
+  <si>
+    <t>Murchie, K.J., E.S. Childress, and P.B. McIntyre. 2024. For the love of suckers: scientific benefits of engaging volunteers to monitor migrations and advocate for native non-game fishes. Environmental Biology of Fishes https://doi.org/10.1007/s10641-024-01616-0</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s10641-024-01616-0</t>
+  </si>
+  <si>
+    <t>Citizen Science Symposium at the Ridges Sanctuary</t>
+  </si>
+  <si>
+    <t>FishPass presentation on citizen science program</t>
+  </si>
+  <si>
+    <t>Presentation for freshwater ecology ACCA - habitat connectivity and climate change</t>
+  </si>
+  <si>
+    <t>Pfab, F., Detmer, A.R., Moeller, H.V. et al. Heat stress and bleaching in corals: a bioenergetic model. Coral Reefs (2024). https://doi.org/10.1007/s00338-024-02561-1</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00338-024-02561-1</t>
+  </si>
+  <si>
+    <t>https://www.local10.com/news/local/2024/11/06/theres-so-much-at-stake-port-everglades-corals-surveyed-ahead-of-widening-project/</t>
+  </si>
+  <si>
+    <t>Miami Local 10 field trip and interview about Port Everglades corals</t>
+  </si>
+  <si>
+    <t>Moorea coral research</t>
+  </si>
+  <si>
+    <t>8 students * 10 hours/day * 12 days = 960 hours</t>
+  </si>
+  <si>
+    <t>8 students * 10 hours/day * 4 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5th International Union for Conservation of Nature Species Survival Commission (IUCN SSC) Leaders’ Meeting, Abu Dhabi, United Arab Emirates. Succession Planning in SSC Groups and mentoring New Leaders, 2024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5th International Union for Conservation of Nature Species Survival Commission (IUCN SSC) Leaders’ Meeting, Abu Dhabi, United Arab Emirates. Panel Discussion on Partnering for Greater Impact: Centers for Species Survival Supporting the SSC, 2024 </t>
+  </si>
+  <si>
+    <t>Iguanas;CSS: Freshwater</t>
+  </si>
+  <si>
+    <t>https://indd.adobe.com/view/eba4e96f-716f-4085-90e3-cb4331716759/</t>
+  </si>
+  <si>
+    <t>I had an article called "healthy fisheries rely on suckers" in the Milwaukee River Basin Report, published by Milwaukee Riverkeepers</t>
+  </si>
+  <si>
+    <t>World Fish Migration Day at Shedd. This year GLATOS and FishPass team members joined to help get the message out about the importance of migratory fishes and habitat connectivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey “Mapping freshwater biodiversity and ecosystems conservation efforts in Central America” </t>
+  </si>
+  <si>
+    <t>Coton River watershed project</t>
+  </si>
+  <si>
+    <t>Workshop-using macroinvertebrates to assess rivers health, including field and laboratory training sessions.</t>
+  </si>
+  <si>
+    <t>Two-day workshop -Freshwater Fish Life History Strategies- at the Universidad de San Carlos de Guatemala.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with Guatemalan students sponsored through the Center to work on their research proposals. </t>
+  </si>
+  <si>
+    <t>https://portals.iucn.org/library/sites/library/files/documents/SSC%20Quarterly%20Report%202024%20June.pdf</t>
+  </si>
+  <si>
+    <t>IUCN SSC QR Report CSS Freshwater at the World Species Congress</t>
+  </si>
+  <si>
+    <t>Discussion on freshwater fish DNA reference library Gap Analysis</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/reel/332342279941094</t>
+  </si>
+  <si>
+    <t>Herencia Hispana - Featuring our work in Central America</t>
+  </si>
+  <si>
+    <t>Connection with Bivaas to discuss the replication of Mappin of Freshwater Conservation Efforts.</t>
+  </si>
+  <si>
+    <t>Presentation at the Walder Foundation retreat (Chuck Knapp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with Freshwater Life to share the work in Central America. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabling at Community Nights 2024 ' </t>
+  </si>
+  <si>
+    <t>Presented at the I Panamerican Congress of Invasive and Non-native Aquatic Species</t>
+  </si>
+  <si>
+    <t>Lecture on global freshwater conservation efforts for ACCA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co hosted and presented at the Guatemala COP16 Preparatory Workshop </t>
+  </si>
+  <si>
+    <t>Presented at the IUCN SCC Leaders meeting</t>
+  </si>
+  <si>
+    <t>Engaged with partners fron CA to coordinate efforts for the 2025 symposium.</t>
+  </si>
+  <si>
+    <t>https://www.chicagobusiness.com/awards/yasmin-quintana-notable-latino-leaders-2024</t>
+  </si>
+  <si>
+    <t>Mention the Center on Crain´s Chicago Business award release</t>
+  </si>
+  <si>
+    <t>https://doorcountypulse.com/volunteers-key-to-new-finding-on-freshwater-suckers/</t>
+  </si>
+  <si>
+    <t>coverage of my sucker migration phenology citizen science paper with local volunteers highlighted</t>
+  </si>
+  <si>
+    <t>https://mailchi.mp/waza.org/wazas-flash-newsletter-1326907-zr1gnse3ji-10140760?e=b5160c0b9a</t>
+  </si>
+  <si>
+    <t>Migratory fishes research - cit sci publication covered in WAZA newsletter</t>
+  </si>
+  <si>
+    <t>Request from Learning to tour and provide lab overview to  JoVonna Jackson, community leader and artist</t>
+  </si>
+  <si>
+    <t>Ki, K. C., Lewis, E. L., Wu, E., Oliaro, F. J., Aubry, L. M., Knapp, C. R., ... &amp; French, S. S. (2024). High sugar diet alters immune function and the gut microbiome in juvenile green iguanas (Iguana iguana). Journal of Experimental Biology, jeb-246981.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1242/jeb.246981</t>
+  </si>
+  <si>
+    <t>Hosted Open House in new lab spaces with instrument demos and open discussion - attended by approximately 30 staff members</t>
+  </si>
+  <si>
+    <t>Molecular ecology &amp; Conservation labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab tour and overview with representatives from the Genoa National Fish Hatchery and USFWS Green Bay Field Office </t>
+  </si>
+  <si>
+    <t>Freshwater mussels;Molecular Ecology &amp; Conservation labs</t>
+  </si>
+  <si>
+    <t>Bowmouth guitarfish tagging trip to Okinawa, Japan.  Two animals tagged as part of SharkRay 360</t>
+  </si>
+  <si>
+    <t>Public presentation at the Peoria Riverside Museum on Shark Biology, Conservation, and Research.  Around 50 people in attendance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecture to grad students from the University of Wisconsin, Milwaukee, on shark research and conservation.  Around 30 in attendance </t>
+  </si>
+  <si>
+    <t>https://www.outdoornews.com/2024/11/27/project-on-understudied-yet-essential-sucker-took-birding-approach-to-studying-fish/</t>
+  </si>
+  <si>
+    <t>Invited seminar at University of South Florida</t>
+  </si>
+  <si>
+    <t>Field work days for July</t>
+  </si>
+  <si>
+    <t>In-Field interview with MWRD commissioner about our work on Bubbly Creek for his instagram reel.</t>
+  </si>
+  <si>
+    <t>https://www.greatlakesnow.org/deep-dives-and-rising-waters/</t>
+  </si>
+  <si>
+    <t>Interview for Great Lakes Now video</t>
+  </si>
+  <si>
+    <t>https://www.greatlakesnow.org/2024/09/how-do-fish-survive-in-large-urban-waterways-like-the-chicago-river/</t>
+  </si>
+  <si>
+    <t>Interview for written Great Lakes Now piece</t>
+  </si>
+  <si>
+    <t>Field Days on Chicago River</t>
+  </si>
+  <si>
+    <t>Met with Shedd Academy class of 50 students</t>
+  </si>
+  <si>
+    <t>field days</t>
+  </si>
+  <si>
+    <t>field work day</t>
+  </si>
+  <si>
+    <t>field work days</t>
+  </si>
+  <si>
+    <t>Meet with and did a site visit with 20 elected officials at our South Branch restoration site.</t>
+  </si>
+  <si>
+    <t>Meet with 4 parents whom are interested in supporting their high schoolers in animal related career paths.</t>
+  </si>
+  <si>
+    <t>Met with Northwestern university student to discuss the history of Bubbly Creek and how we are working to restore it.</t>
+  </si>
+  <si>
+    <t>https://www.outdoornews.com/2024/05/15/tracking-in-chicago-river-offers-interesting-look-at-fish-movement/</t>
+  </si>
+  <si>
+    <t>Irene Miles published a report about our telemetry work in the Chicago River</t>
+  </si>
+  <si>
+    <t>https://iiseagrant.org/wp-content/uploads/2024/11/The-Helm-2024-13-web-largemouth-bass.pdf</t>
+  </si>
+  <si>
+    <t>Irene Miles published about our work on the Chicago River</t>
+  </si>
+  <si>
+    <t>https://e360.yale.edu/features/floating-wetlands-cities-pollution</t>
+  </si>
+  <si>
+    <t>Yale360 article about the floating wetlands paper</t>
+  </si>
+  <si>
+    <t>https://outdoor.wildlifeillinois.org/articles/chicago-river-study-is-tracking-fish-movement-in-these-busy-waters</t>
+  </si>
+  <si>
+    <t>Irene Miles article on our telemetry work in the Chicago River.</t>
+  </si>
+  <si>
+    <t>https://chicago.suntimes.com/outdoors/2024/05/28/fly-fisher-catches-a-tagged-largemouth-bass-on-the-chicago-river</t>
+  </si>
+  <si>
+    <t>Report about our floy taggin study</t>
+  </si>
+  <si>
+    <t>SCB LACA Interactive Session - Efforts and challenges in freshwater conservation in the Kunming-Montreal World Biodiversity Framework</t>
+  </si>
+  <si>
+    <t>3rd Q field days</t>
+  </si>
+  <si>
+    <t>SCTLD Heritability Project Final Presentation to Funders</t>
+  </si>
+  <si>
+    <t>Coral Spawning Research Cruise</t>
+  </si>
+  <si>
+    <t>5 students/postdocs * 11 days * 10 hours/day</t>
+  </si>
+  <si>
+    <t>Ross's Port Everglades Coral DRM survey trip</t>
+  </si>
+  <si>
+    <t>Moorea Coral Research Trip</t>
+  </si>
+  <si>
+    <t>ACCA Dinner and short presentation with Hilary</t>
+  </si>
+  <si>
+    <t>Microbial ecology;ACCA</t>
+  </si>
+  <si>
+    <t>Point Foundation Chicago Professionals Engagement</t>
+  </si>
+  <si>
+    <t>Microbial strip collection with Austin on Chicago River</t>
+  </si>
+  <si>
+    <t>Chicago River biofilm collection</t>
+  </si>
+  <si>
+    <t>Lunch and Learn with filmmaker Aaron Lemle featuring Shayle and coral conservation</t>
+  </si>
+  <si>
+    <t>Attended the CPI Community Night and connected with organizations about coral</t>
+  </si>
+  <si>
+    <t>* Weissman, J. L., Chappell, C. R., Francesco Rodrigues de Oliveira, B., Evans, N., Fagre, A. C., Forsythe, D., Frese, S. A., Gregor, R., Ishaq, S. L., Johnston, J., K R, B., Matsuda, S. B., McCarren, S., Ortiz Alvarez de la Campa, M., Roepke, T. A., Sinnott-Armstrong, N., Stobie, C. S., Talluto, L., Vargas-Muñiz, J. M., &amp; Advancing Queer and Trans Equity in Science (AQTES) Consortium. (2024). Queer- and trans-inclusive faculty hiring-A call for change. PLoS Biology, 22(11), e3002919.</t>
+  </si>
+  <si>
+    <t>* https://doi.org/10.1371/journal.pbio.3002919</t>
+  </si>
+  <si>
+    <t>Cunning, R., Matsuda, S. B., Bartels, E., D’Alessandro, M., Detmer, A. R., Harnay, P., Levy, J., Lirman, D., Moeller, H. V., Muller, E. M., Nedimyer, K., Pfab, F., &amp; Putnam, H. M. (2024). On the use of rapid acute heat tolerance assays to resolve ecologically relevant differences among corals. Coral Reefs, 43(6), 1793–1801.</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00338-024-02577-7</t>
+  </si>
+  <si>
+    <t>Weissman, J. L., Chappell, C. R., de Oliveira, B. F. R., Evans, N., Fagre, A. C., Forsythe, D., Frese, S. A., Gregor, R., Ishaq, S. L., Johnston, J., Bittu, K. R., Matsuda, S. B., McCarren, S., de la Campa, M. O. A., Roepke, T. A., Sinnott-Armstrong, N., Stobie, C. S., Talluto, L., Vargas-Muñiz, J., &amp; The Advancing Queer and Trans Equity. (2024). Running a queer- and trans-inclusive faculty hiring process. https://ecoevorxiv.org/repository/view/6791/</t>
+  </si>
+  <si>
+    <t>https://ecoevorxiv.org/repository/view/6791/</t>
+  </si>
+  <si>
+    <t>Full white paper of our shorter peer reviewed publication</t>
+  </si>
+  <si>
+    <t>TConn@sheddaquarium.org</t>
+  </si>
+  <si>
+    <t>Trinity Conn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunch and Learn Presentation on my research into the genomics of clonal organisms </t>
   </si>
 </sst>
 </file>
@@ -810,10 +1131,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -836,17 +1165,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
@@ -909,13 +1242,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:O156" totalsRowShown="0">
-  <autoFilter ref="A1:O156" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Ross Cunning"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:O236" totalsRowShown="0">
+  <autoFilter ref="A1:O236" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="6">
       <filters>
         <dateGroupItem year="2024" dateTimeGrouping="year"/>
@@ -1032,7 +1360,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="WmKV9QsF-ESGzEsfiGZoTb83Sl3n5wlHr3isCMIkazlUREdPWjQwWjdHU1IxNFdNOVVTSVpHNktFSi4u" isFormConnected="1" maxResponseId="157" latestEventMarker="156">
+      <xlmsforms:msForm id="WmKV9QsF-ESGzEsfiGZoTb83Sl3n5wlHr3isCMIkazlUREdPWjQwWjdHU1IxNFdNOVVTSVpHNktFSi4u" isFormConnected="1" maxResponseId="237" latestEventMarker="236">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -1351,16 +1679,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O156"/>
+  <dimension ref="A1:O236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" topLeftCell="C210" workbookViewId="0">
+      <selection activeCell="F226" sqref="F226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.42578125" customWidth="1"/>
+    <col min="13" max="13" width="98.140625" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="42.85546875" customWidth="1"/>
   </cols>
@@ -1412,7 +1740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1">
+    <row r="2" spans="1:15">
       <c r="B2" s="1">
         <v>45373.418958333299</v>
       </c>
@@ -1446,7 +1774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1483,7 +1811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1520,7 +1848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1557,7 +1885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1594,7 +1922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1631,7 +1959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1668,7 +1996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1705,7 +2033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1742,7 +2070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>11</v>
       </c>
@@ -1782,7 +2110,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>12</v>
       </c>
@@ -1822,7 +2150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>13</v>
       </c>
@@ -1861,7 +2189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1978,7 +2306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>17</v>
       </c>
@@ -2015,7 +2343,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2052,7 +2380,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>19</v>
       </c>
@@ -2092,7 +2420,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>20</v>
       </c>
@@ -2234,7 +2562,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23">
-        <v>114</v>
+        <v>258</v>
       </c>
       <c r="L23">
         <v>9</v>
@@ -2286,7 +2614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>25</v>
       </c>
@@ -2323,7 +2651,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>26</v>
       </c>
@@ -2358,7 +2686,7 @@
       </c>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" hidden="1">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>27</v>
       </c>
@@ -2395,7 +2723,7 @@
       </c>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" hidden="1">
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>28</v>
       </c>
@@ -2430,7 +2758,7 @@
       </c>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" hidden="1">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>29</v>
       </c>
@@ -2470,7 +2798,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1">
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>30</v>
       </c>
@@ -2513,7 +2841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>31</v>
       </c>
@@ -2552,7 +2880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>32</v>
       </c>
@@ -2595,7 +2923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>33</v>
       </c>
@@ -2638,7 +2966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>34</v>
       </c>
@@ -2681,7 +3009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>35</v>
       </c>
@@ -2724,7 +3052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1">
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>36</v>
       </c>
@@ -2767,7 +3095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1">
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>37</v>
       </c>
@@ -2810,7 +3138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1">
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>38</v>
       </c>
@@ -2848,7 +3176,7 @@
       </c>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" hidden="1">
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>39</v>
       </c>
@@ -2886,7 +3214,7 @@
       </c>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" hidden="1">
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>40</v>
       </c>
@@ -2924,7 +3252,7 @@
       </c>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" hidden="1">
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>41</v>
       </c>
@@ -2962,7 +3290,7 @@
       </c>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" hidden="1">
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>42</v>
       </c>
@@ -3002,7 +3330,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1">
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3192,7 +3520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>48</v>
       </c>
@@ -3227,7 +3555,7 @@
       </c>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" hidden="1">
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>49</v>
       </c>
@@ -3268,7 +3596,7 @@
       </c>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" hidden="1">
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>50</v>
       </c>
@@ -3305,7 +3633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1">
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>51</v>
       </c>
@@ -3340,7 +3668,7 @@
       </c>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" hidden="1">
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>52</v>
       </c>
@@ -3381,7 +3709,7 @@
       </c>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" hidden="1">
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>53</v>
       </c>
@@ -3418,7 +3746,7 @@
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" hidden="1">
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>54</v>
       </c>
@@ -3455,7 +3783,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1">
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>55</v>
       </c>
@@ -3495,7 +3823,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1">
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>56</v>
       </c>
@@ -3574,7 +3902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1">
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>58</v>
       </c>
@@ -3614,7 +3942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1">
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>59</v>
       </c>
@@ -3640,7 +3968,7 @@
         <v>36</v>
       </c>
       <c r="I59" s="3"/>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="5" t="s">
         <v>119</v>
       </c>
       <c r="M59" s="3" t="s">
@@ -3653,7 +3981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1">
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>60</v>
       </c>
@@ -3730,7 +4058,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1">
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>62</v>
       </c>
@@ -3770,7 +4098,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1">
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>63</v>
       </c>
@@ -3809,7 +4137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1">
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>64</v>
       </c>
@@ -3861,7 +4189,7 @@
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" hidden="1">
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>66</v>
       </c>
@@ -3904,7 +4232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1">
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>67</v>
       </c>
@@ -3939,7 +4267,7 @@
       </c>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" hidden="1">
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>68</v>
       </c>
@@ -3974,7 +4302,7 @@
       </c>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" hidden="1">
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4011,7 +4339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1">
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4048,7 +4376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1">
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4088,7 +4416,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1">
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4128,7 +4456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1">
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>73</v>
       </c>
@@ -4171,7 +4499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1">
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4214,7 +4542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1">
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>75</v>
       </c>
@@ -4251,7 +4579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1">
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>76</v>
       </c>
@@ -4294,7 +4622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1">
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>77</v>
       </c>
@@ -4337,7 +4665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1">
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>78</v>
       </c>
@@ -4374,7 +4702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1">
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>79</v>
       </c>
@@ -4417,7 +4745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:15" hidden="1">
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>80</v>
       </c>
@@ -4458,7 +4786,7 @@
       </c>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" hidden="1">
+    <row r="81" spans="1:15">
       <c r="A81">
         <v>81</v>
       </c>
@@ -4497,7 +4825,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1">
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>82</v>
       </c>
@@ -4536,7 +4864,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1">
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>83</v>
       </c>
@@ -4579,7 +4907,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1">
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>84</v>
       </c>
@@ -4619,7 +4947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1">
+    <row r="85" spans="1:15">
       <c r="A85">
         <v>85</v>
       </c>
@@ -4662,7 +4990,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1">
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>86</v>
       </c>
@@ -4697,7 +5025,7 @@
       </c>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" hidden="1">
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>88</v>
       </c>
@@ -4740,7 +5068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1">
+    <row r="88" spans="1:15">
       <c r="A88">
         <v>89</v>
       </c>
@@ -4777,7 +5105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1">
+    <row r="89" spans="1:15">
       <c r="A89">
         <v>90</v>
       </c>
@@ -4814,7 +5142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1">
+    <row r="90" spans="1:15">
       <c r="A90">
         <v>91</v>
       </c>
@@ -4851,7 +5179,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1">
+    <row r="91" spans="1:15">
       <c r="A91">
         <v>92</v>
       </c>
@@ -4894,7 +5222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1">
+    <row r="92" spans="1:15">
       <c r="A92">
         <v>93</v>
       </c>
@@ -4933,7 +5261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1">
+    <row r="93" spans="1:15">
       <c r="A93">
         <v>94</v>
       </c>
@@ -4970,7 +5298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1">
+    <row r="94" spans="1:15">
       <c r="A94">
         <v>95</v>
       </c>
@@ -5011,7 +5339,7 @@
       </c>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" hidden="1">
+    <row r="95" spans="1:15">
       <c r="A95">
         <v>96</v>
       </c>
@@ -5051,7 +5379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1">
+    <row r="96" spans="1:15">
       <c r="A96">
         <v>97</v>
       </c>
@@ -5088,7 +5416,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1">
+    <row r="97" spans="1:15">
       <c r="A97">
         <v>98</v>
       </c>
@@ -5128,7 +5456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1">
+    <row r="98" spans="1:15">
       <c r="A98">
         <v>99</v>
       </c>
@@ -5165,7 +5493,7 @@
       </c>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" hidden="1">
+    <row r="99" spans="1:15">
       <c r="A99">
         <v>100</v>
       </c>
@@ -5202,7 +5530,7 @@
       </c>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" hidden="1">
+    <row r="100" spans="1:15">
       <c r="A100">
         <v>101</v>
       </c>
@@ -5242,7 +5570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1">
+    <row r="101" spans="1:15">
       <c r="A101">
         <v>102</v>
       </c>
@@ -5282,7 +5610,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1">
+    <row r="102" spans="1:15">
       <c r="A102">
         <v>103</v>
       </c>
@@ -5322,7 +5650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1">
+    <row r="103" spans="1:15">
       <c r="A103">
         <v>104</v>
       </c>
@@ -5359,7 +5687,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1">
+    <row r="104" spans="1:15">
       <c r="A104">
         <v>105</v>
       </c>
@@ -5396,7 +5724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1">
+    <row r="105" spans="1:15">
       <c r="A105">
         <v>106</v>
       </c>
@@ -5433,7 +5761,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1">
+    <row r="106" spans="1:15">
       <c r="A106">
         <v>107</v>
       </c>
@@ -5470,7 +5798,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1">
+    <row r="107" spans="1:15">
       <c r="A107">
         <v>108</v>
       </c>
@@ -5507,7 +5835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1">
+    <row r="108" spans="1:15">
       <c r="A108">
         <v>109</v>
       </c>
@@ -5542,7 +5870,7 @@
       </c>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" hidden="1">
+    <row r="109" spans="1:15">
       <c r="A109">
         <v>110</v>
       </c>
@@ -5585,7 +5913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1">
+    <row r="110" spans="1:15">
       <c r="A110">
         <v>111</v>
       </c>
@@ -5622,7 +5950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1">
+    <row r="111" spans="1:15">
       <c r="A111">
         <v>112</v>
       </c>
@@ -5659,7 +5987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1">
+    <row r="112" spans="1:15">
       <c r="A112">
         <v>113</v>
       </c>
@@ -5702,7 +6030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1">
+    <row r="113" spans="1:15">
       <c r="A113">
         <v>114</v>
       </c>
@@ -5741,7 +6069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1">
+    <row r="114" spans="1:15">
       <c r="A114">
         <v>115</v>
       </c>
@@ -5778,7 +6106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1">
+    <row r="115" spans="1:15">
       <c r="A115">
         <v>116</v>
       </c>
@@ -5815,7 +6143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1">
+    <row r="116" spans="1:15">
       <c r="A116">
         <v>117</v>
       </c>
@@ -5854,7 +6182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1">
+    <row r="117" spans="1:15">
       <c r="A117">
         <v>118</v>
       </c>
@@ -5889,7 +6217,7 @@
       </c>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" hidden="1">
+    <row r="118" spans="1:15">
       <c r="A118">
         <v>119</v>
       </c>
@@ -5927,7 +6255,7 @@
       </c>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" hidden="1">
+    <row r="119" spans="1:15">
       <c r="A119">
         <v>120</v>
       </c>
@@ -5967,7 +6295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1">
+    <row r="120" spans="1:15">
       <c r="A120">
         <v>121</v>
       </c>
@@ -6007,7 +6335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1">
+    <row r="121" spans="1:15">
       <c r="A121">
         <v>122</v>
       </c>
@@ -6047,7 +6375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:15" hidden="1">
+    <row r="122" spans="1:15">
       <c r="A122">
         <v>123</v>
       </c>
@@ -6087,7 +6415,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1">
+    <row r="123" spans="1:15">
       <c r="A123">
         <v>124</v>
       </c>
@@ -6127,7 +6455,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1">
+    <row r="124" spans="1:15">
       <c r="A124">
         <v>125</v>
       </c>
@@ -6170,7 +6498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1">
+    <row r="125" spans="1:15">
       <c r="A125">
         <v>126</v>
       </c>
@@ -6213,7 +6541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1">
+    <row r="126" spans="1:15">
       <c r="A126">
         <v>127</v>
       </c>
@@ -6254,7 +6582,7 @@
       </c>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" hidden="1">
+    <row r="127" spans="1:15">
       <c r="A127">
         <v>128</v>
       </c>
@@ -6295,7 +6623,7 @@
       </c>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" hidden="1">
+    <row r="128" spans="1:15">
       <c r="A128">
         <v>129</v>
       </c>
@@ -6338,7 +6666,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="129" spans="1:15" hidden="1">
+    <row r="129" spans="1:15">
       <c r="A129">
         <v>130</v>
       </c>
@@ -6375,7 +6703,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="130" spans="1:15" hidden="1">
+    <row r="130" spans="1:15">
       <c r="A130">
         <v>131</v>
       </c>
@@ -6412,7 +6740,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="131" spans="1:15" hidden="1">
+    <row r="131" spans="1:15">
       <c r="A131">
         <v>132</v>
       </c>
@@ -6449,7 +6777,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="132" spans="1:15" hidden="1">
+    <row r="132" spans="1:15">
       <c r="A132">
         <v>133</v>
       </c>
@@ -6492,7 +6820,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="133" spans="1:15" hidden="1">
+    <row r="133" spans="1:15">
       <c r="A133">
         <v>134</v>
       </c>
@@ -6532,7 +6860,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:15" hidden="1">
+    <row r="134" spans="1:15">
       <c r="A134">
         <v>135</v>
       </c>
@@ -6572,7 +6900,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="135" spans="1:15" hidden="1">
+    <row r="135" spans="1:15">
       <c r="A135">
         <v>136</v>
       </c>
@@ -6611,7 +6939,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="1:15" hidden="1">
+    <row r="136" spans="1:15">
       <c r="A136">
         <v>137</v>
       </c>
@@ -6650,7 +6978,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="137" spans="1:15" hidden="1">
+    <row r="137" spans="1:15">
       <c r="A137">
         <v>138</v>
       </c>
@@ -6693,7 +7021,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="138" spans="1:15" hidden="1">
+    <row r="138" spans="1:15">
       <c r="A138">
         <v>139</v>
       </c>
@@ -6733,7 +7061,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="139" spans="1:15" hidden="1">
+    <row r="139" spans="1:15">
       <c r="A139">
         <v>140</v>
       </c>
@@ -6772,7 +7100,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="140" spans="1:15" hidden="1">
+    <row r="140" spans="1:15">
       <c r="A140">
         <v>141</v>
       </c>
@@ -6811,7 +7139,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="1:15" hidden="1">
+    <row r="141" spans="1:15">
       <c r="A141">
         <v>142</v>
       </c>
@@ -6850,7 +7178,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="142" spans="1:15" hidden="1">
+    <row r="142" spans="1:15">
       <c r="A142">
         <v>143</v>
       </c>
@@ -6890,7 +7218,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="143" spans="1:15" hidden="1">
+    <row r="143" spans="1:15">
       <c r="A143">
         <v>144</v>
       </c>
@@ -6933,7 +7261,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="144" spans="1:15" hidden="1">
+    <row r="144" spans="1:15">
       <c r="A144">
         <v>145</v>
       </c>
@@ -6972,7 +7300,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="145" spans="1:15" hidden="1">
+    <row r="145" spans="1:15">
       <c r="A145">
         <v>146</v>
       </c>
@@ -7009,7 +7337,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="146" spans="1:15" hidden="1">
+    <row r="146" spans="1:15">
       <c r="A146">
         <v>147</v>
       </c>
@@ -7046,7 +7374,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="147" spans="1:15" hidden="1">
+    <row r="147" spans="1:15">
       <c r="A147">
         <v>148</v>
       </c>
@@ -7083,7 +7411,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="148" spans="1:15" hidden="1">
+    <row r="148" spans="1:15">
       <c r="A148">
         <v>149</v>
       </c>
@@ -7126,7 +7454,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:15" hidden="1">
+    <row r="149" spans="1:15">
       <c r="A149">
         <v>150</v>
       </c>
@@ -7247,7 +7575,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="152" spans="1:15" hidden="1">
+    <row r="152" spans="1:15">
       <c r="A152">
         <v>153</v>
       </c>
@@ -7443,11 +7771,3161 @@
         <v>21</v>
       </c>
     </row>
+    <row r="157" spans="1:15">
+      <c r="A157">
+        <v>158</v>
+      </c>
+      <c r="B157" s="1">
+        <v>45573.345104166699</v>
+      </c>
+      <c r="C157" s="1">
+        <v>45573.345717592601</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G157" s="2">
+        <v>45347</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="L157">
+        <v>5</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="N157" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O157" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158">
+        <v>159</v>
+      </c>
+      <c r="B158" s="1">
+        <v>45596.518611111103</v>
+      </c>
+      <c r="C158" s="1">
+        <v>45596.520601851902</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G158" s="2">
+        <v>45596</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>40</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O158" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159">
+        <v>160</v>
+      </c>
+      <c r="B159" s="1">
+        <v>45596.714409722197</v>
+      </c>
+      <c r="C159" s="1">
+        <v>45596.724571759303</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G159" s="2">
+        <v>45531</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159">
+        <v>314</v>
+      </c>
+      <c r="L159">
+        <v>157</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="N159" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O159" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160">
+        <v>161</v>
+      </c>
+      <c r="B160" s="1">
+        <v>45596.724664351903</v>
+      </c>
+      <c r="C160" s="1">
+        <v>45596.726145833301</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G160" s="2">
+        <v>45548</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="M160" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="N160" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O160" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161">
+        <v>162</v>
+      </c>
+      <c r="B161" s="1">
+        <v>45596.726180555597</v>
+      </c>
+      <c r="C161" s="1">
+        <v>45596.727604166699</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" s="2">
+        <v>45594</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O161" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162">
+        <v>163</v>
+      </c>
+      <c r="B162" s="1">
+        <v>45596.727673611102</v>
+      </c>
+      <c r="C162" s="1">
+        <v>45596.728599536997</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G162" s="2">
+        <v>45591</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="M162" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="N162" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O162" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163">
+        <v>164</v>
+      </c>
+      <c r="B163" s="1">
+        <v>45596.728668981501</v>
+      </c>
+      <c r="C163" s="1">
+        <v>45596.729085648098</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G163" s="2">
+        <v>45594</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="M163" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="N163" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O163" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164">
+        <v>165</v>
+      </c>
+      <c r="B164" s="1">
+        <v>45596.729166666701</v>
+      </c>
+      <c r="C164" s="1">
+        <v>45596.729606481502</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G164" s="2">
+        <v>45584</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="M164" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="N164" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O164" s="3"/>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165">
+        <v>166</v>
+      </c>
+      <c r="B165" s="1">
+        <v>45603.420381944401</v>
+      </c>
+      <c r="C165" s="1">
+        <v>45603.421076388899</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G165" s="2">
+        <v>45595</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O165" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166">
+        <v>167</v>
+      </c>
+      <c r="B166" s="1">
+        <v>45603.421099537001</v>
+      </c>
+      <c r="C166" s="1">
+        <v>45603.421585648102</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" s="2">
+        <v>45602</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="N166" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O166" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167">
+        <v>168</v>
+      </c>
+      <c r="B167" s="1">
+        <v>45607.361192129603</v>
+      </c>
+      <c r="C167" s="1">
+        <v>45607.361736111103</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G167" s="2">
+        <v>45585</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+      <c r="L167">
+        <v>17</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="N167" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O167" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168">
+        <v>169</v>
+      </c>
+      <c r="B168" s="1">
+        <v>45607.361782407403</v>
+      </c>
+      <c r="C168" s="1">
+        <v>45607.364849537</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G168" s="2">
+        <v>45504</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I168" s="3"/>
+      <c r="J168" s="3"/>
+      <c r="K168">
+        <v>960</v>
+      </c>
+      <c r="L168">
+        <v>8</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="N168" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O168" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="A169">
+        <v>170</v>
+      </c>
+      <c r="B169" s="1">
+        <v>45607.364861111098</v>
+      </c>
+      <c r="C169" s="1">
+        <v>45607.3655208333</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G169" s="2">
+        <v>45543</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169">
+        <v>320</v>
+      </c>
+      <c r="L169">
+        <v>8</v>
+      </c>
+      <c r="M169" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="N169" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O169" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="A170">
+        <v>171</v>
+      </c>
+      <c r="B170" s="1">
+        <v>45608.448981481502</v>
+      </c>
+      <c r="C170" s="1">
+        <v>45608.449652777803</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G170" s="2">
+        <v>45589</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I170" s="3"/>
+      <c r="J170" s="3"/>
+      <c r="M170" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O170" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="A171">
+        <v>172</v>
+      </c>
+      <c r="B171" s="1">
+        <v>45608.449699074103</v>
+      </c>
+      <c r="C171" s="1">
+        <v>45608.450185185196</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G171" s="2">
+        <v>45592</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="M171" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="N171" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="O171" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="A172">
+        <v>173</v>
+      </c>
+      <c r="B172" s="1">
+        <v>45610.450844907398</v>
+      </c>
+      <c r="C172" s="1">
+        <v>45610.451539351903</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G172" s="2">
+        <v>45609</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="M172" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="N172" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O172" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="A173">
+        <v>174</v>
+      </c>
+      <c r="B173" s="1">
+        <v>45610.5940625</v>
+      </c>
+      <c r="C173" s="1">
+        <v>45610.594930555599</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G173" s="2">
+        <v>45437</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="L173">
+        <v>1500</v>
+      </c>
+      <c r="M173" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N173" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O173" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="A174">
+        <v>175</v>
+      </c>
+      <c r="B174" s="1">
+        <v>45615.465509259302</v>
+      </c>
+      <c r="C174" s="1">
+        <v>45615.478796296302</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G174" s="2">
+        <v>45482</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="L174">
+        <v>40</v>
+      </c>
+      <c r="M174" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="N174" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O174" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
+      <c r="A175">
+        <v>176</v>
+      </c>
+      <c r="B175" s="1">
+        <v>45615.478888888902</v>
+      </c>
+      <c r="C175" s="1">
+        <v>45615.482210648101</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G175" s="2">
+        <v>45495</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="L175">
+        <v>6</v>
+      </c>
+      <c r="M175" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="N175" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O175" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="A176">
+        <v>177</v>
+      </c>
+      <c r="B176" s="1">
+        <v>45615.482291666704</v>
+      </c>
+      <c r="C176" s="1">
+        <v>45615.485208333303</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G176" s="2">
+        <v>45496</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+      <c r="K176">
+        <v>120</v>
+      </c>
+      <c r="L176">
+        <v>15</v>
+      </c>
+      <c r="M176" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="N176" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O176" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
+      <c r="A177">
+        <v>178</v>
+      </c>
+      <c r="B177" s="1">
+        <v>45615.485300925902</v>
+      </c>
+      <c r="C177" s="1">
+        <v>45615.488391203697</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G177" s="2">
+        <v>45503</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177">
+        <v>256</v>
+      </c>
+      <c r="L177">
+        <v>48</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="N177" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O177" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
+      <c r="A178">
+        <v>179</v>
+      </c>
+      <c r="B178" s="1">
+        <v>45615.488483796304</v>
+      </c>
+      <c r="C178" s="1">
+        <v>45615.489282407398</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G178" s="2">
+        <v>45505</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I178" s="3"/>
+      <c r="J178" s="3"/>
+      <c r="K178">
+        <v>20</v>
+      </c>
+      <c r="L178">
+        <v>5</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="N178" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O178" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
+      <c r="A179">
+        <v>180</v>
+      </c>
+      <c r="B179" s="1">
+        <v>45615.491307870398</v>
+      </c>
+      <c r="C179" s="1">
+        <v>45615.492800925902</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G179" s="2">
+        <v>45504</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I179" s="3"/>
+      <c r="J179" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="M179" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="N179" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O179" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
+      <c r="A180">
+        <v>181</v>
+      </c>
+      <c r="B180" s="1">
+        <v>45615.4929050926</v>
+      </c>
+      <c r="C180" s="1">
+        <v>45615.496909722198</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G180" s="2">
+        <v>45523</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="L180">
+        <v>0.25</v>
+      </c>
+      <c r="M180" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N180" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O180" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
+      <c r="A181">
+        <v>182</v>
+      </c>
+      <c r="B181" s="1">
+        <v>45615.557106481501</v>
+      </c>
+      <c r="C181" s="1">
+        <v>45615.561261574097</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G181" s="2">
+        <v>45577</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="N181" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O181" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
+      <c r="A182">
+        <v>183</v>
+      </c>
+      <c r="B182" s="1">
+        <v>45615.5614236111</v>
+      </c>
+      <c r="C182" s="1">
+        <v>45615.562557870398</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G182" s="2">
+        <v>45531</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I182" s="3"/>
+      <c r="J182" s="3"/>
+      <c r="K182">
+        <v>2</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="N182" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O182" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15">
+      <c r="A183">
+        <v>184</v>
+      </c>
+      <c r="B183" s="1">
+        <v>45615.562627314801</v>
+      </c>
+      <c r="C183" s="1">
+        <v>45615.565578703703</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G183" s="2">
+        <v>45538</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="M183" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N183" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O183" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
+      <c r="A184">
+        <v>185</v>
+      </c>
+      <c r="B184" s="1">
+        <v>45615.566921296297</v>
+      </c>
+      <c r="C184" s="1">
+        <v>45615.567708333299</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G184" s="2">
+        <v>45551</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="N184" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O184" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
+      <c r="A185">
+        <v>186</v>
+      </c>
+      <c r="B185" s="1">
+        <v>45615.567777777796</v>
+      </c>
+      <c r="C185" s="1">
+        <v>45615.571238425902</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G185" s="2">
+        <v>45559</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185">
+        <v>120</v>
+      </c>
+      <c r="L185">
+        <v>40</v>
+      </c>
+      <c r="M185" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="N185" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O185" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
+      <c r="A186">
+        <v>187</v>
+      </c>
+      <c r="B186" s="1">
+        <v>45615.571851851899</v>
+      </c>
+      <c r="C186" s="1">
+        <v>45615.572534722203</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G186" s="2">
+        <v>45583</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="M186" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N186" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O186" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="A187">
+        <v>188</v>
+      </c>
+      <c r="B187" s="1">
+        <v>45615.573622685202</v>
+      </c>
+      <c r="C187" s="1">
+        <v>45615.574826388904</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G187" s="2">
+        <v>45577</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187">
+        <v>60</v>
+      </c>
+      <c r="L187">
+        <v>20</v>
+      </c>
+      <c r="M187" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="N187" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O187" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15">
+      <c r="A188">
+        <v>189</v>
+      </c>
+      <c r="B188" s="1">
+        <v>45615.574988425898</v>
+      </c>
+      <c r="C188" s="1">
+        <v>45615.5769560185</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G188" s="2">
+        <v>45575</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188">
+        <v>30</v>
+      </c>
+      <c r="L188">
+        <v>15</v>
+      </c>
+      <c r="M188" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="N188" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O188" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15">
+      <c r="A189">
+        <v>190</v>
+      </c>
+      <c r="B189" s="1">
+        <v>45615.5776736111</v>
+      </c>
+      <c r="C189" s="1">
+        <v>45615.5784375</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G189" s="2">
+        <v>45593</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="M189" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="N189" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O189" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15">
+      <c r="A190">
+        <v>191</v>
+      </c>
+      <c r="B190" s="1">
+        <v>45615.578506944403</v>
+      </c>
+      <c r="C190" s="1">
+        <v>45615.579490740703</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G190" s="2">
+        <v>45610</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190">
+        <v>6</v>
+      </c>
+      <c r="L190">
+        <v>6</v>
+      </c>
+      <c r="M190" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="N190" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O190" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15">
+      <c r="A191">
+        <v>192</v>
+      </c>
+      <c r="B191" s="1">
+        <v>45615.579548611102</v>
+      </c>
+      <c r="C191" s="1">
+        <v>45615.5811805556</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G191" s="2">
+        <v>45614</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="M191" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N191" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O191" s="3"/>
+    </row>
+    <row r="192" spans="1:15">
+      <c r="A192">
+        <v>193</v>
+      </c>
+      <c r="B192" s="1">
+        <v>45617.390196759297</v>
+      </c>
+      <c r="C192" s="1">
+        <v>45617.390821759298</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G192" s="2">
+        <v>45615</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="M192" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="N192" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O192" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15">
+      <c r="A193">
+        <v>194</v>
+      </c>
+      <c r="B193" s="1">
+        <v>45618.698946759301</v>
+      </c>
+      <c r="C193" s="1">
+        <v>45618.699328703697</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G193" s="2">
+        <v>45618</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="M193" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="N193" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O193" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15">
+      <c r="A194">
+        <v>195</v>
+      </c>
+      <c r="B194" s="1">
+        <v>45621.679988425902</v>
+      </c>
+      <c r="C194" s="1">
+        <v>45621.681041666699</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G194" s="2">
+        <v>45554</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194">
+        <v>3</v>
+      </c>
+      <c r="L194">
+        <v>3</v>
+      </c>
+      <c r="M194" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="N194" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O194" s="3"/>
+    </row>
+    <row r="195" spans="1:15">
+      <c r="A195">
+        <v>196</v>
+      </c>
+      <c r="B195" s="1">
+        <v>45621.681122685201</v>
+      </c>
+      <c r="C195" s="1">
+        <v>45621.683495370402</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G195" s="2">
+        <v>45476</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="M195" s="3"/>
+      <c r="N195" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O195" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15">
+      <c r="A196">
+        <v>197</v>
+      </c>
+      <c r="B196" s="1">
+        <v>45621.685590277797</v>
+      </c>
+      <c r="C196" s="1">
+        <v>45621.687627314801</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G196" s="2">
+        <v>45595</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196">
+        <v>30</v>
+      </c>
+      <c r="L196">
+        <v>30</v>
+      </c>
+      <c r="M196" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="N196" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O196" s="3"/>
+    </row>
+    <row r="197" spans="1:15">
+      <c r="A197">
+        <v>198</v>
+      </c>
+      <c r="B197" s="1">
+        <v>45621.6881712963</v>
+      </c>
+      <c r="C197" s="1">
+        <v>45621.689305555599</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G197" s="2">
+        <v>45615</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197">
+        <v>5</v>
+      </c>
+      <c r="L197">
+        <v>5</v>
+      </c>
+      <c r="M197" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="N197" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="O197" s="3"/>
+    </row>
+    <row r="198" spans="1:15">
+      <c r="A198">
+        <v>199</v>
+      </c>
+      <c r="B198" s="1">
+        <v>45622.603900463</v>
+      </c>
+      <c r="C198" s="1">
+        <v>45622.604826388902</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G198" s="2">
+        <v>45611</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3"/>
+      <c r="L198">
+        <v>9</v>
+      </c>
+      <c r="M198" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="N198" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O198" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15">
+      <c r="A199">
+        <v>200</v>
+      </c>
+      <c r="B199" s="1">
+        <v>45622.606747685197</v>
+      </c>
+      <c r="C199" s="1">
+        <v>45622.607557870397</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G199" s="2">
+        <v>45511</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3"/>
+      <c r="M199" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="N199" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O199" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15">
+      <c r="A200">
+        <v>201</v>
+      </c>
+      <c r="B200" s="1">
+        <v>45622.608310185198</v>
+      </c>
+      <c r="C200" s="1">
+        <v>45622.609629629602</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G200" s="2">
+        <v>45558</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="M200" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="N200" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O200" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15">
+      <c r="A201">
+        <v>202</v>
+      </c>
+      <c r="B201" s="1">
+        <v>45623.575277777803</v>
+      </c>
+      <c r="C201" s="1">
+        <v>45623.575520833299</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G201" s="2">
+        <v>45623</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="M201" s="3"/>
+      <c r="N201" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O201" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15">
+      <c r="A202">
+        <v>203</v>
+      </c>
+      <c r="B202" s="1">
+        <v>45628.442372685196</v>
+      </c>
+      <c r="C202" s="1">
+        <v>45628.442673611098</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G202" s="2">
+        <v>45617</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="M202" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="N202" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O202" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15">
+      <c r="A203">
+        <v>204</v>
+      </c>
+      <c r="B203" s="1">
+        <v>45628.443796296298</v>
+      </c>
+      <c r="C203" s="1">
+        <v>45628.445682870399</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G203" s="2">
+        <v>45496</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
+      <c r="L203">
+        <v>5</v>
+      </c>
+      <c r="M203" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N203" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O203" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15">
+      <c r="A204">
+        <v>205</v>
+      </c>
+      <c r="B204" s="1">
+        <v>45628.445729166699</v>
+      </c>
+      <c r="C204" s="1">
+        <v>45628.446226851898</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G204" s="2">
+        <v>45502</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="M204" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="N204" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O204" s="3"/>
+    </row>
+    <row r="205" spans="1:15">
+      <c r="A205">
+        <v>206</v>
+      </c>
+      <c r="B205" s="1">
+        <v>45628.446250000001</v>
+      </c>
+      <c r="C205" s="1">
+        <v>45628.449074074102</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G205" s="2">
+        <v>45640</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="M205" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="N205" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O205" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15">
+      <c r="A206">
+        <v>207</v>
+      </c>
+      <c r="B206" s="1">
+        <v>45628.449097222197</v>
+      </c>
+      <c r="C206" s="1">
+        <v>45628.449675925898</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G206" s="2">
+        <v>45565</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="M206" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="N206" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O206" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15">
+      <c r="A207">
+        <v>208</v>
+      </c>
+      <c r="B207" s="1">
+        <v>45628.449687499997</v>
+      </c>
+      <c r="C207" s="1">
+        <v>45628.450486111098</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G207" s="2">
+        <v>45531</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I207" s="3"/>
+      <c r="J207" s="3"/>
+      <c r="L207">
+        <v>6</v>
+      </c>
+      <c r="M207" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="N207" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O207" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15">
+      <c r="A208">
+        <v>209</v>
+      </c>
+      <c r="B208" s="1">
+        <v>45628.4510069444</v>
+      </c>
+      <c r="C208" s="1">
+        <v>45628.451666666697</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G208" s="2">
+        <v>45558</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I208" s="3"/>
+      <c r="J208" s="3"/>
+      <c r="M208" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="N208" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O208" s="3"/>
+    </row>
+    <row r="209" spans="1:15">
+      <c r="A209">
+        <v>210</v>
+      </c>
+      <c r="B209" s="1">
+        <v>45628.4519097222</v>
+      </c>
+      <c r="C209" s="1">
+        <v>45628.452094907399</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G209" s="2">
+        <v>45552</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3"/>
+      <c r="L209">
+        <v>4</v>
+      </c>
+      <c r="M209" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="N209" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O209" s="3"/>
+    </row>
+    <row r="210" spans="1:15">
+      <c r="A210">
+        <v>211</v>
+      </c>
+      <c r="B210" s="1">
+        <v>45628.452337962997</v>
+      </c>
+      <c r="C210" s="1">
+        <v>45628.452604166698</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G210" s="2">
+        <v>45581</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I210" s="3"/>
+      <c r="J210" s="3"/>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="N210" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O210" s="3"/>
+    </row>
+    <row r="211" spans="1:15">
+      <c r="A211">
+        <v>212</v>
+      </c>
+      <c r="B211" s="1">
+        <v>45628.452939814801</v>
+      </c>
+      <c r="C211" s="1">
+        <v>45628.4531712963</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G211" s="2">
+        <v>45610</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
+      <c r="L211">
+        <v>2</v>
+      </c>
+      <c r="M211" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="N211" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O211" s="3"/>
+    </row>
+    <row r="212" spans="1:15">
+      <c r="A212">
+        <v>213</v>
+      </c>
+      <c r="B212" s="1">
+        <v>45628.453194444402</v>
+      </c>
+      <c r="C212" s="1">
+        <v>45628.454583333303</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G212" s="2">
+        <v>45544</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I212" s="3"/>
+      <c r="J212" s="3"/>
+      <c r="M212" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="N212" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O212" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15">
+      <c r="A213">
+        <v>214</v>
+      </c>
+      <c r="B213" s="1">
+        <v>45628.454594907402</v>
+      </c>
+      <c r="C213" s="1">
+        <v>45628.455405092602</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G213" s="2">
+        <v>45615</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I213" s="3"/>
+      <c r="J213" s="3"/>
+      <c r="M213" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="N213" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O213" s="3"/>
+    </row>
+    <row r="214" spans="1:15">
+      <c r="A214">
+        <v>215</v>
+      </c>
+      <c r="B214" s="1">
+        <v>45628.455439814803</v>
+      </c>
+      <c r="C214" s="1">
+        <v>45628.455960648098</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G214" s="2">
+        <v>45617</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I214" s="3"/>
+      <c r="J214" s="3"/>
+      <c r="M214" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="N214" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O214" s="3"/>
+    </row>
+    <row r="215" spans="1:15">
+      <c r="A215">
+        <v>216</v>
+      </c>
+      <c r="B215" s="1">
+        <v>45628.455972222197</v>
+      </c>
+      <c r="C215" s="1">
+        <v>45628.457951388897</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G215" s="2">
+        <v>45427</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I215" s="3"/>
+      <c r="J215" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="M215" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="N215" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O215" s="3"/>
+    </row>
+    <row r="216" spans="1:15">
+      <c r="A216">
+        <v>217</v>
+      </c>
+      <c r="B216" s="1">
+        <v>45628.458668981497</v>
+      </c>
+      <c r="C216" s="1">
+        <v>45628.458969907399</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G216" s="2">
+        <v>45580</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="M216" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="N216" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O216" s="3"/>
+    </row>
+    <row r="217" spans="1:15">
+      <c r="A217">
+        <v>218</v>
+      </c>
+      <c r="B217" s="1">
+        <v>45628.461122685199</v>
+      </c>
+      <c r="C217" s="1">
+        <v>45628.461412037002</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G217" s="2">
+        <v>45414</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="M217" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="N217" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O217" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15">
+      <c r="A218">
+        <v>219</v>
+      </c>
+      <c r="B218" s="1">
+        <v>45628.4614351852</v>
+      </c>
+      <c r="C218" s="1">
+        <v>45628.462685185201</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G218" s="2">
+        <v>45413</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="M218" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="N218" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O218" s="3"/>
+    </row>
+    <row r="219" spans="1:15">
+      <c r="A219">
+        <v>220</v>
+      </c>
+      <c r="B219" s="1">
+        <v>45628.463032407402</v>
+      </c>
+      <c r="C219" s="1">
+        <v>45628.464745370402</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G219" s="2">
+        <v>45440</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="M219" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="N219" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O219" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15">
+      <c r="A220">
+        <v>221</v>
+      </c>
+      <c r="B220" s="1">
+        <v>45628.467418981498</v>
+      </c>
+      <c r="C220" s="1">
+        <v>45628.469340277799</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G220" s="2">
+        <v>45624</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I220" s="3"/>
+      <c r="J220" s="3"/>
+      <c r="K220">
+        <v>60</v>
+      </c>
+      <c r="L220">
+        <v>20</v>
+      </c>
+      <c r="M220" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="N220" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O220" s="3"/>
+    </row>
+    <row r="221" spans="1:15">
+      <c r="A221">
+        <v>222</v>
+      </c>
+      <c r="B221" s="1">
+        <v>45628.482939814799</v>
+      </c>
+      <c r="C221" s="1">
+        <v>45628.4841087963</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G221" s="2">
+        <v>45628</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3"/>
+      <c r="L221">
+        <v>6</v>
+      </c>
+      <c r="M221" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N221" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O221" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15">
+      <c r="A222">
+        <v>223</v>
+      </c>
+      <c r="B222" s="1">
+        <v>45628.442210648202</v>
+      </c>
+      <c r="C222" s="1">
+        <v>45628.491458333301</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G222" s="2">
+        <v>45519</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3"/>
+      <c r="M222" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="N222" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O222" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15">
+      <c r="A223">
+        <v>224</v>
+      </c>
+      <c r="B223" s="1">
+        <v>45628.491481481498</v>
+      </c>
+      <c r="C223" s="1">
+        <v>45628.492986111101</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G223" s="2">
+        <v>45524</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I223" s="3"/>
+      <c r="J223" s="3"/>
+      <c r="L223">
+        <v>15</v>
+      </c>
+      <c r="M223" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="N223" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O223" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15">
+      <c r="A224">
+        <v>225</v>
+      </c>
+      <c r="B224" s="1">
+        <v>45628.493020833303</v>
+      </c>
+      <c r="C224" s="1">
+        <v>45628.495474536998</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G224" s="2">
+        <v>45526</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I224" s="3"/>
+      <c r="J224" s="3"/>
+      <c r="K224">
+        <v>550</v>
+      </c>
+      <c r="L224">
+        <v>11</v>
+      </c>
+      <c r="M224" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="N224" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O224" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15">
+      <c r="A225">
+        <v>226</v>
+      </c>
+      <c r="B225" s="1">
+        <v>45628.495509259301</v>
+      </c>
+      <c r="C225" s="1">
+        <v>45628.498344907399</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G225" s="2">
+        <v>45544</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I225" s="3"/>
+      <c r="J225" s="3"/>
+      <c r="L225">
+        <v>5</v>
+      </c>
+      <c r="M225" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="N225" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O225" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15">
+      <c r="A226">
+        <v>227</v>
+      </c>
+      <c r="B226" s="1">
+        <v>45628.498368055603</v>
+      </c>
+      <c r="C226" s="1">
+        <v>45628.499039351896</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G226" s="2">
+        <v>45585</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3"/>
+      <c r="L226">
+        <v>15</v>
+      </c>
+      <c r="M226" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="N226" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O226" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15">
+      <c r="A227">
+        <v>228</v>
+      </c>
+      <c r="B227" s="1">
+        <v>45628.499050925901</v>
+      </c>
+      <c r="C227" s="1">
+        <v>45628.503483796303</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G227" s="2">
+        <v>45572</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I227" s="3"/>
+      <c r="J227" s="3"/>
+      <c r="M227" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="N227" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="O227" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15">
+      <c r="A228">
+        <v>229</v>
+      </c>
+      <c r="B228" s="1">
+        <v>45628.503506944398</v>
+      </c>
+      <c r="C228" s="1">
+        <v>45628.504259259302</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G228" s="2">
+        <v>45573</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3"/>
+      <c r="K228">
+        <v>2</v>
+      </c>
+      <c r="L228">
+        <v>50</v>
+      </c>
+      <c r="M228" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="N228" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O228" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15">
+      <c r="A229">
+        <v>230</v>
+      </c>
+      <c r="B229" s="1">
+        <v>45628.504826388897</v>
+      </c>
+      <c r="C229" s="1">
+        <v>45628.505162037</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G229" s="2">
+        <v>45581</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I229" s="3"/>
+      <c r="J229" s="3"/>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="N229" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O229" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15">
+      <c r="A230">
+        <v>231</v>
+      </c>
+      <c r="B230" s="1">
+        <v>45628.505173611098</v>
+      </c>
+      <c r="C230" s="1">
+        <v>45628.509282407402</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G230" s="2">
+        <v>45513</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I230" s="3"/>
+      <c r="J230" s="3"/>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="N230" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O230" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15">
+      <c r="A231">
+        <v>232</v>
+      </c>
+      <c r="B231" s="1">
+        <v>45628.509305555599</v>
+      </c>
+      <c r="C231" s="1">
+        <v>45628.510451388902</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G231" s="2">
+        <v>45611</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I231" s="3"/>
+      <c r="J231" s="3"/>
+      <c r="M231" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="N231" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O231" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15">
+      <c r="A232">
+        <v>233</v>
+      </c>
+      <c r="B232" s="1">
+        <v>45628.513657407399</v>
+      </c>
+      <c r="C232" s="1">
+        <v>45628.5140509259</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G232" s="2">
+        <v>45559</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I232" s="3"/>
+      <c r="J232" s="3"/>
+      <c r="K232">
+        <v>2</v>
+      </c>
+      <c r="L232">
+        <v>40</v>
+      </c>
+      <c r="M232" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="N232" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O232" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15">
+      <c r="A233">
+        <v>234</v>
+      </c>
+      <c r="B233" s="1">
+        <v>45628.514062499999</v>
+      </c>
+      <c r="C233" s="1">
+        <v>45628.514606481498</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G233" s="2">
+        <v>45597</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M233" s="3"/>
+      <c r="N233" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O233" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15">
+      <c r="A234">
+        <v>235</v>
+      </c>
+      <c r="B234" s="1">
+        <v>45628.514629629601</v>
+      </c>
+      <c r="C234" s="1">
+        <v>45628.515023148197</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G234" s="2">
+        <v>45573</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="M234" s="3"/>
+      <c r="N234" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O234" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15">
+      <c r="A235">
+        <v>236</v>
+      </c>
+      <c r="B235" s="1">
+        <v>45628.515046296299</v>
+      </c>
+      <c r="C235" s="1">
+        <v>45628.5157175926</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G235" s="2">
+        <v>45565</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="M235" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N235" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O235" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15">
+      <c r="A236" s="6">
+        <v>237</v>
+      </c>
+      <c r="B236" s="1">
+        <v>45628.687685185199</v>
+      </c>
+      <c r="C236" s="1">
+        <v>45628.688287037003</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G236" s="2">
+        <v>45540</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I236" s="3"/>
+      <c r="J236" s="3"/>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+      <c r="M236" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="N236" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O236" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J215" r:id="rId1" xr:uid="{BCA780A2-F676-4D4B-8DD7-E4887A229144}"/>
+    <hyperlink ref="J59" r:id="rId2" display="https://sheddaquarium.sharepoint.com/sites/EAC/Shared%20Documents/Forms/AllItems.aspx?id=%2Fsites%2FEAC%2FShared%20Documents%2FShared%2FPublic%20Relations%2FCoverage%2F%2D%202024%20Coverage%2FPrint%20Coverage%2F6%2E08%2E24%20Chicago%20Sun%2DTimes%20Shoreline%20Research%2Epdf&amp;parent=%2Fsites%2FEAC%2FShared%20Documents%2FShared%2FPublic%20Relations%2FCoverage%2F%2D%202024%20Coverage%2FPrint%20Coverage&amp;p=true&amp;ct=1718122593044&amp;or=OWA-NT-Mail&amp;cid=48c9e8cc-c88d-456c-f93e-d74bf90dac7a&amp;ga=1" xr:uid="{9F5EA80E-AAD2-4692-97E1-E5C023A10CC6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/Research metrics new.xlsx
+++ b/data/Research metrics new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium-my.sharepoint.com/personal/rcunning_sheddaquarium_org/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC78479A-3614-452C-AA21-71B14095FD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C88BC691-3B61-4A8A-BCAE-76063FE14669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$486:$M$486</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$487:$M$487</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="2712" r:id="rId3"/>
+    <pivotCache cacheId="727" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3432" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3439" uniqueCount="710">
   <si>
     <t>Id</t>
   </si>
@@ -2158,6 +2158,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.5281/zenodo.17603166 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maitland, B. M., Bootsma, H.A., Bronte, C.R., Bunnell, D.B., Feiner, Z.S., Fenske, K.H., ...Happel, A., &amp; Jensen, O.P. (2024). Testing food web theory in a large lake: The role of body size in habitat coupling in Lake Michigan. Ecology, 105(10), e4413. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1002/ecy.4413 </t>
   </si>
   <si>
     <t>(All)</t>
@@ -8015,7 +8021,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABFA26CD-99A8-4944-A749-8B86BBC7DC42}" name="PivotTable1" cacheId="2712" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABFA26CD-99A8-4944-A749-8B86BBC7DC42}" name="PivotTable1" cacheId="727" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:Q62" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -8843,8 +8849,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:O483" totalsRowShown="0">
-  <autoFilter ref="A1:O483" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:O484" totalsRowShown="0">
+  <autoFilter ref="A1:O484" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O443">
     <sortCondition ref="H1:H443"/>
   </sortState>
@@ -8958,7 +8964,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="WmKV9QsF-ESGzEsfiGZoTb83Sl3n5wlHr3isCMIkazlUREdPWjQwWjdHU1IxNFdNOVVTSVpHNktFSi4u" isFormConnected="1" maxResponseId="490" latestEventMarker="488">
+      <xlmsforms:msForm id="WmKV9QsF-ESGzEsfiGZoTb83Sl3n5wlHr3isCMIkazlUREdPWjQwWjdHU1IxNFdNOVVTSVpHNktFSi4u" isFormConnected="1" maxResponseId="491" latestEventMarker="489">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -9277,10 +9283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O483"/>
+  <dimension ref="A1:O484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="H471" sqref="H471"/>
+    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="D485" sqref="D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -28023,7 +28029,7 @@
       <c r="O481" s="3"/>
     </row>
     <row r="482" spans="1:15">
-      <c r="A482" s="7">
+      <c r="A482">
         <v>489</v>
       </c>
       <c r="B482" s="1">
@@ -28053,8 +28059,6 @@
       <c r="J482" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="K482" s="7"/>
-      <c r="L482" s="7"/>
       <c r="M482" s="3"/>
       <c r="N482" s="3" t="s">
         <v>86</v>
@@ -28064,7 +28068,7 @@
       </c>
     </row>
     <row r="483" spans="1:15">
-      <c r="A483" s="7">
+      <c r="A483">
         <v>490</v>
       </c>
       <c r="B483" s="1">
@@ -28094,8 +28098,6 @@
       <c r="J483" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="K483" s="7"/>
-      <c r="L483" s="7"/>
       <c r="M483" s="3"/>
       <c r="N483" s="3" t="s">
         <v>86</v>
@@ -28103,6 +28105,45 @@
       <c r="O483" s="3" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="484" spans="1:15">
+      <c r="A484" s="7">
+        <v>491</v>
+      </c>
+      <c r="B484" s="1">
+        <v>45981.3840740741</v>
+      </c>
+      <c r="C484" s="1">
+        <v>45981.384965277801</v>
+      </c>
+      <c r="D484" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F484" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G484" s="2">
+        <v>45540</v>
+      </c>
+      <c r="H484" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I484" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="J484" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="K484" s="7"/>
+      <c r="L484" s="7"/>
+      <c r="M484" s="3"/>
+      <c r="N484" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O484" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -28112,11 +28153,12 @@
     <hyperlink ref="J324" r:id="rId4" xr:uid="{3B69E3ED-E3F0-4825-B748-9547B15E667F}"/>
     <hyperlink ref="J322" r:id="rId5" xr:uid="{0C1C88F7-AD9A-4F27-BBCB-F36AFA74E7E9}"/>
     <hyperlink ref="J323" r:id="rId6" xr:uid="{FC3BBFBE-B52A-417E-8123-A8104144D84C}"/>
+    <hyperlink ref="D484" r:id="rId7" xr:uid="{7CD7A942-B705-4EC3-8634-93825C987B62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -28172,7 +28214,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -28185,7 +28227,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -28241,7 +28283,7 @@
         <v>56</v>
       </c>
       <c r="Q5" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -28889,7 +28931,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B62">
         <v>45</v>

--- a/data/Research metrics new.xlsx
+++ b/data/Research metrics new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29525"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium-my.sharepoint.com/personal/rcunning_sheddaquarium_org/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C88BC691-3B61-4A8A-BCAE-76063FE14669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{257AB5CC-1754-4481-BCCF-06533D35B278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$487:$M$487</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$509:$M$509</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="727" r:id="rId3"/>
+    <pivotCache cacheId="2740" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3439" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="765">
   <si>
     <t>Id</t>
   </si>
@@ -2164,6 +2164,171 @@
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1002/ecy.4413 </t>
+  </si>
+  <si>
+    <t>Gave a virtual class talk to ~30 students from Franklin Elementary School</t>
+  </si>
+  <si>
+    <t>Zoo/Aquarium conservation lecture for Hampden-Sydney College</t>
+  </si>
+  <si>
+    <t>Marine invertebrates;Coral;Urban freshwaters;Migratory fishes;Sharks;Freshwater mussels;Amphibians;Iguanas;Microbial ecology;Animal care;CSS: Freshwater</t>
+  </si>
+  <si>
+    <t>Carerr talk and pannel for ~30 students, organized by the education department</t>
+  </si>
+  <si>
+    <t>Spoke to a group of Science Writers about our marine research programs (~40 people) organised by Johnny Ford</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Recorded a segment for a NewsAsia documentary on the conservation work of the Singapore Aquarium</t>
+  </si>
+  <si>
+    <t>Hosted the CEO and staff from the Okinawa Churaumi Aquarium at Shedd for the day</t>
+  </si>
+  <si>
+    <t>Co hosted a tour for some donors with Katie Grogan</t>
+  </si>
+  <si>
+    <t>JAWS lunch and learn.  Attended by around 50 people in the PCRs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=udnLb2lwS4o</t>
+  </si>
+  <si>
+    <t>EEARSS Podcast appearence</t>
+  </si>
+  <si>
+    <t>JAWS Lunch and Learn (Virtual), ~15 people attended</t>
+  </si>
+  <si>
+    <t>Donor tour with Katie Grogan</t>
+  </si>
+  <si>
+    <t>Fox 32 interview about sharks and Jaws for Shark Week</t>
+  </si>
+  <si>
+    <t>WGN 9 Interview about sharks and Jaws for Shark Week</t>
+  </si>
+  <si>
+    <t>ABC 7 Interview about sharks and Jaws for Shark Week</t>
+  </si>
+  <si>
+    <t>Tour and drinks at Jazzin with the Parish's and Maggie Olson</t>
+  </si>
+  <si>
+    <t>Talk about Jaws at screening event in Windsor, Canada, ~30 people in attendance</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UkUChyxD3sM&amp;t=13s</t>
+  </si>
+  <si>
+    <t>Appeared on a panel discussion/review of Jaws for 'Laser Brains'</t>
+  </si>
+  <si>
+    <t>Phone interview for Discover Magazine about sharks, Jaws and Shark Week</t>
+  </si>
+  <si>
+    <t>Interview for USA Today about sharks, Jaws and Shark Week</t>
+  </si>
+  <si>
+    <t>Interview for Fox 32 about Jaws</t>
+  </si>
+  <si>
+    <t>Interview with WBBM-AM about Jaws</t>
+  </si>
+  <si>
+    <t>Hosted the communications person from the Okinawa Churaumi Aquarium for the day at Shedd</t>
+  </si>
+  <si>
+    <t>Taught two graduate school lectures on larval dispersal and marine conserservation on location at FAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traveled to and facilitated University of Bahamas marine experience for 11 Bahamians </t>
+  </si>
+  <si>
+    <t>Conch tracking</t>
+  </si>
+  <si>
+    <t>Presentation to St Lawrence class</t>
+  </si>
+  <si>
+    <t>Lecture for depaul graduate students</t>
+  </si>
+  <si>
+    <t>Lecture for depaul undergraduate class</t>
+  </si>
+  <si>
+    <t>Interview for magazine</t>
+  </si>
+  <si>
+    <t>Conch Tracking</t>
+  </si>
+  <si>
+    <t>Benthic Ecology Meeting: Chaired a session and presented</t>
+  </si>
+  <si>
+    <t>Lecture and activity for ACCA</t>
+  </si>
+  <si>
+    <t>Teen programs career chat</t>
+  </si>
+  <si>
+    <t>Orientation for field volunteers</t>
+  </si>
+  <si>
+    <t>Conchtracking, FLK</t>
+  </si>
+  <si>
+    <t>Presented research to mixture of visiting graduate students from FAU @ Shedd</t>
+  </si>
+  <si>
+    <t>Coral Reef II - led trip</t>
+  </si>
+  <si>
+    <t>Animal Health</t>
+  </si>
+  <si>
+    <t>Goldstein, J. S., Gutzler, B. C., Kough, A. S., Carloni, J. T., Dayton, A. M., Guenther, C. M., … Watson, W. H., III. (2025). A Review of American Lobster (Homarus americanus) Research Since 2000. Reviews in Fisheries Science &amp; Aquaculture, 1–56. https://doi.org/10.1080/23308249.2025.2514440</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/full/10.1080/23308249.2025.2514440?scroll=top&amp;needAccess=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third author on review funded by Seagrant funds we received </t>
+  </si>
+  <si>
+    <t>Panel on Minorities in SCUBA Science @ Field Museum</t>
+  </si>
+  <si>
+    <t>Afterschoolmatters: Gave a career chat and equipment demonstration to the cohort</t>
+  </si>
+  <si>
+    <t>Iguana research in Bahamas</t>
+  </si>
+  <si>
+    <t>Shedd Annual meeting conservation research update</t>
+  </si>
+  <si>
+    <t>Freshwater mussels;Marine invertebrates</t>
+  </si>
+  <si>
+    <t>https://abc7chicago.com/post/reverse-red-day-morton-arboretum-shedd-aquarium-chicago-botanic-garden-among-wildlife-groups-saving-endangered-species/15879382/?utm_source=wordfly&amp;utm_medium=email&amp;utm_campaign=SheddTidings-(Feb.11%2C2025)&amp;utm_content=version_A&amp;source=</t>
+  </si>
+  <si>
+    <t>ABC7 News Discussion about Reverse the Red Day and Shedd's Species Pledges</t>
+  </si>
+  <si>
+    <t>Marine invertebrates;Coral;Freshwater mussels;Iguanas</t>
+  </si>
+  <si>
+    <t>Presented to the IUCN SSC Global Trees Specialist Group about ISG governance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presented to the IUCN SSC Global Trees Specialist Group about ISG governance. </t>
   </si>
   <si>
     <t>(All)</t>
@@ -8021,7 +8186,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABFA26CD-99A8-4944-A749-8B86BBC7DC42}" name="PivotTable1" cacheId="727" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABFA26CD-99A8-4944-A749-8B86BBC7DC42}" name="PivotTable1" cacheId="2740" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:Q62" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -8849,8 +9014,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:O484" totalsRowShown="0">
-  <autoFilter ref="A1:O484" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:O506" totalsRowShown="0">
+  <autoFilter ref="A1:O506" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O443">
     <sortCondition ref="H1:H443"/>
   </sortState>
@@ -8964,7 +9129,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="WmKV9QsF-ESGzEsfiGZoTb83Sl3n5wlHr3isCMIkazlUREdPWjQwWjdHU1IxNFdNOVVTSVpHNktFSi4u" isFormConnected="1" maxResponseId="491" latestEventMarker="489">
+      <xlmsforms:msForm id="WmKV9QsF-ESGzEsfiGZoTb83Sl3n5wlHr3isCMIkazlUREdPWjQwWjdHU1IxNFdNOVVTSVpHNktFSi4u" isFormConnected="1" maxResponseId="515" latestEventMarker="513">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -9283,10 +9448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O484"/>
+  <dimension ref="A1:O530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
-      <selection activeCell="D485" sqref="D485"/>
+    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
+      <selection activeCell="A485" sqref="A485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -28107,7 +28272,7 @@
       </c>
     </row>
     <row r="484" spans="1:15">
-      <c r="A484" s="7">
+      <c r="A484">
         <v>491</v>
       </c>
       <c r="B484" s="1">
@@ -28137,13 +28302,1851 @@
       <c r="J484" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="K484" s="7"/>
-      <c r="L484" s="7"/>
       <c r="M484" s="3"/>
       <c r="N484" s="3" t="s">
         <v>56</v>
       </c>
       <c r="O484" s="3"/>
+    </row>
+    <row r="485" spans="1:15">
+      <c r="A485">
+        <v>494</v>
+      </c>
+      <c r="B485" s="1">
+        <v>45981.578634259298</v>
+      </c>
+      <c r="C485" s="1">
+        <v>45981.6616319444</v>
+      </c>
+      <c r="D485" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F485" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G485" s="2">
+        <v>45981</v>
+      </c>
+      <c r="H485" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I485" s="3"/>
+      <c r="J485" s="3"/>
+      <c r="M485" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="N485" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O485" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="486" spans="1:15">
+      <c r="A486">
+        <v>495</v>
+      </c>
+      <c r="B486" s="1">
+        <v>45982.397569444402</v>
+      </c>
+      <c r="C486" s="1">
+        <v>45982.3991550926</v>
+      </c>
+      <c r="D486" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F486" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G486" s="2">
+        <v>45981</v>
+      </c>
+      <c r="H486" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I486" s="3"/>
+      <c r="J486" s="3"/>
+      <c r="M486" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="N486" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="O486" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="487" spans="1:15">
+      <c r="A487">
+        <v>496</v>
+      </c>
+      <c r="B487" s="1">
+        <v>45985.399479166699</v>
+      </c>
+      <c r="C487" s="1">
+        <v>45985.400625000002</v>
+      </c>
+      <c r="D487" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F487" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G487" s="2">
+        <v>45983</v>
+      </c>
+      <c r="H487" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I487" s="3"/>
+      <c r="J487" s="3"/>
+      <c r="K487">
+        <v>1</v>
+      </c>
+      <c r="L487">
+        <v>30</v>
+      </c>
+      <c r="M487" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="N487" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O487" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="488" spans="1:15">
+      <c r="A488" s="7">
+        <v>497</v>
+      </c>
+      <c r="B488" s="1">
+        <v>45992.586273148103</v>
+      </c>
+      <c r="C488" s="1">
+        <v>45992.588900463001</v>
+      </c>
+      <c r="D488" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F488" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G488" s="2">
+        <v>45971</v>
+      </c>
+      <c r="H488" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I488" s="3"/>
+      <c r="J488" s="3"/>
+      <c r="K488" s="7"/>
+      <c r="L488" s="7"/>
+      <c r="M488" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="N488" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O488" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="489" spans="1:15">
+      <c r="A489" s="7">
+        <v>498</v>
+      </c>
+      <c r="B489" s="1">
+        <v>45992.589120370401</v>
+      </c>
+      <c r="C489" s="1">
+        <v>45992.590763888897</v>
+      </c>
+      <c r="D489" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F489" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G489" s="2">
+        <v>45964</v>
+      </c>
+      <c r="H489" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I489" s="3"/>
+      <c r="J489" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="K489" s="7"/>
+      <c r="L489" s="7"/>
+      <c r="M489" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="N489" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O489" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="490" spans="1:15">
+      <c r="A490" s="7">
+        <v>499</v>
+      </c>
+      <c r="B490" s="1">
+        <v>45992.593715277799</v>
+      </c>
+      <c r="C490" s="1">
+        <v>45992.594456018502</v>
+      </c>
+      <c r="D490" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F490" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G490" s="2">
+        <v>45912</v>
+      </c>
+      <c r="H490" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I490" s="3"/>
+      <c r="J490" s="3"/>
+      <c r="K490" s="7">
+        <v>8</v>
+      </c>
+      <c r="L490" s="7">
+        <v>3</v>
+      </c>
+      <c r="M490" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="N490" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O490" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="491" spans="1:15">
+      <c r="A491" s="7">
+        <v>500</v>
+      </c>
+      <c r="B491" s="1">
+        <v>45992.594618055598</v>
+      </c>
+      <c r="C491" s="1">
+        <v>45992.595208333303</v>
+      </c>
+      <c r="D491" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E491" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F491" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G491" s="2">
+        <v>45910</v>
+      </c>
+      <c r="H491" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I491" s="3"/>
+      <c r="J491" s="3"/>
+      <c r="K491" s="7">
+        <v>2</v>
+      </c>
+      <c r="L491" s="7">
+        <v>4</v>
+      </c>
+      <c r="M491" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="N491" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O491" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="492" spans="1:15">
+      <c r="A492" s="7">
+        <v>501</v>
+      </c>
+      <c r="B492" s="1">
+        <v>45992.595243055599</v>
+      </c>
+      <c r="C492" s="1">
+        <v>45992.5964467593</v>
+      </c>
+      <c r="D492" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E492" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F492" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G492" s="2">
+        <v>45903</v>
+      </c>
+      <c r="H492" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I492" s="3"/>
+      <c r="J492" s="3"/>
+      <c r="K492" s="7"/>
+      <c r="L492" s="7"/>
+      <c r="M492" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="N492" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O492" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="493" spans="1:15">
+      <c r="A493" s="7">
+        <v>502</v>
+      </c>
+      <c r="B493" s="1">
+        <v>45992.5991319444</v>
+      </c>
+      <c r="C493" s="1">
+        <v>45992.599791666697</v>
+      </c>
+      <c r="D493" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E493" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F493" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G493" s="2">
+        <v>45905</v>
+      </c>
+      <c r="H493" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I493" s="3"/>
+      <c r="J493" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="K493" s="7"/>
+      <c r="L493" s="7"/>
+      <c r="M493" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="N493" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O493" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="494" spans="1:15">
+      <c r="A494" s="7">
+        <v>503</v>
+      </c>
+      <c r="B494" s="1">
+        <v>45992.600243055596</v>
+      </c>
+      <c r="C494" s="1">
+        <v>45992.600694444402</v>
+      </c>
+      <c r="D494" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F494" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G494" s="2">
+        <v>45959</v>
+      </c>
+      <c r="H494" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I494" s="3"/>
+      <c r="J494" s="3"/>
+      <c r="K494" s="7"/>
+      <c r="L494" s="7"/>
+      <c r="M494" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="N494" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O494" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="495" spans="1:15">
+      <c r="A495" s="7">
+        <v>504</v>
+      </c>
+      <c r="B495" s="1">
+        <v>45992.602511574099</v>
+      </c>
+      <c r="C495" s="1">
+        <v>45992.602893518502</v>
+      </c>
+      <c r="D495" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F495" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G495" s="2">
+        <v>45884</v>
+      </c>
+      <c r="H495" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I495" s="3"/>
+      <c r="J495" s="3"/>
+      <c r="K495" s="7">
+        <v>3</v>
+      </c>
+      <c r="L495" s="7">
+        <v>4</v>
+      </c>
+      <c r="M495" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="N495" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O495" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="496" spans="1:15">
+      <c r="A496" s="7">
+        <v>505</v>
+      </c>
+      <c r="B496" s="1">
+        <v>45992.603287037004</v>
+      </c>
+      <c r="C496" s="1">
+        <v>45992.603969907403</v>
+      </c>
+      <c r="D496" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F496" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G496" s="2">
+        <v>45873</v>
+      </c>
+      <c r="H496" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I496" s="3"/>
+      <c r="J496" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="K496" s="7"/>
+      <c r="L496" s="7"/>
+      <c r="M496" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="N496" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O496" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="497" spans="1:15">
+      <c r="A497" s="7">
+        <v>506</v>
+      </c>
+      <c r="B497" s="1">
+        <v>45992.604375000003</v>
+      </c>
+      <c r="C497" s="1">
+        <v>45992.605057870402</v>
+      </c>
+      <c r="D497" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F497" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G497" s="2">
+        <v>45860</v>
+      </c>
+      <c r="H497" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I497" s="3"/>
+      <c r="J497" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="K497" s="7"/>
+      <c r="L497" s="7"/>
+      <c r="M497" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="N497" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O497" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="498" spans="1:15">
+      <c r="A498" s="7">
+        <v>507</v>
+      </c>
+      <c r="B498" s="1">
+        <v>45992.605081018497</v>
+      </c>
+      <c r="C498" s="1">
+        <v>45992.605439814797</v>
+      </c>
+      <c r="D498" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F498" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G498" s="2">
+        <v>45860</v>
+      </c>
+      <c r="H498" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I498" s="3"/>
+      <c r="J498" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="K498" s="7"/>
+      <c r="L498" s="7"/>
+      <c r="M498" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="N498" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O498" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="499" spans="1:15">
+      <c r="A499" s="7">
+        <v>508</v>
+      </c>
+      <c r="B499" s="1">
+        <v>45992.605925925898</v>
+      </c>
+      <c r="C499" s="1">
+        <v>45992.606446759302</v>
+      </c>
+      <c r="D499" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F499" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G499" s="2">
+        <v>45854</v>
+      </c>
+      <c r="H499" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I499" s="3"/>
+      <c r="J499" s="3"/>
+      <c r="K499" s="7">
+        <v>4</v>
+      </c>
+      <c r="L499" s="7">
+        <v>3</v>
+      </c>
+      <c r="M499" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="N499" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O499" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="500" spans="1:15">
+      <c r="A500" s="7">
+        <v>509</v>
+      </c>
+      <c r="B500" s="1">
+        <v>45992.607152777797</v>
+      </c>
+      <c r="C500" s="1">
+        <v>45992.6080671296</v>
+      </c>
+      <c r="D500" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F500" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G500" s="2">
+        <v>45840</v>
+      </c>
+      <c r="H500" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I500" s="3"/>
+      <c r="J500" s="3"/>
+      <c r="K500" s="7"/>
+      <c r="L500" s="7"/>
+      <c r="M500" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="N500" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O500" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="501" spans="1:15">
+      <c r="A501" s="7">
+        <v>510</v>
+      </c>
+      <c r="B501" s="1">
+        <v>45992.608090277798</v>
+      </c>
+      <c r="C501" s="1">
+        <v>45992.610509259299</v>
+      </c>
+      <c r="D501" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F501" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G501" s="2">
+        <v>45840</v>
+      </c>
+      <c r="H501" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I501" s="3"/>
+      <c r="J501" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="K501" s="7"/>
+      <c r="L501" s="7"/>
+      <c r="M501" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="N501" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O501" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="502" spans="1:15">
+      <c r="A502" s="7">
+        <v>511</v>
+      </c>
+      <c r="B502" s="1">
+        <v>45992.6108564815</v>
+      </c>
+      <c r="C502" s="1">
+        <v>45992.611828703702</v>
+      </c>
+      <c r="D502" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F502" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G502" s="2">
+        <v>45831</v>
+      </c>
+      <c r="H502" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I502" s="3"/>
+      <c r="J502" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="K502" s="7"/>
+      <c r="L502" s="7"/>
+      <c r="M502" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="N502" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O502" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="503" spans="1:15">
+      <c r="A503" s="7">
+        <v>512</v>
+      </c>
+      <c r="B503" s="1">
+        <v>45992.611851851798</v>
+      </c>
+      <c r="C503" s="1">
+        <v>45992.612175925897</v>
+      </c>
+      <c r="D503" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F503" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G503" s="2">
+        <v>45831</v>
+      </c>
+      <c r="H503" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I503" s="3"/>
+      <c r="J503" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="K503" s="7"/>
+      <c r="L503" s="7"/>
+      <c r="M503" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="N503" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O503" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="504" spans="1:15">
+      <c r="A504" s="7">
+        <v>513</v>
+      </c>
+      <c r="B504" s="1">
+        <v>45992.612337963001</v>
+      </c>
+      <c r="C504" s="1">
+        <v>45992.612766203703</v>
+      </c>
+      <c r="D504" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E504" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F504" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G504" s="2">
+        <v>45828</v>
+      </c>
+      <c r="H504" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I504" s="3"/>
+      <c r="J504" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="K504" s="7"/>
+      <c r="L504" s="7"/>
+      <c r="M504" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="N504" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O504" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="505" spans="1:15">
+      <c r="A505" s="7">
+        <v>514</v>
+      </c>
+      <c r="B505" s="1">
+        <v>45992.612997685203</v>
+      </c>
+      <c r="C505" s="1">
+        <v>45992.613530092603</v>
+      </c>
+      <c r="D505" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F505" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G505" s="2">
+        <v>45825</v>
+      </c>
+      <c r="H505" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I505" s="3"/>
+      <c r="J505" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="K505" s="7"/>
+      <c r="L505" s="7"/>
+      <c r="M505" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="N505" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O505" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="506" spans="1:15">
+      <c r="A506" s="7">
+        <v>515</v>
+      </c>
+      <c r="B506" s="1">
+        <v>45992.617465277799</v>
+      </c>
+      <c r="C506" s="1">
+        <v>45992.618194444403</v>
+      </c>
+      <c r="D506" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E506" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F506" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G506" s="2">
+        <v>45729</v>
+      </c>
+      <c r="H506" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I506" s="3"/>
+      <c r="J506" s="3"/>
+      <c r="K506" s="7">
+        <v>5</v>
+      </c>
+      <c r="L506" s="7">
+        <v>1</v>
+      </c>
+      <c r="M506" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="N506" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O506" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="507" spans="1:15">
+      <c r="A507">
+        <v>771</v>
+      </c>
+      <c r="B507" s="1">
+        <v>45747.620694444398</v>
+      </c>
+      <c r="C507" s="1">
+        <v>45747.621539351901</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E507" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F507" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G507" s="2">
+        <v>45728</v>
+      </c>
+      <c r="H507" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I507" s="3"/>
+      <c r="J507" s="3"/>
+      <c r="M507" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="N507" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O507" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="508" spans="1:15">
+      <c r="A508">
+        <v>772</v>
+      </c>
+      <c r="B508" s="1">
+        <v>45747.621562499997</v>
+      </c>
+      <c r="C508" s="1">
+        <v>45747.626712963</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E508" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F508" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G508" s="2">
+        <v>45735</v>
+      </c>
+      <c r="H508" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I508" s="3"/>
+      <c r="J508" s="3"/>
+      <c r="L508">
+        <v>8</v>
+      </c>
+      <c r="M508" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="N508" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O508" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="509" spans="1:15">
+      <c r="A509">
+        <v>773</v>
+      </c>
+      <c r="B509" s="1">
+        <v>45747.626747685201</v>
+      </c>
+      <c r="C509" s="1">
+        <v>45747.627129629604</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E509" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F509" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G509" s="2">
+        <v>45722</v>
+      </c>
+      <c r="H509" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I509" s="3"/>
+      <c r="J509" s="3"/>
+      <c r="L509">
+        <v>8</v>
+      </c>
+      <c r="M509" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="N509" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O509" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="510" spans="1:15">
+      <c r="A510">
+        <v>774</v>
+      </c>
+      <c r="B510" s="1">
+        <v>45747.627152777801</v>
+      </c>
+      <c r="C510" s="1">
+        <v>45747.628472222197</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E510" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F510" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G510" s="2">
+        <v>45692</v>
+      </c>
+      <c r="H510" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I510" s="3"/>
+      <c r="J510" s="3"/>
+      <c r="K510">
+        <v>40</v>
+      </c>
+      <c r="L510">
+        <v>35</v>
+      </c>
+      <c r="M510" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="N510" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O510" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="511" spans="1:15">
+      <c r="A511">
+        <v>775</v>
+      </c>
+      <c r="B511" s="1">
+        <v>45747.628599536998</v>
+      </c>
+      <c r="C511" s="1">
+        <v>45747.628993055601</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E511" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F511" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G511" s="2">
+        <v>45684</v>
+      </c>
+      <c r="H511" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I511" s="3"/>
+      <c r="J511" s="3"/>
+      <c r="M511" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="N511" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O511" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="512" spans="1:15">
+      <c r="A512">
+        <v>776</v>
+      </c>
+      <c r="B512" s="1">
+        <v>45747.629016203697</v>
+      </c>
+      <c r="C512" s="1">
+        <v>45747.629537036999</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E512" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F512" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G512" s="2">
+        <v>45689</v>
+      </c>
+      <c r="H512" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I512" s="3"/>
+      <c r="J512" s="3"/>
+      <c r="M512" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="N512" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O512" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="513" spans="1:15">
+      <c r="A513">
+        <v>777</v>
+      </c>
+      <c r="B513" s="1">
+        <v>45747.629907407398</v>
+      </c>
+      <c r="C513" s="1">
+        <v>45747.630162037</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E513" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F513" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G513" s="2">
+        <v>45667</v>
+      </c>
+      <c r="H513" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I513" s="3"/>
+      <c r="J513" s="3"/>
+      <c r="M513" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="N513" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O513" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="514" spans="1:15">
+      <c r="A514">
+        <v>778</v>
+      </c>
+      <c r="B514" s="1">
+        <v>45747.630173611098</v>
+      </c>
+      <c r="C514" s="1">
+        <v>45747.630624999998</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E514" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F514" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G514" s="2">
+        <v>45659</v>
+      </c>
+      <c r="H514" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I514" s="3"/>
+      <c r="J514" s="3"/>
+      <c r="L514">
+        <v>5</v>
+      </c>
+      <c r="M514" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="N514" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O514" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="515" spans="1:15">
+      <c r="A515">
+        <v>779</v>
+      </c>
+      <c r="B515" s="1">
+        <v>45848.490381944401</v>
+      </c>
+      <c r="C515" s="1">
+        <v>45848.492708333302</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E515" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F515" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G515" s="2">
+        <v>45750</v>
+      </c>
+      <c r="H515" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I515" s="3"/>
+      <c r="J515" s="3"/>
+      <c r="M515" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="N515" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O515" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="516" spans="1:15">
+      <c r="A516">
+        <v>780</v>
+      </c>
+      <c r="B516" s="1">
+        <v>45848.4927314815</v>
+      </c>
+      <c r="C516" s="1">
+        <v>45848.493182870399</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F516" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G516" s="2">
+        <v>45759</v>
+      </c>
+      <c r="H516" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I516" s="3"/>
+      <c r="J516" s="3"/>
+      <c r="M516" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="N516" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O516" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="517" spans="1:15">
+      <c r="A517">
+        <v>781</v>
+      </c>
+      <c r="B517" s="1">
+        <v>45848.493206018502</v>
+      </c>
+      <c r="C517" s="1">
+        <v>45848.493819444397</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E517" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F517" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G517" s="2">
+        <v>45761</v>
+      </c>
+      <c r="H517" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I517" s="3"/>
+      <c r="J517" s="3"/>
+      <c r="K517">
+        <v>2</v>
+      </c>
+      <c r="L517">
+        <v>8</v>
+      </c>
+      <c r="M517" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="N517" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O517" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="518" spans="1:15">
+      <c r="A518">
+        <v>782</v>
+      </c>
+      <c r="B518" s="1">
+        <v>45848.493842592601</v>
+      </c>
+      <c r="C518" s="1">
+        <v>45848.494513888902</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E518" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F518" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G518" s="2">
+        <v>45761</v>
+      </c>
+      <c r="H518" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I518" s="3"/>
+      <c r="J518" s="3"/>
+      <c r="K518">
+        <v>2</v>
+      </c>
+      <c r="L518">
+        <v>3</v>
+      </c>
+      <c r="M518" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="N518" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O518" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="519" spans="1:15">
+      <c r="A519">
+        <v>783</v>
+      </c>
+      <c r="B519" s="1">
+        <v>45848.494537036997</v>
+      </c>
+      <c r="C519" s="1">
+        <v>45848.495231481502</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E519" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F519" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G519" s="2">
+        <v>45770</v>
+      </c>
+      <c r="H519" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I519" s="3"/>
+      <c r="J519" s="3"/>
+      <c r="L519">
+        <v>7</v>
+      </c>
+      <c r="M519" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="N519" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O519" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="520" spans="1:15">
+      <c r="A520">
+        <v>784</v>
+      </c>
+      <c r="B520" s="1">
+        <v>45848.495335648098</v>
+      </c>
+      <c r="C520" s="1">
+        <v>45848.496655092596</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E520" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F520" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G520" s="2">
+        <v>45814</v>
+      </c>
+      <c r="H520" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I520" s="3"/>
+      <c r="J520" s="3"/>
+      <c r="M520" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="N520" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O520" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="521" spans="1:15">
+      <c r="A521">
+        <v>785</v>
+      </c>
+      <c r="B521" s="1">
+        <v>45848.496666666702</v>
+      </c>
+      <c r="C521" s="1">
+        <v>45848.497164351902</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E521" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F521" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G521" s="2">
+        <v>45817</v>
+      </c>
+      <c r="H521" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I521" s="3"/>
+      <c r="J521" s="3"/>
+      <c r="L521">
+        <v>13</v>
+      </c>
+      <c r="M521" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="N521" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O521" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="522" spans="1:15">
+      <c r="A522">
+        <v>786</v>
+      </c>
+      <c r="B522" s="1">
+        <v>45848.497175925899</v>
+      </c>
+      <c r="C522" s="1">
+        <v>45848.498761574097</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E522" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F522" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G522" s="2">
+        <v>45824</v>
+      </c>
+      <c r="H522" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I522" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="J522" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="M522" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="N522" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O522" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="523" spans="1:15">
+      <c r="A523">
+        <v>787</v>
+      </c>
+      <c r="B523" s="1">
+        <v>45848.498796296299</v>
+      </c>
+      <c r="C523" s="1">
+        <v>45848.4999537037</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E523" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F523" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G523" s="2">
+        <v>45835</v>
+      </c>
+      <c r="H523" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I523" s="3"/>
+      <c r="J523" s="3"/>
+      <c r="K523">
+        <v>3</v>
+      </c>
+      <c r="L523">
+        <v>8</v>
+      </c>
+      <c r="M523" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="N523" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O523" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="524" spans="1:15">
+      <c r="A524">
+        <v>788</v>
+      </c>
+      <c r="B524" s="1">
+        <v>45848.500034722201</v>
+      </c>
+      <c r="C524" s="1">
+        <v>45848.5005439815</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E524" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F524" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G524" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H524" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I524" s="3"/>
+      <c r="J524" s="3"/>
+      <c r="M524" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="N524" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O524" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="525" spans="1:15">
+      <c r="A525">
+        <v>765</v>
+      </c>
+      <c r="B525" s="1">
+        <v>45475.588877314804</v>
+      </c>
+      <c r="C525" s="1">
+        <v>45475.589456018497</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F525" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G525" s="2">
+        <v>45471</v>
+      </c>
+      <c r="H525" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I525" s="3"/>
+      <c r="J525" s="3"/>
+      <c r="L525">
+        <v>9</v>
+      </c>
+      <c r="M525" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="N525" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O525" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="526" spans="1:15">
+      <c r="A526">
+        <v>766</v>
+      </c>
+      <c r="B526" s="1">
+        <v>45475.589641203696</v>
+      </c>
+      <c r="C526" s="1">
+        <v>45475.591539351903</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E526" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F526" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G526" s="2">
+        <v>45442</v>
+      </c>
+      <c r="H526" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I526" s="3"/>
+      <c r="J526" s="3"/>
+      <c r="K526">
+        <v>144</v>
+      </c>
+      <c r="L526">
+        <v>9</v>
+      </c>
+      <c r="M526" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N526" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O526" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="527" spans="1:15">
+      <c r="A527">
+        <v>767</v>
+      </c>
+      <c r="B527" s="1">
+        <v>45698.690937500003</v>
+      </c>
+      <c r="C527" s="1">
+        <v>45698.691701388903</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E527" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F527" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G527" s="2">
+        <v>45686</v>
+      </c>
+      <c r="H527" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I527" s="3"/>
+      <c r="J527" s="3"/>
+      <c r="M527" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="N527" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="O527" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="528" spans="1:15">
+      <c r="A528">
+        <v>768</v>
+      </c>
+      <c r="B528" s="1">
+        <v>45700.522210648203</v>
+      </c>
+      <c r="C528" s="1">
+        <v>45700.524641203701</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E528" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F528" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G528" s="2">
+        <v>45695</v>
+      </c>
+      <c r="H528" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I528" s="3"/>
+      <c r="J528" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="M528" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="N528" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="O528" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="529" spans="1:15">
+      <c r="A529">
+        <v>769</v>
+      </c>
+      <c r="B529" s="1">
+        <v>45734.590648148202</v>
+      </c>
+      <c r="C529" s="1">
+        <v>45734.591481481497</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E529" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F529" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G529" s="2">
+        <v>45725</v>
+      </c>
+      <c r="H529" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I529" s="3"/>
+      <c r="J529" s="3"/>
+      <c r="M529" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="N529" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O529" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="530" spans="1:15">
+      <c r="A530">
+        <v>770</v>
+      </c>
+      <c r="B530" s="1">
+        <v>45734.593854166698</v>
+      </c>
+      <c r="C530" s="1">
+        <v>45734.594282407401</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E530" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F530" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G530" s="2">
+        <v>45725</v>
+      </c>
+      <c r="H530" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I530" s="3"/>
+      <c r="J530" s="3"/>
+      <c r="M530" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="N530" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O530" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -28214,7 +30217,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>707</v>
+        <v>762</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -28227,7 +30230,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>708</v>
+        <v>763</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -28283,7 +30286,7 @@
         <v>56</v>
       </c>
       <c r="Q5" t="s">
-        <v>709</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -28931,7 +30934,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>709</v>
+        <v>764</v>
       </c>
       <c r="B62">
         <v>45</v>

--- a/data/Research metrics new.xlsx
+++ b/data/Research metrics new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium-my.sharepoint.com/personal/rcunning_sheddaquarium_org/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{257AB5CC-1754-4481-BCCF-06533D35B278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50FDC424-FA04-455C-AD30-6DC21E949BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$509:$M$509</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$538:$M$538</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="2740" r:id="rId3"/>
+    <pivotCache cacheId="6519" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="806">
   <si>
     <t>Id</t>
   </si>
@@ -2242,6 +2242,129 @@
   </si>
   <si>
     <t>Hosted the communications person from the Okinawa Churaumi Aquarium for the day at Shedd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happel, A. (2025). Larval fish community of the urbanized Chicago River. Journal of Great Lakes Research, 51(6), 102662. https://doi.org/10.1016/j.jglr.2025.102662 </t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S038013302500156X?via%3Dihub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happel, A., &amp; Rukstales, E. (2025). Combined sewer overflows alter zooplankton communities in an urban river. Knowledge and Management of Aquatic Ecosystems, 426, 12.  https://doi.org/10.1051/kmae/2025007 </t>
+  </si>
+  <si>
+    <t>https://www.kmae-journal.org/articles/kmae/full_html/2025/01/kmae250010/kmae250010.html</t>
+  </si>
+  <si>
+    <t>Teen Career workshop/panel thingy</t>
+  </si>
+  <si>
+    <t>Conch tracking in FKNMS / PENiP</t>
+  </si>
+  <si>
+    <t>Lecture for DePaul University: Conservation Ecology</t>
+  </si>
+  <si>
+    <t>Hosted orientation meeting for NWU Engineering group @ Shedd</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/episode/5rcR5VbJVVy33D3DqI4gXh?si=tRzIGBTWQ2qlKcDp3Z5wmw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In today’s episode, Saima and Arman are joined by Dr. Andy Kough, a marine biologist at the Shedd Aquarium, to explore the fascinating parallels between clinical psychology and the natural world. </t>
+  </si>
+  <si>
+    <t>In the works</t>
+  </si>
+  <si>
+    <t>Guest for Podcast for episode of Shellphone recording with Harmony Dawson</t>
+  </si>
+  <si>
+    <t>Attended the Florida Keys Conference where I gave an oral presentation and tabled for the RV Coral Reef II</t>
+  </si>
+  <si>
+    <t>Marine invertebrates;RV Coral Reef II</t>
+  </si>
+  <si>
+    <t>Participated in the Climate Vulnerability Assessment for US Caribbean Fisheries, a working group funded by NOAA; resulting paper in prep</t>
+  </si>
+  <si>
+    <t>Design review meeting for NWU Engineering class</t>
+  </si>
+  <si>
+    <t>Lecture for section one of class for University of Illinois - Chicago</t>
+  </si>
+  <si>
+    <t>Lecture for section two of class for University of Illinois - Chicago</t>
+  </si>
+  <si>
+    <t>Kough, A., Matsuda, S., Appeldoorn, R., Boman, E., Galassini, K., Delgado, G., … Stoner, A. (2024). Queen conch aquaculture remains a conservation symbol and is not yet a fisheries solution. Oryx, 58(6), 700–709. doi:10.1017/S0030605324001443</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/oryx/article/queen-conch-aquaculture-remains-a-conservation-symbol-and-is-not-yet-a-fisheries-solution/BE90C7E20FC3FA7EA702D84F81CB4C8D</t>
+  </si>
+  <si>
+    <t>Queen conch aquaculture remains a conservation symbol and is not yet a fisheries solution (was first published online on this date, but the issue is retroactive to months beforehand and the issue was actually published in June)</t>
+  </si>
+  <si>
+    <t>https://www.nwf.org/Magazines/National-Wildlife/2025/Summer/Conservation/Queen-Conch</t>
+  </si>
+  <si>
+    <t>Front page story in National Wildlife Magazine about queen conch conservation</t>
+  </si>
+  <si>
+    <t>Ross and I coauthored an article for AZA-Connect alongside a collaborator from Palm Beach Zoo about Shedd led fieldwork in SFL</t>
+  </si>
+  <si>
+    <t>Lecture Lake Forest College</t>
+  </si>
+  <si>
+    <t>ACCA;Coral</t>
+  </si>
+  <si>
+    <t>Marine Ecology ACCA Course field component CRII (16 days X 8 hours X 18 students)</t>
+  </si>
+  <si>
+    <t>ECB Cohort Visit</t>
+  </si>
+  <si>
+    <t>ECB Internship Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCA School Panel Event </t>
+  </si>
+  <si>
+    <t>FW Mussel Field Support</t>
+  </si>
+  <si>
+    <t>Coral Spawn CRII Cruise</t>
+  </si>
+  <si>
+    <t>Coral Cruise (DRM)</t>
+  </si>
+  <si>
+    <t>Previous ACCA Student Letters of Recommendation or Reference Calls (Noel, Abigail, Grace, Addison, Sedona, Austin, Diego; Emma); Career Chats (Trista, Rosemary)</t>
+  </si>
+  <si>
+    <t>Classroom Component Marine ACCA (18 students X 7 hours X 6 Classes)</t>
+  </si>
+  <si>
+    <t>Freshwater Ecology ACCA Classroom (22 students X 7 hours X 7 classes)</t>
+  </si>
+  <si>
+    <t>Sanfilippo, G.E., Inoue, K., Zanatta, D.T. (2025) Patterns of genetic diversity and structure in Pressodonta viridis, Slippershell Mussel, in streams of the U.S. Midwest. Heredity, 134, 680–694. https://doi.org/10.1038/s41437-025-00807-4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41437-025-00807-4</t>
+  </si>
+  <si>
+    <t>https://www.fox32chicago.com/video/1726039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appearance on Fox32 Chicago to discuss recent trip to Florida and Coral Reefs being on a tipping point </t>
+  </si>
+  <si>
+    <t>advocacy and learning asked to talk to 30ish students</t>
   </si>
   <si>
     <t>Taught two graduate school lectures on larval dispersal and marine conserservation on location at FAU</t>
@@ -2385,7 +2508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2393,7 +2516,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8186,7 +8308,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABFA26CD-99A8-4944-A749-8B86BBC7DC42}" name="PivotTable1" cacheId="2740" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABFA26CD-99A8-4944-A749-8B86BBC7DC42}" name="PivotTable1" cacheId="6519" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:Q62" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -9014,11 +9136,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:O506" totalsRowShown="0">
-  <autoFilter ref="A1:O506" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O443">
-    <sortCondition ref="H1:H443"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:O535" totalsRowShown="0">
+  <autoFilter ref="A1:O535" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="14">
       <extLst>
@@ -9129,7 +9248,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="WmKV9QsF-ESGzEsfiGZoTb83Sl3n5wlHr3isCMIkazlUREdPWjQwWjdHU1IxNFdNOVVTSVpHNktFSi4u" isFormConnected="1" maxResponseId="515" latestEventMarker="513">
+      <xlmsforms:msForm id="WmKV9QsF-ESGzEsfiGZoTb83Sl3n5wlHr3isCMIkazlUREdPWjQwWjdHU1IxNFdNOVVTSVpHNktFSi4u" isFormConnected="1" maxResponseId="544" latestEventMarker="542">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -9448,10 +9567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O530"/>
+  <dimension ref="A1:O559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485"/>
+    <sheetView tabSelected="1" topLeftCell="D527" workbookViewId="0">
+      <selection activeCell="J467" sqref="J467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -28426,7 +28545,7 @@
       </c>
     </row>
     <row r="488" spans="1:15">
-      <c r="A488" s="7">
+      <c r="A488">
         <v>497</v>
       </c>
       <c r="B488" s="1">
@@ -28452,8 +28571,6 @@
       </c>
       <c r="I488" s="3"/>
       <c r="J488" s="3"/>
-      <c r="K488" s="7"/>
-      <c r="L488" s="7"/>
       <c r="M488" s="3" t="s">
         <v>711</v>
       </c>
@@ -28465,7 +28582,7 @@
       </c>
     </row>
     <row r="489" spans="1:15">
-      <c r="A489" s="7">
+      <c r="A489">
         <v>498</v>
       </c>
       <c r="B489" s="1">
@@ -28493,8 +28610,6 @@
       <c r="J489" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K489" s="7"/>
-      <c r="L489" s="7"/>
       <c r="M489" s="3" t="s">
         <v>713</v>
       </c>
@@ -28506,7 +28621,7 @@
       </c>
     </row>
     <row r="490" spans="1:15">
-      <c r="A490" s="7">
+      <c r="A490">
         <v>499</v>
       </c>
       <c r="B490" s="1">
@@ -28532,10 +28647,10 @@
       </c>
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
-      <c r="K490" s="7">
+      <c r="K490">
         <v>8</v>
       </c>
-      <c r="L490" s="7">
+      <c r="L490">
         <v>3</v>
       </c>
       <c r="M490" s="3" t="s">
@@ -28549,7 +28664,7 @@
       </c>
     </row>
     <row r="491" spans="1:15">
-      <c r="A491" s="7">
+      <c r="A491">
         <v>500</v>
       </c>
       <c r="B491" s="1">
@@ -28575,10 +28690,10 @@
       </c>
       <c r="I491" s="3"/>
       <c r="J491" s="3"/>
-      <c r="K491" s="7">
+      <c r="K491">
         <v>2</v>
       </c>
-      <c r="L491" s="7">
+      <c r="L491">
         <v>4</v>
       </c>
       <c r="M491" s="3" t="s">
@@ -28592,7 +28707,7 @@
       </c>
     </row>
     <row r="492" spans="1:15">
-      <c r="A492" s="7">
+      <c r="A492">
         <v>501</v>
       </c>
       <c r="B492" s="1">
@@ -28618,8 +28733,6 @@
       </c>
       <c r="I492" s="3"/>
       <c r="J492" s="3"/>
-      <c r="K492" s="7"/>
-      <c r="L492" s="7"/>
       <c r="M492" s="3" t="s">
         <v>716</v>
       </c>
@@ -28631,7 +28744,7 @@
       </c>
     </row>
     <row r="493" spans="1:15">
-      <c r="A493" s="7">
+      <c r="A493">
         <v>502</v>
       </c>
       <c r="B493" s="1">
@@ -28659,8 +28772,6 @@
       <c r="J493" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="K493" s="7"/>
-      <c r="L493" s="7"/>
       <c r="M493" s="3" t="s">
         <v>718</v>
       </c>
@@ -28672,7 +28783,7 @@
       </c>
     </row>
     <row r="494" spans="1:15">
-      <c r="A494" s="7">
+      <c r="A494">
         <v>503</v>
       </c>
       <c r="B494" s="1">
@@ -28698,8 +28809,6 @@
       </c>
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
-      <c r="K494" s="7"/>
-      <c r="L494" s="7"/>
       <c r="M494" s="3" t="s">
         <v>719</v>
       </c>
@@ -28711,7 +28820,7 @@
       </c>
     </row>
     <row r="495" spans="1:15">
-      <c r="A495" s="7">
+      <c r="A495">
         <v>504</v>
       </c>
       <c r="B495" s="1">
@@ -28737,10 +28846,10 @@
       </c>
       <c r="I495" s="3"/>
       <c r="J495" s="3"/>
-      <c r="K495" s="7">
+      <c r="K495">
         <v>3</v>
       </c>
-      <c r="L495" s="7">
+      <c r="L495">
         <v>4</v>
       </c>
       <c r="M495" s="3" t="s">
@@ -28754,7 +28863,7 @@
       </c>
     </row>
     <row r="496" spans="1:15">
-      <c r="A496" s="7">
+      <c r="A496">
         <v>505</v>
       </c>
       <c r="B496" s="1">
@@ -28782,8 +28891,6 @@
       <c r="J496" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K496" s="7"/>
-      <c r="L496" s="7"/>
       <c r="M496" s="3" t="s">
         <v>721</v>
       </c>
@@ -28795,7 +28902,7 @@
       </c>
     </row>
     <row r="497" spans="1:15">
-      <c r="A497" s="7">
+      <c r="A497">
         <v>506</v>
       </c>
       <c r="B497" s="1">
@@ -28823,8 +28930,6 @@
       <c r="J497" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K497" s="7"/>
-      <c r="L497" s="7"/>
       <c r="M497" s="3" t="s">
         <v>722</v>
       </c>
@@ -28836,7 +28941,7 @@
       </c>
     </row>
     <row r="498" spans="1:15">
-      <c r="A498" s="7">
+      <c r="A498">
         <v>507</v>
       </c>
       <c r="B498" s="1">
@@ -28864,8 +28969,6 @@
       <c r="J498" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K498" s="7"/>
-      <c r="L498" s="7"/>
       <c r="M498" s="3" t="s">
         <v>723</v>
       </c>
@@ -28877,7 +28980,7 @@
       </c>
     </row>
     <row r="499" spans="1:15">
-      <c r="A499" s="7">
+      <c r="A499">
         <v>508</v>
       </c>
       <c r="B499" s="1">
@@ -28903,10 +29006,10 @@
       </c>
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
-      <c r="K499" s="7">
+      <c r="K499">
         <v>4</v>
       </c>
-      <c r="L499" s="7">
+      <c r="L499">
         <v>3</v>
       </c>
       <c r="M499" s="3" t="s">
@@ -28920,7 +29023,7 @@
       </c>
     </row>
     <row r="500" spans="1:15">
-      <c r="A500" s="7">
+      <c r="A500">
         <v>509</v>
       </c>
       <c r="B500" s="1">
@@ -28946,8 +29049,6 @@
       </c>
       <c r="I500" s="3"/>
       <c r="J500" s="3"/>
-      <c r="K500" s="7"/>
-      <c r="L500" s="7"/>
       <c r="M500" s="3" t="s">
         <v>725</v>
       </c>
@@ -28959,7 +29060,7 @@
       </c>
     </row>
     <row r="501" spans="1:15">
-      <c r="A501" s="7">
+      <c r="A501">
         <v>510</v>
       </c>
       <c r="B501" s="1">
@@ -28987,8 +29088,6 @@
       <c r="J501" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="K501" s="7"/>
-      <c r="L501" s="7"/>
       <c r="M501" s="3" t="s">
         <v>727</v>
       </c>
@@ -29000,7 +29099,7 @@
       </c>
     </row>
     <row r="502" spans="1:15">
-      <c r="A502" s="7">
+      <c r="A502">
         <v>511</v>
       </c>
       <c r="B502" s="1">
@@ -29028,8 +29127,6 @@
       <c r="J502" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K502" s="7"/>
-      <c r="L502" s="7"/>
       <c r="M502" s="3" t="s">
         <v>728</v>
       </c>
@@ -29041,7 +29138,7 @@
       </c>
     </row>
     <row r="503" spans="1:15">
-      <c r="A503" s="7">
+      <c r="A503">
         <v>512</v>
       </c>
       <c r="B503" s="1">
@@ -29069,8 +29166,6 @@
       <c r="J503" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K503" s="7"/>
-      <c r="L503" s="7"/>
       <c r="M503" s="3" t="s">
         <v>729</v>
       </c>
@@ -29082,7 +29177,7 @@
       </c>
     </row>
     <row r="504" spans="1:15">
-      <c r="A504" s="7">
+      <c r="A504">
         <v>513</v>
       </c>
       <c r="B504" s="1">
@@ -29110,8 +29205,6 @@
       <c r="J504" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K504" s="7"/>
-      <c r="L504" s="7"/>
       <c r="M504" s="3" t="s">
         <v>730</v>
       </c>
@@ -29123,7 +29216,7 @@
       </c>
     </row>
     <row r="505" spans="1:15">
-      <c r="A505" s="7">
+      <c r="A505">
         <v>514</v>
       </c>
       <c r="B505" s="1">
@@ -29151,8 +29244,6 @@
       <c r="J505" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K505" s="7"/>
-      <c r="L505" s="7"/>
       <c r="M505" s="3" t="s">
         <v>731</v>
       </c>
@@ -29164,7 +29255,7 @@
       </c>
     </row>
     <row r="506" spans="1:15">
-      <c r="A506" s="7">
+      <c r="A506">
         <v>515</v>
       </c>
       <c r="B506" s="1">
@@ -29190,10 +29281,10 @@
       </c>
       <c r="I506" s="3"/>
       <c r="J506" s="3"/>
-      <c r="K506" s="7">
+      <c r="K506">
         <v>5</v>
       </c>
-      <c r="L506" s="7">
+      <c r="L506">
         <v>1</v>
       </c>
       <c r="M506" s="3" t="s">
@@ -29208,36 +29299,38 @@
     </row>
     <row r="507" spans="1:15">
       <c r="A507">
-        <v>771</v>
+        <v>516</v>
       </c>
       <c r="B507" s="1">
-        <v>45747.620694444398</v>
+        <v>45993.616180555597</v>
       </c>
       <c r="C507" s="1">
-        <v>45747.621539351901</v>
-      </c>
-      <c r="D507" s="3" t="s">
-        <v>214</v>
+        <v>45993.622673611098</v>
+      </c>
+      <c r="D507" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E507" s="3" t="s">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c r="F507" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G507" s="2">
-        <v>45728</v>
+        <v>45993</v>
       </c>
       <c r="H507" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I507" s="3"/>
-      <c r="J507" s="3"/>
-      <c r="M507" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I507" s="3" t="s">
         <v>733</v>
       </c>
+      <c r="J507" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="M507" s="3"/>
       <c r="N507" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O507" s="3" t="s">
         <v>220</v>
@@ -29245,55 +29338,54 @@
     </row>
     <row r="508" spans="1:15">
       <c r="A508">
-        <v>772</v>
+        <v>517</v>
       </c>
       <c r="B508" s="1">
-        <v>45747.621562499997</v>
+        <v>45993.622719907398</v>
       </c>
       <c r="C508" s="1">
-        <v>45747.626712963</v>
-      </c>
-      <c r="D508" s="3" t="s">
-        <v>214</v>
+        <v>45993.623321759304</v>
+      </c>
+      <c r="D508" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E508" s="3" t="s">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c r="F508" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G508" s="2">
-        <v>45735</v>
+        <v>45790</v>
       </c>
       <c r="H508" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I508" s="3"/>
-      <c r="J508" s="3"/>
-      <c r="L508">
-        <v>8</v>
-      </c>
-      <c r="M508" s="3" t="s">
-        <v>734</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I508" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="J508" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="M508" s="3"/>
       <c r="N508" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O508" s="3" t="s">
-        <v>218</v>
+        <v>21</v>
       </c>
     </row>
     <row r="509" spans="1:15">
       <c r="A509">
-        <v>773</v>
+        <v>518</v>
       </c>
       <c r="B509" s="1">
-        <v>45747.626747685201</v>
+        <v>45994.387002314797</v>
       </c>
       <c r="C509" s="1">
-        <v>45747.627129629604</v>
-      </c>
-      <c r="D509" s="3" t="s">
+        <v>45994.391678240703</v>
+      </c>
+      <c r="D509" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E509" s="3" t="s">
@@ -29303,18 +29395,15 @@
         <v>17</v>
       </c>
       <c r="G509" s="2">
-        <v>45722</v>
+        <v>45884</v>
       </c>
       <c r="H509" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I509" s="3"/>
       <c r="J509" s="3"/>
-      <c r="L509">
-        <v>8</v>
-      </c>
       <c r="M509" s="3" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="N509" s="3" t="s">
         <v>23</v>
@@ -29325,15 +29414,15 @@
     </row>
     <row r="510" spans="1:15">
       <c r="A510">
-        <v>774</v>
+        <v>519</v>
       </c>
       <c r="B510" s="1">
-        <v>45747.627152777801</v>
+        <v>45994.391712962999</v>
       </c>
       <c r="C510" s="1">
-        <v>45747.628472222197</v>
-      </c>
-      <c r="D510" s="3" t="s">
+        <v>45994.392835648097</v>
+      </c>
+      <c r="D510" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E510" s="3" t="s">
@@ -29343,21 +29432,18 @@
         <v>17</v>
       </c>
       <c r="G510" s="2">
-        <v>45692</v>
+        <v>45891</v>
       </c>
       <c r="H510" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I510" s="3"/>
       <c r="J510" s="3"/>
-      <c r="K510">
-        <v>40</v>
-      </c>
       <c r="L510">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M510" s="3" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N510" s="3" t="s">
         <v>23</v>
@@ -29368,15 +29454,15 @@
     </row>
     <row r="511" spans="1:15">
       <c r="A511">
-        <v>775</v>
+        <v>520</v>
       </c>
       <c r="B511" s="1">
-        <v>45747.628599536998</v>
+        <v>45994.392847222203</v>
       </c>
       <c r="C511" s="1">
-        <v>45747.628993055601</v>
-      </c>
-      <c r="D511" s="3" t="s">
+        <v>45994.393576388902</v>
+      </c>
+      <c r="D511" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E511" s="3" t="s">
@@ -29386,7 +29472,7 @@
         <v>17</v>
       </c>
       <c r="G511" s="2">
-        <v>45684</v>
+        <v>45905</v>
       </c>
       <c r="H511" s="3" t="s">
         <v>28</v>
@@ -29394,7 +29480,7 @@
       <c r="I511" s="3"/>
       <c r="J511" s="3"/>
       <c r="M511" s="3" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="N511" s="3" t="s">
         <v>23</v>
@@ -29405,15 +29491,15 @@
     </row>
     <row r="512" spans="1:15">
       <c r="A512">
-        <v>776</v>
+        <v>521</v>
       </c>
       <c r="B512" s="1">
-        <v>45747.629016203697</v>
+        <v>45994.393993055601</v>
       </c>
       <c r="C512" s="1">
-        <v>45747.629537036999</v>
-      </c>
-      <c r="D512" s="3" t="s">
+        <v>45994.394791666702</v>
+      </c>
+      <c r="D512" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E512" s="3" t="s">
@@ -29423,15 +29509,21 @@
         <v>17</v>
       </c>
       <c r="G512" s="2">
-        <v>45689</v>
+        <v>45919</v>
       </c>
       <c r="H512" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I512" s="3"/>
       <c r="J512" s="3"/>
+      <c r="K512">
+        <v>8</v>
+      </c>
+      <c r="L512">
+        <v>4</v>
+      </c>
       <c r="M512" s="3" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="N512" s="3" t="s">
         <v>23</v>
@@ -29442,15 +29534,15 @@
     </row>
     <row r="513" spans="1:15">
       <c r="A513">
-        <v>777</v>
+        <v>522</v>
       </c>
       <c r="B513" s="1">
-        <v>45747.629907407398</v>
+        <v>45994.3953819444</v>
       </c>
       <c r="C513" s="1">
-        <v>45747.630162037</v>
-      </c>
-      <c r="D513" s="3" t="s">
+        <v>45994.3977199074</v>
+      </c>
+      <c r="D513" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E513" s="3" t="s">
@@ -29460,15 +29552,17 @@
         <v>17</v>
       </c>
       <c r="G513" s="2">
-        <v>45667</v>
+        <v>45948</v>
       </c>
       <c r="H513" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I513" s="3"/>
-      <c r="J513" s="3"/>
+      <c r="J513" s="3" t="s">
+        <v>741</v>
+      </c>
       <c r="M513" s="3" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="N513" s="3" t="s">
         <v>23</v>
@@ -29479,15 +29573,15 @@
     </row>
     <row r="514" spans="1:15">
       <c r="A514">
-        <v>778</v>
+        <v>523</v>
       </c>
       <c r="B514" s="1">
-        <v>45747.630173611098</v>
+        <v>45994.397743055597</v>
       </c>
       <c r="C514" s="1">
-        <v>45747.630624999998</v>
-      </c>
-      <c r="D514" s="3" t="s">
+        <v>45994.398645833302</v>
+      </c>
+      <c r="D514" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E514" s="3" t="s">
@@ -29497,18 +29591,17 @@
         <v>17</v>
       </c>
       <c r="G514" s="2">
-        <v>45659</v>
+        <v>45953</v>
       </c>
       <c r="H514" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I514" s="3"/>
-      <c r="J514" s="3"/>
-      <c r="L514">
-        <v>5</v>
+      <c r="J514" s="3" t="s">
+        <v>743</v>
       </c>
       <c r="M514" s="3" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="N514" s="3" t="s">
         <v>23</v>
@@ -29519,15 +29612,15 @@
     </row>
     <row r="515" spans="1:15">
       <c r="A515">
-        <v>779</v>
+        <v>524</v>
       </c>
       <c r="B515" s="1">
-        <v>45848.490381944401</v>
+        <v>45994.398668981499</v>
       </c>
       <c r="C515" s="1">
-        <v>45848.492708333302</v>
-      </c>
-      <c r="D515" s="3" t="s">
+        <v>45994.399386574099</v>
+      </c>
+      <c r="D515" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E515" s="3" t="s">
@@ -29537,7 +29630,7 @@
         <v>17</v>
       </c>
       <c r="G515" s="2">
-        <v>45750</v>
+        <v>45957</v>
       </c>
       <c r="H515" s="3" t="s">
         <v>28</v>
@@ -29545,10 +29638,10 @@
       <c r="I515" s="3"/>
       <c r="J515" s="3"/>
       <c r="M515" s="3" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="N515" s="3" t="s">
-        <v>23</v>
+        <v>746</v>
       </c>
       <c r="O515" s="3" t="s">
         <v>220</v>
@@ -29556,15 +29649,15 @@
     </row>
     <row r="516" spans="1:15">
       <c r="A516">
-        <v>780</v>
+        <v>525</v>
       </c>
       <c r="B516" s="1">
-        <v>45848.4927314815</v>
+        <v>45994.399421296301</v>
       </c>
       <c r="C516" s="1">
-        <v>45848.493182870399</v>
-      </c>
-      <c r="D516" s="3" t="s">
+        <v>45994.4003703704</v>
+      </c>
+      <c r="D516" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E516" s="3" t="s">
@@ -29574,7 +29667,7 @@
         <v>17</v>
       </c>
       <c r="G516" s="2">
-        <v>45759</v>
+        <v>45964</v>
       </c>
       <c r="H516" s="3" t="s">
         <v>28</v>
@@ -29582,7 +29675,7 @@
       <c r="I516" s="3"/>
       <c r="J516" s="3"/>
       <c r="M516" s="3" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="N516" s="3" t="s">
         <v>23</v>
@@ -29593,15 +29686,15 @@
     </row>
     <row r="517" spans="1:15">
       <c r="A517">
-        <v>781</v>
+        <v>526</v>
       </c>
       <c r="B517" s="1">
-        <v>45848.493206018502</v>
+        <v>45994.400405092601</v>
       </c>
       <c r="C517" s="1">
-        <v>45848.493819444397</v>
-      </c>
-      <c r="D517" s="3" t="s">
+        <v>45994.401053240697</v>
+      </c>
+      <c r="D517" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E517" s="3" t="s">
@@ -29611,7 +29704,7 @@
         <v>17</v>
       </c>
       <c r="G517" s="2">
-        <v>45761</v>
+        <v>45973</v>
       </c>
       <c r="H517" s="3" t="s">
         <v>18</v>
@@ -29619,13 +29712,13 @@
       <c r="I517" s="3"/>
       <c r="J517" s="3"/>
       <c r="K517">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L517">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M517" s="3" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="N517" s="3" t="s">
         <v>23</v>
@@ -29636,15 +29729,15 @@
     </row>
     <row r="518" spans="1:15">
       <c r="A518">
-        <v>782</v>
+        <v>527</v>
       </c>
       <c r="B518" s="1">
-        <v>45848.493842592601</v>
+        <v>45994.401087963</v>
       </c>
       <c r="C518" s="1">
-        <v>45848.494513888902</v>
-      </c>
-      <c r="D518" s="3" t="s">
+        <v>45994.401909722197</v>
+      </c>
+      <c r="D518" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E518" s="3" t="s">
@@ -29654,7 +29747,7 @@
         <v>17</v>
       </c>
       <c r="G518" s="2">
-        <v>45761</v>
+        <v>45973</v>
       </c>
       <c r="H518" s="3" t="s">
         <v>18</v>
@@ -29662,13 +29755,13 @@
       <c r="I518" s="3"/>
       <c r="J518" s="3"/>
       <c r="K518">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="L518">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="M518" s="3" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="N518" s="3" t="s">
         <v>23</v>
@@ -29679,15 +29772,15 @@
     </row>
     <row r="519" spans="1:15">
       <c r="A519">
-        <v>783</v>
+        <v>528</v>
       </c>
       <c r="B519" s="1">
-        <v>45848.494537036997</v>
+        <v>45994.401921296303</v>
       </c>
       <c r="C519" s="1">
-        <v>45848.495231481502</v>
-      </c>
-      <c r="D519" s="3" t="s">
+        <v>45994.402233796303</v>
+      </c>
+      <c r="D519" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E519" s="3" t="s">
@@ -29697,18 +29790,21 @@
         <v>17</v>
       </c>
       <c r="G519" s="2">
-        <v>45770</v>
+        <v>45974</v>
       </c>
       <c r="H519" s="3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I519" s="3"/>
       <c r="J519" s="3"/>
+      <c r="K519">
+        <v>45</v>
+      </c>
       <c r="L519">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="M519" s="3" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="N519" s="3" t="s">
         <v>23</v>
@@ -29719,15 +29815,15 @@
     </row>
     <row r="520" spans="1:15">
       <c r="A520">
-        <v>784</v>
+        <v>529</v>
       </c>
       <c r="B520" s="1">
-        <v>45848.495335648098</v>
+        <v>45994.403009259302</v>
       </c>
       <c r="C520" s="1">
-        <v>45848.496655092596</v>
-      </c>
-      <c r="D520" s="3" t="s">
+        <v>45994.405949074098</v>
+      </c>
+      <c r="D520" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E520" s="3" t="s">
@@ -29737,18 +29833,22 @@
         <v>17</v>
       </c>
       <c r="G520" s="2">
-        <v>45814</v>
+        <v>45686</v>
       </c>
       <c r="H520" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I520" s="3"/>
-      <c r="J520" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="I520" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="J520" s="3" t="s">
+        <v>752</v>
+      </c>
       <c r="M520" s="3" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="N520" s="3" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="O520" s="3" t="s">
         <v>220</v>
@@ -29756,15 +29856,15 @@
     </row>
     <row r="521" spans="1:15">
       <c r="A521">
-        <v>785</v>
+        <v>530</v>
       </c>
       <c r="B521" s="1">
-        <v>45848.496666666702</v>
+        <v>45994.406307870398</v>
       </c>
       <c r="C521" s="1">
-        <v>45848.497164351902</v>
-      </c>
-      <c r="D521" s="3" t="s">
+        <v>45994.406886574099</v>
+      </c>
+      <c r="D521" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E521" s="3" t="s">
@@ -29774,18 +29874,17 @@
         <v>17</v>
       </c>
       <c r="G521" s="2">
-        <v>45817</v>
+        <v>45833</v>
       </c>
       <c r="H521" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I521" s="3"/>
-      <c r="J521" s="3"/>
-      <c r="L521">
-        <v>13</v>
+      <c r="J521" s="3" t="s">
+        <v>754</v>
       </c>
       <c r="M521" s="3" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="N521" s="3" t="s">
         <v>23</v>
@@ -29796,40 +29895,38 @@
     </row>
     <row r="522" spans="1:15">
       <c r="A522">
-        <v>786</v>
+        <v>531</v>
       </c>
       <c r="B522" s="1">
-        <v>45848.497175925899</v>
+        <v>45994.407430555599</v>
       </c>
       <c r="C522" s="1">
-        <v>45848.498761574097</v>
-      </c>
-      <c r="D522" s="3" t="s">
+        <v>45994.408113425903</v>
+      </c>
+      <c r="D522" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E522" s="3" t="s">
         <v>215</v>
       </c>
       <c r="F522" s="3" t="s">
-        <v>748</v>
+        <v>17</v>
       </c>
       <c r="G522" s="2">
-        <v>45824</v>
+        <v>45798</v>
       </c>
       <c r="H522" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I522" s="3" t="s">
-        <v>749</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I522" s="3"/>
       <c r="J522" s="3" t="s">
-        <v>750</v>
+        <v>517</v>
       </c>
       <c r="M522" s="3" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="N522" s="3" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="O522" s="3" t="s">
         <v>220</v>
@@ -29837,145 +29934,142 @@
     </row>
     <row r="523" spans="1:15">
       <c r="A523">
-        <v>787</v>
+        <v>532</v>
       </c>
       <c r="B523" s="1">
-        <v>45848.498796296299</v>
+        <v>45994.601215277798</v>
       </c>
       <c r="C523" s="1">
-        <v>45848.4999537037</v>
-      </c>
-      <c r="D523" s="3" t="s">
-        <v>214</v>
+        <v>45994.6036805556</v>
+      </c>
+      <c r="D523" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E523" s="3" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="F523" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G523" s="2">
-        <v>45835</v>
+        <v>45953</v>
       </c>
       <c r="H523" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I523" s="3"/>
       <c r="J523" s="3"/>
-      <c r="K523">
-        <v>3</v>
-      </c>
       <c r="L523">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M523" s="3" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="N523" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O523" s="3" t="s">
-        <v>220</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="O523" s="3"/>
     </row>
     <row r="524" spans="1:15">
       <c r="A524">
-        <v>788</v>
+        <v>533</v>
       </c>
       <c r="B524" s="1">
-        <v>45848.500034722201</v>
+        <v>45994.603703703702</v>
       </c>
       <c r="C524" s="1">
-        <v>45848.5005439815</v>
-      </c>
-      <c r="D524" s="3" t="s">
-        <v>214</v>
+        <v>45994.605300925898</v>
+      </c>
+      <c r="D524" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E524" s="3" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="F524" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G524" s="2">
-        <v>45845</v>
+        <v>45782</v>
       </c>
       <c r="H524" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I524" s="3"/>
       <c r="J524" s="3"/>
+      <c r="K524">
+        <v>2304</v>
+      </c>
+      <c r="L524">
+        <v>18</v>
+      </c>
       <c r="M524" s="3" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="N524" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O524" s="3" t="s">
-        <v>220</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="O524" s="3"/>
     </row>
     <row r="525" spans="1:15">
       <c r="A525">
-        <v>765</v>
+        <v>534</v>
       </c>
       <c r="B525" s="1">
-        <v>45475.588877314804</v>
+        <v>45994.605312500003</v>
       </c>
       <c r="C525" s="1">
-        <v>45475.589456018497</v>
-      </c>
-      <c r="D525" s="3" t="s">
-        <v>46</v>
+        <v>45994.607152777797</v>
+      </c>
+      <c r="D525" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E525" s="3" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F525" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G525" s="2">
-        <v>45471</v>
+        <v>45859</v>
       </c>
       <c r="H525" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I525" s="3"/>
       <c r="J525" s="3"/>
       <c r="L525">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M525" s="3" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="N525" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O525" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="O525" s="3"/>
     </row>
     <row r="526" spans="1:15">
       <c r="A526">
-        <v>766</v>
+        <v>535</v>
       </c>
       <c r="B526" s="1">
-        <v>45475.589641203696</v>
+        <v>45994.607175925899</v>
       </c>
       <c r="C526" s="1">
-        <v>45475.591539351903</v>
-      </c>
-      <c r="D526" s="3" t="s">
-        <v>46</v>
+        <v>45994.608055555596</v>
+      </c>
+      <c r="D526" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E526" s="3" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F526" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G526" s="2">
-        <v>45442</v>
+        <v>45761</v>
       </c>
       <c r="H526" s="3" t="s">
         <v>18</v>
@@ -29983,168 +30077,1305 @@
       <c r="I526" s="3"/>
       <c r="J526" s="3"/>
       <c r="K526">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="L526">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="M526" s="3" t="s">
-        <v>161</v>
+        <v>762</v>
       </c>
       <c r="N526" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O526" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="O526" s="3"/>
     </row>
     <row r="527" spans="1:15">
       <c r="A527">
-        <v>767</v>
+        <v>536</v>
       </c>
       <c r="B527" s="1">
-        <v>45698.690937500003</v>
+        <v>45994.6080671296</v>
       </c>
       <c r="C527" s="1">
-        <v>45698.691701388903</v>
-      </c>
-      <c r="D527" s="3" t="s">
-        <v>46</v>
+        <v>45994.609490740702</v>
+      </c>
+      <c r="D527" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E527" s="3" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F527" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G527" s="2">
-        <v>45686</v>
+        <v>45831</v>
       </c>
       <c r="H527" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I527" s="3"/>
       <c r="J527" s="3"/>
+      <c r="L527">
+        <v>1</v>
+      </c>
       <c r="M527" s="3" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="N527" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="O527" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="O527" s="3"/>
     </row>
     <row r="528" spans="1:15">
       <c r="A528">
-        <v>768</v>
+        <v>537</v>
       </c>
       <c r="B528" s="1">
-        <v>45700.522210648203</v>
+        <v>45994.609502314801</v>
       </c>
       <c r="C528" s="1">
-        <v>45700.524641203701</v>
-      </c>
-      <c r="D528" s="3" t="s">
-        <v>46</v>
+        <v>45994.610162037003</v>
+      </c>
+      <c r="D528" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E528" s="3" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F528" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G528" s="2">
-        <v>45695</v>
+        <v>45878</v>
       </c>
       <c r="H528" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I528" s="3"/>
-      <c r="J528" s="3" t="s">
-        <v>757</v>
+      <c r="J528" s="3"/>
+      <c r="L528">
+        <v>14</v>
       </c>
       <c r="M528" s="3" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="N528" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="O528" s="3" t="s">
-        <v>218</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O528" s="3"/>
     </row>
     <row r="529" spans="1:15">
       <c r="A529">
-        <v>769</v>
+        <v>538</v>
       </c>
       <c r="B529" s="1">
-        <v>45734.590648148202</v>
+        <v>45994.610173611101</v>
       </c>
       <c r="C529" s="1">
-        <v>45734.591481481497</v>
-      </c>
-      <c r="D529" s="3" t="s">
-        <v>46</v>
+        <v>45994.612465277802</v>
+      </c>
+      <c r="D529" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E529" s="3" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F529" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G529" s="2">
-        <v>45725</v>
+        <v>45897</v>
       </c>
       <c r="H529" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
+      <c r="L529">
+        <v>12</v>
+      </c>
       <c r="M529" s="3" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="N529" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O529" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O529" s="3"/>
     </row>
     <row r="530" spans="1:15">
       <c r="A530">
-        <v>770</v>
+        <v>539</v>
       </c>
       <c r="B530" s="1">
-        <v>45734.593854166698</v>
+        <v>45994.612488425897</v>
       </c>
       <c r="C530" s="1">
-        <v>45734.594282407401</v>
-      </c>
-      <c r="D530" s="3" t="s">
-        <v>46</v>
+        <v>45994.619652777801</v>
+      </c>
+      <c r="D530" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E530" s="3" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F530" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G530" s="2">
-        <v>45725</v>
+        <v>45992</v>
       </c>
       <c r="H530" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I530" s="3"/>
       <c r="J530" s="3"/>
+      <c r="L530">
+        <v>10</v>
+      </c>
       <c r="M530" s="3" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="N530" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="O530" s="3"/>
+    </row>
+    <row r="531" spans="1:15">
+      <c r="A531">
+        <v>540</v>
+      </c>
+      <c r="B531" s="1">
+        <v>45994.619664351798</v>
+      </c>
+      <c r="C531" s="1">
+        <v>45994.620509259301</v>
+      </c>
+      <c r="D531" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F531" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G531" s="2">
+        <v>45731</v>
+      </c>
+      <c r="H531" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I531" s="3"/>
+      <c r="J531" s="3"/>
+      <c r="K531">
+        <v>756</v>
+      </c>
+      <c r="L531">
+        <v>18</v>
+      </c>
+      <c r="M531" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="N531" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="O531" s="3"/>
+    </row>
+    <row r="532" spans="1:15">
+      <c r="A532">
+        <v>541</v>
+      </c>
+      <c r="B532" s="1">
+        <v>45994.620532407404</v>
+      </c>
+      <c r="C532" s="1">
+        <v>45994.621099536998</v>
+      </c>
+      <c r="D532" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E532" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F532" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G532" s="2">
+        <v>45906</v>
+      </c>
+      <c r="H532" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I532" s="3"/>
+      <c r="J532" s="3"/>
+      <c r="K532">
+        <v>1078</v>
+      </c>
+      <c r="L532">
+        <v>22</v>
+      </c>
+      <c r="M532" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="N532" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="O532" s="3"/>
+    </row>
+    <row r="533" spans="1:15">
+      <c r="A533">
+        <v>542</v>
+      </c>
+      <c r="B533" s="1">
+        <v>45995.487604166701</v>
+      </c>
+      <c r="C533" s="1">
+        <v>45995.4972569444</v>
+      </c>
+      <c r="D533" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E533" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F533" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G533" s="2">
+        <v>45995</v>
+      </c>
+      <c r="H533" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I533" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="J533" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="M533" s="3"/>
+      <c r="N533" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O533" s="3"/>
+    </row>
+    <row r="534" spans="1:15">
+      <c r="A534">
+        <v>543</v>
+      </c>
+      <c r="B534" s="1">
+        <v>45995.641284722202</v>
+      </c>
+      <c r="C534" s="1">
+        <v>45995.642094907402</v>
+      </c>
+      <c r="D534" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F534" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G534" s="2">
+        <v>45947</v>
+      </c>
+      <c r="H534" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I534" s="3"/>
+      <c r="J534" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="M534" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="N534" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O534" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="535" spans="1:15">
+      <c r="A535">
+        <v>544</v>
+      </c>
+      <c r="B535" s="1">
+        <v>46000.598715277803</v>
+      </c>
+      <c r="C535" s="1">
+        <v>46000.5993171296</v>
+      </c>
+      <c r="D535" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F535" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G535" s="2">
+        <v>45995</v>
+      </c>
+      <c r="H535" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I535" s="3"/>
+      <c r="J535" s="3"/>
+      <c r="M535" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="N535" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O535" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="536" spans="1:15">
+      <c r="A536">
+        <v>771</v>
+      </c>
+      <c r="B536" s="1">
+        <v>45747.620694444398</v>
+      </c>
+      <c r="C536" s="1">
+        <v>45747.621539351901</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F536" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G536" s="2">
+        <v>45728</v>
+      </c>
+      <c r="H536" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I536" s="3"/>
+      <c r="J536" s="3"/>
+      <c r="M536" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="N536" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O536" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="537" spans="1:15">
+      <c r="A537">
+        <v>772</v>
+      </c>
+      <c r="B537" s="1">
+        <v>45747.621562499997</v>
+      </c>
+      <c r="C537" s="1">
+        <v>45747.626712963</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F537" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G537" s="2">
+        <v>45735</v>
+      </c>
+      <c r="H537" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I537" s="3"/>
+      <c r="J537" s="3"/>
+      <c r="L537">
+        <v>8</v>
+      </c>
+      <c r="M537" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="N537" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O537" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="538" spans="1:15">
+      <c r="A538">
+        <v>773</v>
+      </c>
+      <c r="B538" s="1">
+        <v>45747.626747685201</v>
+      </c>
+      <c r="C538" s="1">
+        <v>45747.627129629604</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F538" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G538" s="2">
+        <v>45722</v>
+      </c>
+      <c r="H538" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I538" s="3"/>
+      <c r="J538" s="3"/>
+      <c r="L538">
+        <v>8</v>
+      </c>
+      <c r="M538" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="N538" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O538" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="539" spans="1:15">
+      <c r="A539">
+        <v>774</v>
+      </c>
+      <c r="B539" s="1">
+        <v>45747.627152777801</v>
+      </c>
+      <c r="C539" s="1">
+        <v>45747.628472222197</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F539" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G539" s="2">
+        <v>45692</v>
+      </c>
+      <c r="H539" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I539" s="3"/>
+      <c r="J539" s="3"/>
+      <c r="K539">
+        <v>40</v>
+      </c>
+      <c r="L539">
+        <v>35</v>
+      </c>
+      <c r="M539" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="N539" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O539" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="540" spans="1:15">
+      <c r="A540">
+        <v>775</v>
+      </c>
+      <c r="B540" s="1">
+        <v>45747.628599536998</v>
+      </c>
+      <c r="C540" s="1">
+        <v>45747.628993055601</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F540" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G540" s="2">
+        <v>45684</v>
+      </c>
+      <c r="H540" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I540" s="3"/>
+      <c r="J540" s="3"/>
+      <c r="M540" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="N540" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O540" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="541" spans="1:15">
+      <c r="A541">
+        <v>776</v>
+      </c>
+      <c r="B541" s="1">
+        <v>45747.629016203697</v>
+      </c>
+      <c r="C541" s="1">
+        <v>45747.629537036999</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F541" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G541" s="2">
+        <v>45689</v>
+      </c>
+      <c r="H541" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I541" s="3"/>
+      <c r="J541" s="3"/>
+      <c r="M541" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="N541" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O541" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="542" spans="1:15">
+      <c r="A542">
+        <v>777</v>
+      </c>
+      <c r="B542" s="1">
+        <v>45747.629907407398</v>
+      </c>
+      <c r="C542" s="1">
+        <v>45747.630162037</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E542" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F542" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G542" s="2">
+        <v>45667</v>
+      </c>
+      <c r="H542" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I542" s="3"/>
+      <c r="J542" s="3"/>
+      <c r="M542" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="N542" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O542" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="543" spans="1:15">
+      <c r="A543">
+        <v>778</v>
+      </c>
+      <c r="B543" s="1">
+        <v>45747.630173611098</v>
+      </c>
+      <c r="C543" s="1">
+        <v>45747.630624999998</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F543" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G543" s="2">
+        <v>45659</v>
+      </c>
+      <c r="H543" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I543" s="3"/>
+      <c r="J543" s="3"/>
+      <c r="L543">
+        <v>5</v>
+      </c>
+      <c r="M543" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="N543" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O543" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="544" spans="1:15">
+      <c r="A544">
+        <v>779</v>
+      </c>
+      <c r="B544" s="1">
+        <v>45848.490381944401</v>
+      </c>
+      <c r="C544" s="1">
+        <v>45848.492708333302</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F544" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G544" s="2">
+        <v>45750</v>
+      </c>
+      <c r="H544" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I544" s="3"/>
+      <c r="J544" s="3"/>
+      <c r="M544" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="N544" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O544" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="545" spans="1:15">
+      <c r="A545">
+        <v>780</v>
+      </c>
+      <c r="B545" s="1">
+        <v>45848.4927314815</v>
+      </c>
+      <c r="C545" s="1">
+        <v>45848.493182870399</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F545" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G545" s="2">
+        <v>45759</v>
+      </c>
+      <c r="H545" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I545" s="3"/>
+      <c r="J545" s="3"/>
+      <c r="M545" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="N545" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O545" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="546" spans="1:15">
+      <c r="A546">
+        <v>781</v>
+      </c>
+      <c r="B546" s="1">
+        <v>45848.493206018502</v>
+      </c>
+      <c r="C546" s="1">
+        <v>45848.493819444397</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E546" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F546" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G546" s="2">
+        <v>45761</v>
+      </c>
+      <c r="H546" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I546" s="3"/>
+      <c r="J546" s="3"/>
+      <c r="K546">
+        <v>2</v>
+      </c>
+      <c r="L546">
+        <v>8</v>
+      </c>
+      <c r="M546" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="N546" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O546" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="547" spans="1:15">
+      <c r="A547">
+        <v>782</v>
+      </c>
+      <c r="B547" s="1">
+        <v>45848.493842592601</v>
+      </c>
+      <c r="C547" s="1">
+        <v>45848.494513888902</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F547" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G547" s="2">
+        <v>45761</v>
+      </c>
+      <c r="H547" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I547" s="3"/>
+      <c r="J547" s="3"/>
+      <c r="K547">
+        <v>2</v>
+      </c>
+      <c r="L547">
+        <v>3</v>
+      </c>
+      <c r="M547" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="N547" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O547" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="548" spans="1:15">
+      <c r="A548">
+        <v>783</v>
+      </c>
+      <c r="B548" s="1">
+        <v>45848.494537036997</v>
+      </c>
+      <c r="C548" s="1">
+        <v>45848.495231481502</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F548" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G548" s="2">
+        <v>45770</v>
+      </c>
+      <c r="H548" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I548" s="3"/>
+      <c r="J548" s="3"/>
+      <c r="L548">
+        <v>7</v>
+      </c>
+      <c r="M548" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="N548" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O548" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="549" spans="1:15">
+      <c r="A549">
+        <v>784</v>
+      </c>
+      <c r="B549" s="1">
+        <v>45848.495335648098</v>
+      </c>
+      <c r="C549" s="1">
+        <v>45848.496655092596</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F549" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G549" s="2">
+        <v>45814</v>
+      </c>
+      <c r="H549" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I549" s="3"/>
+      <c r="J549" s="3"/>
+      <c r="M549" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="N549" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O549" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="550" spans="1:15">
+      <c r="A550">
+        <v>785</v>
+      </c>
+      <c r="B550" s="1">
+        <v>45848.496666666702</v>
+      </c>
+      <c r="C550" s="1">
+        <v>45848.497164351902</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F550" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G550" s="2">
+        <v>45817</v>
+      </c>
+      <c r="H550" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I550" s="3"/>
+      <c r="J550" s="3"/>
+      <c r="L550">
+        <v>13</v>
+      </c>
+      <c r="M550" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="N550" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O550" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="551" spans="1:15">
+      <c r="A551">
+        <v>786</v>
+      </c>
+      <c r="B551" s="1">
+        <v>45848.497175925899</v>
+      </c>
+      <c r="C551" s="1">
+        <v>45848.498761574097</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F551" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="G551" s="2">
+        <v>45824</v>
+      </c>
+      <c r="H551" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I551" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="J551" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="M551" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="N551" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O551" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="552" spans="1:15">
+      <c r="A552">
+        <v>787</v>
+      </c>
+      <c r="B552" s="1">
+        <v>45848.498796296299</v>
+      </c>
+      <c r="C552" s="1">
+        <v>45848.4999537037</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F552" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G552" s="2">
+        <v>45835</v>
+      </c>
+      <c r="H552" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I552" s="3"/>
+      <c r="J552" s="3"/>
+      <c r="K552">
+        <v>3</v>
+      </c>
+      <c r="L552">
+        <v>8</v>
+      </c>
+      <c r="M552" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="N552" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O552" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="553" spans="1:15">
+      <c r="A553">
+        <v>788</v>
+      </c>
+      <c r="B553" s="1">
+        <v>45848.500034722201</v>
+      </c>
+      <c r="C553" s="1">
+        <v>45848.5005439815</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F553" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G553" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H553" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I553" s="3"/>
+      <c r="J553" s="3"/>
+      <c r="M553" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="N553" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O553" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="554" spans="1:15">
+      <c r="A554">
+        <v>765</v>
+      </c>
+      <c r="B554" s="1">
+        <v>45475.588877314804</v>
+      </c>
+      <c r="C554" s="1">
+        <v>45475.589456018497</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F554" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G554" s="2">
+        <v>45471</v>
+      </c>
+      <c r="H554" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I554" s="3"/>
+      <c r="J554" s="3"/>
+      <c r="L554">
+        <v>9</v>
+      </c>
+      <c r="M554" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="N554" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O530" s="3" t="s">
+      <c r="O554" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="555" spans="1:15">
+      <c r="A555">
+        <v>766</v>
+      </c>
+      <c r="B555" s="1">
+        <v>45475.589641203696</v>
+      </c>
+      <c r="C555" s="1">
+        <v>45475.591539351903</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F555" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G555" s="2">
+        <v>45442</v>
+      </c>
+      <c r="H555" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I555" s="3"/>
+      <c r="J555" s="3"/>
+      <c r="K555">
+        <v>144</v>
+      </c>
+      <c r="L555">
+        <v>9</v>
+      </c>
+      <c r="M555" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N555" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O555" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="556" spans="1:15">
+      <c r="A556">
+        <v>767</v>
+      </c>
+      <c r="B556" s="1">
+        <v>45698.690937500003</v>
+      </c>
+      <c r="C556" s="1">
+        <v>45698.691701388903</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F556" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G556" s="2">
+        <v>45686</v>
+      </c>
+      <c r="H556" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I556" s="3"/>
+      <c r="J556" s="3"/>
+      <c r="M556" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="N556" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="O556" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="557" spans="1:15">
+      <c r="A557">
+        <v>768</v>
+      </c>
+      <c r="B557" s="1">
+        <v>45700.522210648203</v>
+      </c>
+      <c r="C557" s="1">
+        <v>45700.524641203701</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E557" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F557" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G557" s="2">
+        <v>45695</v>
+      </c>
+      <c r="H557" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I557" s="3"/>
+      <c r="J557" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="M557" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="N557" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="O557" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="558" spans="1:15">
+      <c r="A558">
+        <v>769</v>
+      </c>
+      <c r="B558" s="1">
+        <v>45734.590648148202</v>
+      </c>
+      <c r="C558" s="1">
+        <v>45734.591481481497</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F558" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G558" s="2">
+        <v>45725</v>
+      </c>
+      <c r="H558" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I558" s="3"/>
+      <c r="J558" s="3"/>
+      <c r="M558" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="N558" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O558" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="559" spans="1:15">
+      <c r="A559">
+        <v>770</v>
+      </c>
+      <c r="B559" s="1">
+        <v>45734.593854166698</v>
+      </c>
+      <c r="C559" s="1">
+        <v>45734.594282407401</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F559" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G559" s="2">
+        <v>45725</v>
+      </c>
+      <c r="H559" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I559" s="3"/>
+      <c r="J559" s="3"/>
+      <c r="M559" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="N559" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O559" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -30217,7 +31448,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>762</v>
+        <v>803</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -30230,7 +31461,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>763</v>
+        <v>804</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -30286,7 +31517,7 @@
         <v>56</v>
       </c>
       <c r="Q5" t="s">
-        <v>764</v>
+        <v>805</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -30934,7 +32165,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>764</v>
+        <v>805</v>
       </c>
       <c r="B62">
         <v>45</v>

--- a/data/Research metrics new.xlsx
+++ b/data/Research metrics new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29629"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium-my.sharepoint.com/personal/rcunning_sheddaquarium_org/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{257AB5CC-1754-4481-BCCF-06533D35B278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDCC4674-9D43-48A2-A0C1-E1AC5B2D555F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$509:$M$509</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$552:$M$552</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="2740" r:id="rId3"/>
+    <pivotCache cacheId="340" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4074" uniqueCount="821">
   <si>
     <t>Id</t>
   </si>
@@ -2242,6 +2242,174 @@
   </si>
   <si>
     <t>Hosted the communications person from the Okinawa Churaumi Aquarium for the day at Shedd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happel, A. (2025). Larval fish community of the urbanized Chicago River. Journal of Great Lakes Research, 51(6), 102662. https://doi.org/10.1016/j.jglr.2025.102662 </t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S038013302500156X?via%3Dihub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happel, A., &amp; Rukstales, E. (2025). Combined sewer overflows alter zooplankton communities in an urban river. Knowledge and Management of Aquatic Ecosystems, 426, 12.  https://doi.org/10.1051/kmae/2025007 </t>
+  </si>
+  <si>
+    <t>https://www.kmae-journal.org/articles/kmae/full_html/2025/01/kmae250010/kmae250010.html</t>
+  </si>
+  <si>
+    <t>Teen Career workshop/panel thingy</t>
+  </si>
+  <si>
+    <t>Conch tracking in FKNMS / PENiP</t>
+  </si>
+  <si>
+    <t>Lecture for DePaul University: Conservation Ecology</t>
+  </si>
+  <si>
+    <t>Hosted orientation meeting for NWU Engineering group @ Shedd</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/episode/5rcR5VbJVVy33D3DqI4gXh?si=tRzIGBTWQ2qlKcDp3Z5wmw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In today’s episode, Saima and Arman are joined by Dr. Andy Kough, a marine biologist at the Shedd Aquarium, to explore the fascinating parallels between clinical psychology and the natural world. </t>
+  </si>
+  <si>
+    <t>In the works</t>
+  </si>
+  <si>
+    <t>Guest for Podcast for episode of Shellphone recording with Harmony Dawson</t>
+  </si>
+  <si>
+    <t>Attended the Florida Keys Conference where I gave an oral presentation and tabled for the RV Coral Reef II</t>
+  </si>
+  <si>
+    <t>Marine invertebrates;RV Coral Reef II</t>
+  </si>
+  <si>
+    <t>Participated in the Climate Vulnerability Assessment for US Caribbean Fisheries, a working group funded by NOAA; resulting paper in prep</t>
+  </si>
+  <si>
+    <t>Design review meeting for NWU Engineering class</t>
+  </si>
+  <si>
+    <t>Lecture for section one of class for University of Illinois - Chicago</t>
+  </si>
+  <si>
+    <t>Lecture for section two of class for University of Illinois - Chicago</t>
+  </si>
+  <si>
+    <t>Kough, A., Matsuda, S., Appeldoorn, R., Boman, E., Galassini, K., Delgado, G., … Stoner, A. (2024). Queen conch aquaculture remains a conservation symbol and is not yet a fisheries solution. Oryx, 58(6), 700–709. doi:10.1017/S0030605324001443</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/oryx/article/queen-conch-aquaculture-remains-a-conservation-symbol-and-is-not-yet-a-fisheries-solution/BE90C7E20FC3FA7EA702D84F81CB4C8D</t>
+  </si>
+  <si>
+    <t>Queen conch aquaculture remains a conservation symbol and is not yet a fisheries solution (was first published online on this date, but the issue is retroactive to months beforehand and the issue was actually published in June)</t>
+  </si>
+  <si>
+    <t>https://www.nwf.org/Magazines/National-Wildlife/2025/Summer/Conservation/Queen-Conch</t>
+  </si>
+  <si>
+    <t>Front page story in National Wildlife Magazine about queen conch conservation</t>
+  </si>
+  <si>
+    <t>Ross and I coauthored an article for AZA-Connect alongside a collaborator from Palm Beach Zoo about Shedd led fieldwork in SFL</t>
+  </si>
+  <si>
+    <t>Lecture Lake Forest College</t>
+  </si>
+  <si>
+    <t>ACCA;Coral</t>
+  </si>
+  <si>
+    <t>Marine Ecology ACCA Course field component CRII (16 days X 8 hours X 18 students)</t>
+  </si>
+  <si>
+    <t>ECB Cohort Visit</t>
+  </si>
+  <si>
+    <t>ECB Internship Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCA School Panel Event </t>
+  </si>
+  <si>
+    <t>FW Mussel Field Support</t>
+  </si>
+  <si>
+    <t>Coral Spawn CRII Cruise</t>
+  </si>
+  <si>
+    <t>Coral Cruise (DRM)</t>
+  </si>
+  <si>
+    <t>Previous ACCA Student Letters of Recommendation or Reference Calls (Noel, Abigail, Grace, Addison, Sedona, Austin, Diego; Emma); Career Chats (Trista, Rosemary)</t>
+  </si>
+  <si>
+    <t>Classroom Component Marine ACCA (18 students X 7 hours X 6 Classes)</t>
+  </si>
+  <si>
+    <t>Freshwater Ecology ACCA Classroom (22 students X 7 hours X 7 classes)</t>
+  </si>
+  <si>
+    <t>Sanfilippo, G.E., Inoue, K., Zanatta, D.T. (2025) Patterns of genetic diversity and structure in Pressodonta viridis, Slippershell Mussel, in streams of the U.S. Midwest. Heredity, 134, 680–694. https://doi.org/10.1038/s41437-025-00807-4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41437-025-00807-4</t>
+  </si>
+  <si>
+    <t>https://www.fox32chicago.com/video/1726039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appearance on Fox32 Chicago to discuss recent trip to Florida and Coral Reefs being on a tipping point </t>
+  </si>
+  <si>
+    <t>advocacy and learning asked to talk to 30ish students</t>
+  </si>
+  <si>
+    <t>Talk at the Moorea Coral Reef Long Term Ecological Research All investigators Meeting on Acropora pulchra project</t>
+  </si>
+  <si>
+    <t>Coral Spawn Research trip</t>
+  </si>
+  <si>
+    <t>Animal Care and Science Division meeting presentation</t>
+  </si>
+  <si>
+    <t>Tour of coral facilities to two U Chicago graduate students</t>
+  </si>
+  <si>
+    <t>Met with undergraduate from NC State to discuss coral research pathways</t>
+  </si>
+  <si>
+    <t>Met with U Miami grad students to discuss career pathways</t>
+  </si>
+  <si>
+    <t>Met with member of Conservation Action to discuss coral research pathways</t>
+  </si>
+  <si>
+    <t>Met with UC Santa Cruz graduate student to discuss coral soundscapes</t>
+  </si>
+  <si>
+    <t>Met with Stockton University undergraduate student to discuss professional development in careers in marine research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presented to the entire Design and Exhibits team at the Nature Exploration Garden Celebration about how their work directly impacts our success in coral.  </t>
+  </si>
+  <si>
+    <t>Hosted the Smith Postdoctoral Fellows at Shedd for lunch, tour, and research presentations</t>
+  </si>
+  <si>
+    <t>Microbial ecology;Coral;Amphibians;ACCA and Conservation Action</t>
+  </si>
+  <si>
+    <t>Invited speaker at the California Academy of Sciences ex situ spawning workshop</t>
+  </si>
+  <si>
+    <t>Lunch and Learn on Coral Spawning</t>
+  </si>
+  <si>
+    <t>Presented on Coral Spawning research at Town Hall</t>
   </si>
   <si>
     <t>Taught two graduate school lectures on larval dispersal and marine conserservation on location at FAU</t>
@@ -2385,7 +2553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2393,7 +2561,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8186,7 +8353,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABFA26CD-99A8-4944-A749-8B86BBC7DC42}" name="PivotTable1" cacheId="2740" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABFA26CD-99A8-4944-A749-8B86BBC7DC42}" name="PivotTable1" cacheId="340" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:Q62" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -9014,11 +9181,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:O506" totalsRowShown="0">
-  <autoFilter ref="A1:O506" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O443">
-    <sortCondition ref="H1:H443"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:O549" totalsRowShown="0">
+  <autoFilter ref="A1:O549" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="14">
       <extLst>
@@ -9129,7 +9293,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="WmKV9QsF-ESGzEsfiGZoTb83Sl3n5wlHr3isCMIkazlUREdPWjQwWjdHU1IxNFdNOVVTSVpHNktFSi4u" isFormConnected="1" maxResponseId="515" latestEventMarker="513">
+      <xlmsforms:msForm id="WmKV9QsF-ESGzEsfiGZoTb83Sl3n5wlHr3isCMIkazlUREdPWjQwWjdHU1IxNFdNOVVTSVpHNktFSi4u" isFormConnected="1" maxResponseId="558" latestEventMarker="556">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -9448,10 +9612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O530"/>
+  <dimension ref="A1:O573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485"/>
+    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="M478" sqref="M478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -28426,7 +28590,7 @@
       </c>
     </row>
     <row r="488" spans="1:15">
-      <c r="A488" s="7">
+      <c r="A488">
         <v>497</v>
       </c>
       <c r="B488" s="1">
@@ -28452,8 +28616,6 @@
       </c>
       <c r="I488" s="3"/>
       <c r="J488" s="3"/>
-      <c r="K488" s="7"/>
-      <c r="L488" s="7"/>
       <c r="M488" s="3" t="s">
         <v>711</v>
       </c>
@@ -28465,7 +28627,7 @@
       </c>
     </row>
     <row r="489" spans="1:15">
-      <c r="A489" s="7">
+      <c r="A489">
         <v>498</v>
       </c>
       <c r="B489" s="1">
@@ -28493,8 +28655,6 @@
       <c r="J489" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K489" s="7"/>
-      <c r="L489" s="7"/>
       <c r="M489" s="3" t="s">
         <v>713</v>
       </c>
@@ -28506,7 +28666,7 @@
       </c>
     </row>
     <row r="490" spans="1:15">
-      <c r="A490" s="7">
+      <c r="A490">
         <v>499</v>
       </c>
       <c r="B490" s="1">
@@ -28532,10 +28692,10 @@
       </c>
       <c r="I490" s="3"/>
       <c r="J490" s="3"/>
-      <c r="K490" s="7">
+      <c r="K490">
         <v>8</v>
       </c>
-      <c r="L490" s="7">
+      <c r="L490">
         <v>3</v>
       </c>
       <c r="M490" s="3" t="s">
@@ -28549,7 +28709,7 @@
       </c>
     </row>
     <row r="491" spans="1:15">
-      <c r="A491" s="7">
+      <c r="A491">
         <v>500</v>
       </c>
       <c r="B491" s="1">
@@ -28575,10 +28735,10 @@
       </c>
       <c r="I491" s="3"/>
       <c r="J491" s="3"/>
-      <c r="K491" s="7">
+      <c r="K491">
         <v>2</v>
       </c>
-      <c r="L491" s="7">
+      <c r="L491">
         <v>4</v>
       </c>
       <c r="M491" s="3" t="s">
@@ -28592,7 +28752,7 @@
       </c>
     </row>
     <row r="492" spans="1:15">
-      <c r="A492" s="7">
+      <c r="A492">
         <v>501</v>
       </c>
       <c r="B492" s="1">
@@ -28618,8 +28778,6 @@
       </c>
       <c r="I492" s="3"/>
       <c r="J492" s="3"/>
-      <c r="K492" s="7"/>
-      <c r="L492" s="7"/>
       <c r="M492" s="3" t="s">
         <v>716</v>
       </c>
@@ -28631,7 +28789,7 @@
       </c>
     </row>
     <row r="493" spans="1:15">
-      <c r="A493" s="7">
+      <c r="A493">
         <v>502</v>
       </c>
       <c r="B493" s="1">
@@ -28659,8 +28817,6 @@
       <c r="J493" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="K493" s="7"/>
-      <c r="L493" s="7"/>
       <c r="M493" s="3" t="s">
         <v>718</v>
       </c>
@@ -28672,7 +28828,7 @@
       </c>
     </row>
     <row r="494" spans="1:15">
-      <c r="A494" s="7">
+      <c r="A494">
         <v>503</v>
       </c>
       <c r="B494" s="1">
@@ -28698,8 +28854,6 @@
       </c>
       <c r="I494" s="3"/>
       <c r="J494" s="3"/>
-      <c r="K494" s="7"/>
-      <c r="L494" s="7"/>
       <c r="M494" s="3" t="s">
         <v>719</v>
       </c>
@@ -28711,7 +28865,7 @@
       </c>
     </row>
     <row r="495" spans="1:15">
-      <c r="A495" s="7">
+      <c r="A495">
         <v>504</v>
       </c>
       <c r="B495" s="1">
@@ -28737,10 +28891,10 @@
       </c>
       <c r="I495" s="3"/>
       <c r="J495" s="3"/>
-      <c r="K495" s="7">
+      <c r="K495">
         <v>3</v>
       </c>
-      <c r="L495" s="7">
+      <c r="L495">
         <v>4</v>
       </c>
       <c r="M495" s="3" t="s">
@@ -28754,7 +28908,7 @@
       </c>
     </row>
     <row r="496" spans="1:15">
-      <c r="A496" s="7">
+      <c r="A496">
         <v>505</v>
       </c>
       <c r="B496" s="1">
@@ -28782,8 +28936,6 @@
       <c r="J496" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K496" s="7"/>
-      <c r="L496" s="7"/>
       <c r="M496" s="3" t="s">
         <v>721</v>
       </c>
@@ -28795,7 +28947,7 @@
       </c>
     </row>
     <row r="497" spans="1:15">
-      <c r="A497" s="7">
+      <c r="A497">
         <v>506</v>
       </c>
       <c r="B497" s="1">
@@ -28823,8 +28975,6 @@
       <c r="J497" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K497" s="7"/>
-      <c r="L497" s="7"/>
       <c r="M497" s="3" t="s">
         <v>722</v>
       </c>
@@ -28836,7 +28986,7 @@
       </c>
     </row>
     <row r="498" spans="1:15">
-      <c r="A498" s="7">
+      <c r="A498">
         <v>507</v>
       </c>
       <c r="B498" s="1">
@@ -28864,8 +29014,6 @@
       <c r="J498" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K498" s="7"/>
-      <c r="L498" s="7"/>
       <c r="M498" s="3" t="s">
         <v>723</v>
       </c>
@@ -28877,7 +29025,7 @@
       </c>
     </row>
     <row r="499" spans="1:15">
-      <c r="A499" s="7">
+      <c r="A499">
         <v>508</v>
       </c>
       <c r="B499" s="1">
@@ -28903,10 +29051,10 @@
       </c>
       <c r="I499" s="3"/>
       <c r="J499" s="3"/>
-      <c r="K499" s="7">
+      <c r="K499">
         <v>4</v>
       </c>
-      <c r="L499" s="7">
+      <c r="L499">
         <v>3</v>
       </c>
       <c r="M499" s="3" t="s">
@@ -28920,7 +29068,7 @@
       </c>
     </row>
     <row r="500" spans="1:15">
-      <c r="A500" s="7">
+      <c r="A500">
         <v>509</v>
       </c>
       <c r="B500" s="1">
@@ -28946,8 +29094,6 @@
       </c>
       <c r="I500" s="3"/>
       <c r="J500" s="3"/>
-      <c r="K500" s="7"/>
-      <c r="L500" s="7"/>
       <c r="M500" s="3" t="s">
         <v>725</v>
       </c>
@@ -28959,7 +29105,7 @@
       </c>
     </row>
     <row r="501" spans="1:15">
-      <c r="A501" s="7">
+      <c r="A501">
         <v>510</v>
       </c>
       <c r="B501" s="1">
@@ -28987,8 +29133,6 @@
       <c r="J501" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="K501" s="7"/>
-      <c r="L501" s="7"/>
       <c r="M501" s="3" t="s">
         <v>727</v>
       </c>
@@ -29000,7 +29144,7 @@
       </c>
     </row>
     <row r="502" spans="1:15">
-      <c r="A502" s="7">
+      <c r="A502">
         <v>511</v>
       </c>
       <c r="B502" s="1">
@@ -29028,8 +29172,6 @@
       <c r="J502" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K502" s="7"/>
-      <c r="L502" s="7"/>
       <c r="M502" s="3" t="s">
         <v>728</v>
       </c>
@@ -29041,7 +29183,7 @@
       </c>
     </row>
     <row r="503" spans="1:15">
-      <c r="A503" s="7">
+      <c r="A503">
         <v>512</v>
       </c>
       <c r="B503" s="1">
@@ -29069,8 +29211,6 @@
       <c r="J503" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K503" s="7"/>
-      <c r="L503" s="7"/>
       <c r="M503" s="3" t="s">
         <v>729</v>
       </c>
@@ -29082,7 +29222,7 @@
       </c>
     </row>
     <row r="504" spans="1:15">
-      <c r="A504" s="7">
+      <c r="A504">
         <v>513</v>
       </c>
       <c r="B504" s="1">
@@ -29110,8 +29250,6 @@
       <c r="J504" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K504" s="7"/>
-      <c r="L504" s="7"/>
       <c r="M504" s="3" t="s">
         <v>730</v>
       </c>
@@ -29123,7 +29261,7 @@
       </c>
     </row>
     <row r="505" spans="1:15">
-      <c r="A505" s="7">
+      <c r="A505">
         <v>514</v>
       </c>
       <c r="B505" s="1">
@@ -29151,8 +29289,6 @@
       <c r="J505" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="K505" s="7"/>
-      <c r="L505" s="7"/>
       <c r="M505" s="3" t="s">
         <v>731</v>
       </c>
@@ -29164,7 +29300,7 @@
       </c>
     </row>
     <row r="506" spans="1:15">
-      <c r="A506" s="7">
+      <c r="A506">
         <v>515</v>
       </c>
       <c r="B506" s="1">
@@ -29190,10 +29326,10 @@
       </c>
       <c r="I506" s="3"/>
       <c r="J506" s="3"/>
-      <c r="K506" s="7">
+      <c r="K506">
         <v>5</v>
       </c>
-      <c r="L506" s="7">
+      <c r="L506">
         <v>1</v>
       </c>
       <c r="M506" s="3" t="s">
@@ -29208,36 +29344,38 @@
     </row>
     <row r="507" spans="1:15">
       <c r="A507">
-        <v>771</v>
+        <v>516</v>
       </c>
       <c r="B507" s="1">
-        <v>45747.620694444398</v>
+        <v>45993.616180555597</v>
       </c>
       <c r="C507" s="1">
-        <v>45747.621539351901</v>
-      </c>
-      <c r="D507" s="3" t="s">
-        <v>214</v>
+        <v>45993.622673611098</v>
+      </c>
+      <c r="D507" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E507" s="3" t="s">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c r="F507" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G507" s="2">
-        <v>45728</v>
+        <v>45993</v>
       </c>
       <c r="H507" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I507" s="3"/>
-      <c r="J507" s="3"/>
-      <c r="M507" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I507" s="3" t="s">
         <v>733</v>
       </c>
+      <c r="J507" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="M507" s="3"/>
       <c r="N507" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O507" s="3" t="s">
         <v>220</v>
@@ -29245,55 +29383,54 @@
     </row>
     <row r="508" spans="1:15">
       <c r="A508">
-        <v>772</v>
+        <v>517</v>
       </c>
       <c r="B508" s="1">
-        <v>45747.621562499997</v>
+        <v>45993.622719907398</v>
       </c>
       <c r="C508" s="1">
-        <v>45747.626712963</v>
-      </c>
-      <c r="D508" s="3" t="s">
-        <v>214</v>
+        <v>45993.623321759304</v>
+      </c>
+      <c r="D508" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E508" s="3" t="s">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c r="F508" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G508" s="2">
-        <v>45735</v>
+        <v>45790</v>
       </c>
       <c r="H508" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I508" s="3"/>
-      <c r="J508" s="3"/>
-      <c r="L508">
-        <v>8</v>
-      </c>
-      <c r="M508" s="3" t="s">
-        <v>734</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I508" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="J508" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="M508" s="3"/>
       <c r="N508" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="O508" s="3" t="s">
-        <v>218</v>
+        <v>21</v>
       </c>
     </row>
     <row r="509" spans="1:15">
       <c r="A509">
-        <v>773</v>
+        <v>518</v>
       </c>
       <c r="B509" s="1">
-        <v>45747.626747685201</v>
+        <v>45994.387002314797</v>
       </c>
       <c r="C509" s="1">
-        <v>45747.627129629604</v>
-      </c>
-      <c r="D509" s="3" t="s">
+        <v>45994.391678240703</v>
+      </c>
+      <c r="D509" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E509" s="3" t="s">
@@ -29303,18 +29440,15 @@
         <v>17</v>
       </c>
       <c r="G509" s="2">
-        <v>45722</v>
+        <v>45884</v>
       </c>
       <c r="H509" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I509" s="3"/>
       <c r="J509" s="3"/>
-      <c r="L509">
-        <v>8</v>
-      </c>
       <c r="M509" s="3" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="N509" s="3" t="s">
         <v>23</v>
@@ -29325,15 +29459,15 @@
     </row>
     <row r="510" spans="1:15">
       <c r="A510">
-        <v>774</v>
+        <v>519</v>
       </c>
       <c r="B510" s="1">
-        <v>45747.627152777801</v>
+        <v>45994.391712962999</v>
       </c>
       <c r="C510" s="1">
-        <v>45747.628472222197</v>
-      </c>
-      <c r="D510" s="3" t="s">
+        <v>45994.392835648097</v>
+      </c>
+      <c r="D510" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E510" s="3" t="s">
@@ -29343,21 +29477,18 @@
         <v>17</v>
       </c>
       <c r="G510" s="2">
-        <v>45692</v>
+        <v>45891</v>
       </c>
       <c r="H510" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I510" s="3"/>
       <c r="J510" s="3"/>
-      <c r="K510">
-        <v>40</v>
-      </c>
       <c r="L510">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M510" s="3" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N510" s="3" t="s">
         <v>23</v>
@@ -29368,15 +29499,15 @@
     </row>
     <row r="511" spans="1:15">
       <c r="A511">
-        <v>775</v>
+        <v>520</v>
       </c>
       <c r="B511" s="1">
-        <v>45747.628599536998</v>
+        <v>45994.392847222203</v>
       </c>
       <c r="C511" s="1">
-        <v>45747.628993055601</v>
-      </c>
-      <c r="D511" s="3" t="s">
+        <v>45994.393576388902</v>
+      </c>
+      <c r="D511" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E511" s="3" t="s">
@@ -29386,7 +29517,7 @@
         <v>17</v>
       </c>
       <c r="G511" s="2">
-        <v>45684</v>
+        <v>45905</v>
       </c>
       <c r="H511" s="3" t="s">
         <v>28</v>
@@ -29394,7 +29525,7 @@
       <c r="I511" s="3"/>
       <c r="J511" s="3"/>
       <c r="M511" s="3" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="N511" s="3" t="s">
         <v>23</v>
@@ -29405,15 +29536,15 @@
     </row>
     <row r="512" spans="1:15">
       <c r="A512">
-        <v>776</v>
+        <v>521</v>
       </c>
       <c r="B512" s="1">
-        <v>45747.629016203697</v>
+        <v>45994.393993055601</v>
       </c>
       <c r="C512" s="1">
-        <v>45747.629537036999</v>
-      </c>
-      <c r="D512" s="3" t="s">
+        <v>45994.394791666702</v>
+      </c>
+      <c r="D512" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E512" s="3" t="s">
@@ -29423,15 +29554,21 @@
         <v>17</v>
       </c>
       <c r="G512" s="2">
-        <v>45689</v>
+        <v>45919</v>
       </c>
       <c r="H512" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I512" s="3"/>
       <c r="J512" s="3"/>
+      <c r="K512">
+        <v>8</v>
+      </c>
+      <c r="L512">
+        <v>4</v>
+      </c>
       <c r="M512" s="3" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="N512" s="3" t="s">
         <v>23</v>
@@ -29442,15 +29579,15 @@
     </row>
     <row r="513" spans="1:15">
       <c r="A513">
-        <v>777</v>
+        <v>522</v>
       </c>
       <c r="B513" s="1">
-        <v>45747.629907407398</v>
+        <v>45994.3953819444</v>
       </c>
       <c r="C513" s="1">
-        <v>45747.630162037</v>
-      </c>
-      <c r="D513" s="3" t="s">
+        <v>45994.3977199074</v>
+      </c>
+      <c r="D513" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E513" s="3" t="s">
@@ -29460,15 +29597,17 @@
         <v>17</v>
       </c>
       <c r="G513" s="2">
-        <v>45667</v>
+        <v>45948</v>
       </c>
       <c r="H513" s="3" t="s">
         <v>39</v>
       </c>
       <c r="I513" s="3"/>
-      <c r="J513" s="3"/>
+      <c r="J513" s="3" t="s">
+        <v>741</v>
+      </c>
       <c r="M513" s="3" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="N513" s="3" t="s">
         <v>23</v>
@@ -29479,15 +29618,15 @@
     </row>
     <row r="514" spans="1:15">
       <c r="A514">
-        <v>778</v>
+        <v>523</v>
       </c>
       <c r="B514" s="1">
-        <v>45747.630173611098</v>
+        <v>45994.397743055597</v>
       </c>
       <c r="C514" s="1">
-        <v>45747.630624999998</v>
-      </c>
-      <c r="D514" s="3" t="s">
+        <v>45994.398645833302</v>
+      </c>
+      <c r="D514" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E514" s="3" t="s">
@@ -29497,18 +29636,17 @@
         <v>17</v>
       </c>
       <c r="G514" s="2">
-        <v>45659</v>
+        <v>45953</v>
       </c>
       <c r="H514" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I514" s="3"/>
-      <c r="J514" s="3"/>
-      <c r="L514">
-        <v>5</v>
+      <c r="J514" s="3" t="s">
+        <v>743</v>
       </c>
       <c r="M514" s="3" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="N514" s="3" t="s">
         <v>23</v>
@@ -29519,15 +29657,15 @@
     </row>
     <row r="515" spans="1:15">
       <c r="A515">
-        <v>779</v>
+        <v>524</v>
       </c>
       <c r="B515" s="1">
-        <v>45848.490381944401</v>
+        <v>45994.398668981499</v>
       </c>
       <c r="C515" s="1">
-        <v>45848.492708333302</v>
-      </c>
-      <c r="D515" s="3" t="s">
+        <v>45994.399386574099</v>
+      </c>
+      <c r="D515" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E515" s="3" t="s">
@@ -29537,7 +29675,7 @@
         <v>17</v>
       </c>
       <c r="G515" s="2">
-        <v>45750</v>
+        <v>45957</v>
       </c>
       <c r="H515" s="3" t="s">
         <v>28</v>
@@ -29545,10 +29683,10 @@
       <c r="I515" s="3"/>
       <c r="J515" s="3"/>
       <c r="M515" s="3" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="N515" s="3" t="s">
-        <v>23</v>
+        <v>746</v>
       </c>
       <c r="O515" s="3" t="s">
         <v>220</v>
@@ -29556,15 +29694,15 @@
     </row>
     <row r="516" spans="1:15">
       <c r="A516">
-        <v>780</v>
+        <v>525</v>
       </c>
       <c r="B516" s="1">
-        <v>45848.4927314815</v>
+        <v>45994.399421296301</v>
       </c>
       <c r="C516" s="1">
-        <v>45848.493182870399</v>
-      </c>
-      <c r="D516" s="3" t="s">
+        <v>45994.4003703704</v>
+      </c>
+      <c r="D516" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E516" s="3" t="s">
@@ -29574,7 +29712,7 @@
         <v>17</v>
       </c>
       <c r="G516" s="2">
-        <v>45759</v>
+        <v>45964</v>
       </c>
       <c r="H516" s="3" t="s">
         <v>28</v>
@@ -29582,7 +29720,7 @@
       <c r="I516" s="3"/>
       <c r="J516" s="3"/>
       <c r="M516" s="3" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="N516" s="3" t="s">
         <v>23</v>
@@ -29593,15 +29731,15 @@
     </row>
     <row r="517" spans="1:15">
       <c r="A517">
-        <v>781</v>
+        <v>526</v>
       </c>
       <c r="B517" s="1">
-        <v>45848.493206018502</v>
+        <v>45994.400405092601</v>
       </c>
       <c r="C517" s="1">
-        <v>45848.493819444397</v>
-      </c>
-      <c r="D517" s="3" t="s">
+        <v>45994.401053240697</v>
+      </c>
+      <c r="D517" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E517" s="3" t="s">
@@ -29611,7 +29749,7 @@
         <v>17</v>
       </c>
       <c r="G517" s="2">
-        <v>45761</v>
+        <v>45973</v>
       </c>
       <c r="H517" s="3" t="s">
         <v>18</v>
@@ -29619,13 +29757,13 @@
       <c r="I517" s="3"/>
       <c r="J517" s="3"/>
       <c r="K517">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L517">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M517" s="3" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="N517" s="3" t="s">
         <v>23</v>
@@ -29636,15 +29774,15 @@
     </row>
     <row r="518" spans="1:15">
       <c r="A518">
-        <v>782</v>
+        <v>527</v>
       </c>
       <c r="B518" s="1">
-        <v>45848.493842592601</v>
+        <v>45994.401087963</v>
       </c>
       <c r="C518" s="1">
-        <v>45848.494513888902</v>
-      </c>
-      <c r="D518" s="3" t="s">
+        <v>45994.401909722197</v>
+      </c>
+      <c r="D518" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E518" s="3" t="s">
@@ -29654,7 +29792,7 @@
         <v>17</v>
       </c>
       <c r="G518" s="2">
-        <v>45761</v>
+        <v>45973</v>
       </c>
       <c r="H518" s="3" t="s">
         <v>18</v>
@@ -29662,13 +29800,13 @@
       <c r="I518" s="3"/>
       <c r="J518" s="3"/>
       <c r="K518">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="L518">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="M518" s="3" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="N518" s="3" t="s">
         <v>23</v>
@@ -29679,15 +29817,15 @@
     </row>
     <row r="519" spans="1:15">
       <c r="A519">
-        <v>783</v>
+        <v>528</v>
       </c>
       <c r="B519" s="1">
-        <v>45848.494537036997</v>
+        <v>45994.401921296303</v>
       </c>
       <c r="C519" s="1">
-        <v>45848.495231481502</v>
-      </c>
-      <c r="D519" s="3" t="s">
+        <v>45994.402233796303</v>
+      </c>
+      <c r="D519" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E519" s="3" t="s">
@@ -29697,18 +29835,21 @@
         <v>17</v>
       </c>
       <c r="G519" s="2">
-        <v>45770</v>
+        <v>45974</v>
       </c>
       <c r="H519" s="3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I519" s="3"/>
       <c r="J519" s="3"/>
+      <c r="K519">
+        <v>45</v>
+      </c>
       <c r="L519">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="M519" s="3" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="N519" s="3" t="s">
         <v>23</v>
@@ -29719,15 +29860,15 @@
     </row>
     <row r="520" spans="1:15">
       <c r="A520">
-        <v>784</v>
+        <v>529</v>
       </c>
       <c r="B520" s="1">
-        <v>45848.495335648098</v>
+        <v>45994.403009259302</v>
       </c>
       <c r="C520" s="1">
-        <v>45848.496655092596</v>
-      </c>
-      <c r="D520" s="3" t="s">
+        <v>45994.405949074098</v>
+      </c>
+      <c r="D520" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E520" s="3" t="s">
@@ -29737,18 +29878,22 @@
         <v>17</v>
       </c>
       <c r="G520" s="2">
-        <v>45814</v>
+        <v>45686</v>
       </c>
       <c r="H520" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I520" s="3"/>
-      <c r="J520" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="I520" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="J520" s="3" t="s">
+        <v>752</v>
+      </c>
       <c r="M520" s="3" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="N520" s="3" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="O520" s="3" t="s">
         <v>220</v>
@@ -29756,15 +29901,15 @@
     </row>
     <row r="521" spans="1:15">
       <c r="A521">
-        <v>785</v>
+        <v>530</v>
       </c>
       <c r="B521" s="1">
-        <v>45848.496666666702</v>
+        <v>45994.406307870398</v>
       </c>
       <c r="C521" s="1">
-        <v>45848.497164351902</v>
-      </c>
-      <c r="D521" s="3" t="s">
+        <v>45994.406886574099</v>
+      </c>
+      <c r="D521" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E521" s="3" t="s">
@@ -29774,18 +29919,17 @@
         <v>17</v>
       </c>
       <c r="G521" s="2">
-        <v>45817</v>
+        <v>45833</v>
       </c>
       <c r="H521" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I521" s="3"/>
-      <c r="J521" s="3"/>
-      <c r="L521">
-        <v>13</v>
+      <c r="J521" s="3" t="s">
+        <v>754</v>
       </c>
       <c r="M521" s="3" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="N521" s="3" t="s">
         <v>23</v>
@@ -29796,40 +29940,38 @@
     </row>
     <row r="522" spans="1:15">
       <c r="A522">
-        <v>786</v>
+        <v>531</v>
       </c>
       <c r="B522" s="1">
-        <v>45848.497175925899</v>
+        <v>45994.407430555599</v>
       </c>
       <c r="C522" s="1">
-        <v>45848.498761574097</v>
-      </c>
-      <c r="D522" s="3" t="s">
+        <v>45994.408113425903</v>
+      </c>
+      <c r="D522" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E522" s="3" t="s">
         <v>215</v>
       </c>
       <c r="F522" s="3" t="s">
-        <v>748</v>
+        <v>17</v>
       </c>
       <c r="G522" s="2">
-        <v>45824</v>
+        <v>45798</v>
       </c>
       <c r="H522" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I522" s="3" t="s">
-        <v>749</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I522" s="3"/>
       <c r="J522" s="3" t="s">
-        <v>750</v>
+        <v>517</v>
       </c>
       <c r="M522" s="3" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="N522" s="3" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="O522" s="3" t="s">
         <v>220</v>
@@ -29837,145 +29979,142 @@
     </row>
     <row r="523" spans="1:15">
       <c r="A523">
-        <v>787</v>
+        <v>532</v>
       </c>
       <c r="B523" s="1">
-        <v>45848.498796296299</v>
+        <v>45994.601215277798</v>
       </c>
       <c r="C523" s="1">
-        <v>45848.4999537037</v>
-      </c>
-      <c r="D523" s="3" t="s">
-        <v>214</v>
+        <v>45994.6036805556</v>
+      </c>
+      <c r="D523" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E523" s="3" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="F523" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G523" s="2">
-        <v>45835</v>
+        <v>45953</v>
       </c>
       <c r="H523" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I523" s="3"/>
       <c r="J523" s="3"/>
-      <c r="K523">
-        <v>3</v>
-      </c>
       <c r="L523">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M523" s="3" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="N523" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O523" s="3" t="s">
-        <v>220</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="O523" s="3"/>
     </row>
     <row r="524" spans="1:15">
       <c r="A524">
-        <v>788</v>
+        <v>533</v>
       </c>
       <c r="B524" s="1">
-        <v>45848.500034722201</v>
+        <v>45994.603703703702</v>
       </c>
       <c r="C524" s="1">
-        <v>45848.5005439815</v>
-      </c>
-      <c r="D524" s="3" t="s">
-        <v>214</v>
+        <v>45994.605300925898</v>
+      </c>
+      <c r="D524" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E524" s="3" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="F524" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G524" s="2">
-        <v>45845</v>
+        <v>45782</v>
       </c>
       <c r="H524" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I524" s="3"/>
       <c r="J524" s="3"/>
+      <c r="K524">
+        <v>2304</v>
+      </c>
+      <c r="L524">
+        <v>18</v>
+      </c>
       <c r="M524" s="3" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="N524" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O524" s="3" t="s">
-        <v>220</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="O524" s="3"/>
     </row>
     <row r="525" spans="1:15">
       <c r="A525">
-        <v>765</v>
+        <v>534</v>
       </c>
       <c r="B525" s="1">
-        <v>45475.588877314804</v>
+        <v>45994.605312500003</v>
       </c>
       <c r="C525" s="1">
-        <v>45475.589456018497</v>
-      </c>
-      <c r="D525" s="3" t="s">
-        <v>46</v>
+        <v>45994.607152777797</v>
+      </c>
+      <c r="D525" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E525" s="3" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F525" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G525" s="2">
-        <v>45471</v>
+        <v>45859</v>
       </c>
       <c r="H525" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I525" s="3"/>
       <c r="J525" s="3"/>
       <c r="L525">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M525" s="3" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="N525" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O525" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="O525" s="3"/>
     </row>
     <row r="526" spans="1:15">
       <c r="A526">
-        <v>766</v>
+        <v>535</v>
       </c>
       <c r="B526" s="1">
-        <v>45475.589641203696</v>
+        <v>45994.607175925899</v>
       </c>
       <c r="C526" s="1">
-        <v>45475.591539351903</v>
-      </c>
-      <c r="D526" s="3" t="s">
-        <v>46</v>
+        <v>45994.608055555596</v>
+      </c>
+      <c r="D526" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E526" s="3" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F526" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G526" s="2">
-        <v>45442</v>
+        <v>45761</v>
       </c>
       <c r="H526" s="3" t="s">
         <v>18</v>
@@ -29983,168 +30122,1826 @@
       <c r="I526" s="3"/>
       <c r="J526" s="3"/>
       <c r="K526">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="L526">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="M526" s="3" t="s">
-        <v>161</v>
+        <v>762</v>
       </c>
       <c r="N526" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O526" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="O526" s="3"/>
     </row>
     <row r="527" spans="1:15">
       <c r="A527">
-        <v>767</v>
+        <v>536</v>
       </c>
       <c r="B527" s="1">
-        <v>45698.690937500003</v>
+        <v>45994.6080671296</v>
       </c>
       <c r="C527" s="1">
-        <v>45698.691701388903</v>
-      </c>
-      <c r="D527" s="3" t="s">
-        <v>46</v>
+        <v>45994.609490740702</v>
+      </c>
+      <c r="D527" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E527" s="3" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F527" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G527" s="2">
-        <v>45686</v>
+        <v>45831</v>
       </c>
       <c r="H527" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I527" s="3"/>
       <c r="J527" s="3"/>
+      <c r="L527">
+        <v>1</v>
+      </c>
       <c r="M527" s="3" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="N527" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="O527" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="O527" s="3"/>
     </row>
     <row r="528" spans="1:15">
       <c r="A528">
-        <v>768</v>
+        <v>537</v>
       </c>
       <c r="B528" s="1">
-        <v>45700.522210648203</v>
+        <v>45994.609502314801</v>
       </c>
       <c r="C528" s="1">
-        <v>45700.524641203701</v>
-      </c>
-      <c r="D528" s="3" t="s">
-        <v>46</v>
+        <v>45994.610162037003</v>
+      </c>
+      <c r="D528" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E528" s="3" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F528" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G528" s="2">
-        <v>45695</v>
+        <v>45878</v>
       </c>
       <c r="H528" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I528" s="3"/>
-      <c r="J528" s="3" t="s">
-        <v>757</v>
+      <c r="J528" s="3"/>
+      <c r="L528">
+        <v>14</v>
       </c>
       <c r="M528" s="3" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="N528" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="O528" s="3" t="s">
-        <v>218</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O528" s="3"/>
     </row>
     <row r="529" spans="1:15">
       <c r="A529">
-        <v>769</v>
+        <v>538</v>
       </c>
       <c r="B529" s="1">
-        <v>45734.590648148202</v>
+        <v>45994.610173611101</v>
       </c>
       <c r="C529" s="1">
-        <v>45734.591481481497</v>
-      </c>
-      <c r="D529" s="3" t="s">
-        <v>46</v>
+        <v>45994.612465277802</v>
+      </c>
+      <c r="D529" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E529" s="3" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F529" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G529" s="2">
-        <v>45725</v>
+        <v>45897</v>
       </c>
       <c r="H529" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I529" s="3"/>
       <c r="J529" s="3"/>
+      <c r="L529">
+        <v>12</v>
+      </c>
       <c r="M529" s="3" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="N529" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O529" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O529" s="3"/>
     </row>
     <row r="530" spans="1:15">
       <c r="A530">
-        <v>770</v>
+        <v>539</v>
       </c>
       <c r="B530" s="1">
-        <v>45734.593854166698</v>
+        <v>45994.612488425897</v>
       </c>
       <c r="C530" s="1">
-        <v>45734.594282407401</v>
-      </c>
-      <c r="D530" s="3" t="s">
-        <v>46</v>
+        <v>45994.619652777801</v>
+      </c>
+      <c r="D530" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E530" s="3" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="F530" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G530" s="2">
-        <v>45725</v>
+        <v>45992</v>
       </c>
       <c r="H530" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I530" s="3"/>
       <c r="J530" s="3"/>
+      <c r="L530">
+        <v>10</v>
+      </c>
       <c r="M530" s="3" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="N530" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="O530" s="3"/>
+    </row>
+    <row r="531" spans="1:15">
+      <c r="A531">
+        <v>540</v>
+      </c>
+      <c r="B531" s="1">
+        <v>45994.619664351798</v>
+      </c>
+      <c r="C531" s="1">
+        <v>45994.620509259301</v>
+      </c>
+      <c r="D531" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F531" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G531" s="2">
+        <v>45731</v>
+      </c>
+      <c r="H531" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I531" s="3"/>
+      <c r="J531" s="3"/>
+      <c r="K531">
+        <v>756</v>
+      </c>
+      <c r="L531">
+        <v>18</v>
+      </c>
+      <c r="M531" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="N531" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="O531" s="3"/>
+    </row>
+    <row r="532" spans="1:15">
+      <c r="A532">
+        <v>541</v>
+      </c>
+      <c r="B532" s="1">
+        <v>45994.620532407404</v>
+      </c>
+      <c r="C532" s="1">
+        <v>45994.621099536998</v>
+      </c>
+      <c r="D532" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E532" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F532" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G532" s="2">
+        <v>45906</v>
+      </c>
+      <c r="H532" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I532" s="3"/>
+      <c r="J532" s="3"/>
+      <c r="K532">
+        <v>1078</v>
+      </c>
+      <c r="L532">
+        <v>22</v>
+      </c>
+      <c r="M532" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="N532" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="O532" s="3"/>
+    </row>
+    <row r="533" spans="1:15">
+      <c r="A533">
+        <v>542</v>
+      </c>
+      <c r="B533" s="1">
+        <v>45995.487604166701</v>
+      </c>
+      <c r="C533" s="1">
+        <v>45995.4972569444</v>
+      </c>
+      <c r="D533" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E533" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F533" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G533" s="2">
+        <v>45995</v>
+      </c>
+      <c r="H533" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I533" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="J533" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="M533" s="3"/>
+      <c r="N533" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O533" s="3"/>
+    </row>
+    <row r="534" spans="1:15">
+      <c r="A534">
+        <v>543</v>
+      </c>
+      <c r="B534" s="1">
+        <v>45995.641284722202</v>
+      </c>
+      <c r="C534" s="1">
+        <v>45995.642094907402</v>
+      </c>
+      <c r="D534" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F534" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G534" s="2">
+        <v>45947</v>
+      </c>
+      <c r="H534" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I534" s="3"/>
+      <c r="J534" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="M534" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="N534" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O534" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="535" spans="1:15">
+      <c r="A535">
+        <v>544</v>
+      </c>
+      <c r="B535" s="1">
+        <v>46000.598715277803</v>
+      </c>
+      <c r="C535" s="1">
+        <v>46000.5993171296</v>
+      </c>
+      <c r="D535" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F535" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G535" s="2">
+        <v>45995</v>
+      </c>
+      <c r="H535" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I535" s="3"/>
+      <c r="J535" s="3"/>
+      <c r="M535" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="N535" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O535" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="536" spans="1:15">
+      <c r="A536">
+        <v>545</v>
+      </c>
+      <c r="B536" s="1">
+        <v>46006.616180555597</v>
+      </c>
+      <c r="C536" s="1">
+        <v>46006.616666666698</v>
+      </c>
+      <c r="D536" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F536" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G536" s="2">
+        <v>46003</v>
+      </c>
+      <c r="H536" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I536" s="3"/>
+      <c r="J536" s="3"/>
+      <c r="M536" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="N536" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O536" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="537" spans="1:15">
+      <c r="A537">
+        <v>546</v>
+      </c>
+      <c r="B537" s="1">
+        <v>46020.639756944402</v>
+      </c>
+      <c r="C537" s="1">
+        <v>46020.640625</v>
+      </c>
+      <c r="D537" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F537" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G537" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H537" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I537" s="3"/>
+      <c r="J537" s="3"/>
+      <c r="L537">
+        <v>11</v>
+      </c>
+      <c r="M537" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="N537" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O537" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="538" spans="1:15">
+      <c r="A538">
+        <v>547</v>
+      </c>
+      <c r="B538" s="1">
+        <v>46020.640648148197</v>
+      </c>
+      <c r="C538" s="1">
+        <v>46020.641990740703</v>
+      </c>
+      <c r="D538" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F538" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G538" s="2">
+        <v>45994</v>
+      </c>
+      <c r="H538" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I538" s="3"/>
+      <c r="J538" s="3"/>
+      <c r="M538" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="N538" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O538" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="539" spans="1:15">
+      <c r="A539">
+        <v>548</v>
+      </c>
+      <c r="B539" s="1">
+        <v>46020.642025462999</v>
+      </c>
+      <c r="C539" s="1">
+        <v>46020.642361111102</v>
+      </c>
+      <c r="D539" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F539" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G539" s="2">
+        <v>45993</v>
+      </c>
+      <c r="H539" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I539" s="3"/>
+      <c r="J539" s="3"/>
+      <c r="M539" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="N539" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O539" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="540" spans="1:15">
+      <c r="A540">
+        <v>549</v>
+      </c>
+      <c r="B540" s="1">
+        <v>46020.642384259299</v>
+      </c>
+      <c r="C540" s="1">
+        <v>46020.643645833297</v>
+      </c>
+      <c r="D540" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F540" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G540" s="2">
+        <v>45994</v>
+      </c>
+      <c r="H540" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I540" s="3"/>
+      <c r="J540" s="3"/>
+      <c r="M540" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="N540" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O540" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="541" spans="1:15">
+      <c r="A541">
+        <v>550</v>
+      </c>
+      <c r="B541" s="1">
+        <v>46020.643657407403</v>
+      </c>
+      <c r="C541" s="1">
+        <v>46020.643993055601</v>
+      </c>
+      <c r="D541" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F541" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G541" s="2">
+        <v>45995</v>
+      </c>
+      <c r="H541" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I541" s="3"/>
+      <c r="J541" s="3"/>
+      <c r="M541" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="N541" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O541" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="542" spans="1:15">
+      <c r="A542">
+        <v>551</v>
+      </c>
+      <c r="B542" s="1">
+        <v>46020.644016203703</v>
+      </c>
+      <c r="C542" s="1">
+        <v>46020.645254629599</v>
+      </c>
+      <c r="D542" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E542" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F542" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G542" s="2">
+        <v>45972</v>
+      </c>
+      <c r="H542" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I542" s="3"/>
+      <c r="J542" s="3"/>
+      <c r="M542" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="N542" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O542" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="543" spans="1:15">
+      <c r="A543">
+        <v>552</v>
+      </c>
+      <c r="B543" s="1">
+        <v>46020.645462963003</v>
+      </c>
+      <c r="C543" s="1">
+        <v>46020.645787037</v>
+      </c>
+      <c r="D543" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F543" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G543" s="2">
+        <v>45967</v>
+      </c>
+      <c r="H543" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I543" s="3"/>
+      <c r="J543" s="3"/>
+      <c r="M543" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="N543" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O543" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="544" spans="1:15">
+      <c r="A544">
+        <v>553</v>
+      </c>
+      <c r="B544" s="1">
+        <v>46020.645798611098</v>
+      </c>
+      <c r="C544" s="1">
+        <v>46020.646273148101</v>
+      </c>
+      <c r="D544" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F544" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G544" s="2">
+        <v>45965</v>
+      </c>
+      <c r="H544" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I544" s="3"/>
+      <c r="J544" s="3"/>
+      <c r="M544" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="N544" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O544" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="545" spans="1:15">
+      <c r="A545">
+        <v>554</v>
+      </c>
+      <c r="B545" s="1">
+        <v>46020.646284722199</v>
+      </c>
+      <c r="C545" s="1">
+        <v>46020.647303240701</v>
+      </c>
+      <c r="D545" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F545" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G545" s="2">
+        <v>45958</v>
+      </c>
+      <c r="H545" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I545" s="3"/>
+      <c r="J545" s="3"/>
+      <c r="M545" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="N545" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O545" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="546" spans="1:15">
+      <c r="A546">
+        <v>555</v>
+      </c>
+      <c r="B546" s="1">
+        <v>46020.6473148148</v>
+      </c>
+      <c r="C546" s="1">
+        <v>46020.648356481499</v>
+      </c>
+      <c r="D546" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E546" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F546" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G546" s="2">
+        <v>45951</v>
+      </c>
+      <c r="H546" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I546" s="3"/>
+      <c r="J546" s="3"/>
+      <c r="M546" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="N546" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="O546" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="547" spans="1:15">
+      <c r="A547">
+        <v>556</v>
+      </c>
+      <c r="B547" s="1">
+        <v>46020.648379629602</v>
+      </c>
+      <c r="C547" s="1">
+        <v>46020.649525462999</v>
+      </c>
+      <c r="D547" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F547" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G547" s="2">
+        <v>45939</v>
+      </c>
+      <c r="H547" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I547" s="3"/>
+      <c r="J547" s="3"/>
+      <c r="M547" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="N547" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O547" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="548" spans="1:15">
+      <c r="A548">
+        <v>557</v>
+      </c>
+      <c r="B548" s="1">
+        <v>46020.649537037003</v>
+      </c>
+      <c r="C548" s="1">
+        <v>46020.650625000002</v>
+      </c>
+      <c r="D548" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F548" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G548" s="2">
+        <v>45924</v>
+      </c>
+      <c r="H548" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I548" s="3"/>
+      <c r="J548" s="3"/>
+      <c r="M548" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="N548" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O548" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="549" spans="1:15">
+      <c r="A549">
+        <v>558</v>
+      </c>
+      <c r="B549" s="1">
+        <v>46020.650636574101</v>
+      </c>
+      <c r="C549" s="1">
+        <v>46020.651250000003</v>
+      </c>
+      <c r="D549" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F549" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G549" s="2">
+        <v>45909</v>
+      </c>
+      <c r="H549" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I549" s="3"/>
+      <c r="J549" s="3"/>
+      <c r="M549" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="N549" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O549" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="550" spans="1:15">
+      <c r="A550">
+        <v>771</v>
+      </c>
+      <c r="B550" s="1">
+        <v>45747.620694444398</v>
+      </c>
+      <c r="C550" s="1">
+        <v>45747.621539351901</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F550" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G550" s="2">
+        <v>45728</v>
+      </c>
+      <c r="H550" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I550" s="3"/>
+      <c r="J550" s="3"/>
+      <c r="M550" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="N550" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O550" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="551" spans="1:15">
+      <c r="A551">
+        <v>772</v>
+      </c>
+      <c r="B551" s="1">
+        <v>45747.621562499997</v>
+      </c>
+      <c r="C551" s="1">
+        <v>45747.626712963</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F551" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G551" s="2">
+        <v>45735</v>
+      </c>
+      <c r="H551" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I551" s="3"/>
+      <c r="J551" s="3"/>
+      <c r="L551">
+        <v>8</v>
+      </c>
+      <c r="M551" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="N551" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O551" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="552" spans="1:15">
+      <c r="A552">
+        <v>773</v>
+      </c>
+      <c r="B552" s="1">
+        <v>45747.626747685201</v>
+      </c>
+      <c r="C552" s="1">
+        <v>45747.627129629604</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F552" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G552" s="2">
+        <v>45722</v>
+      </c>
+      <c r="H552" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I552" s="3"/>
+      <c r="J552" s="3"/>
+      <c r="L552">
+        <v>8</v>
+      </c>
+      <c r="M552" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="N552" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O552" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="553" spans="1:15">
+      <c r="A553">
+        <v>774</v>
+      </c>
+      <c r="B553" s="1">
+        <v>45747.627152777801</v>
+      </c>
+      <c r="C553" s="1">
+        <v>45747.628472222197</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F553" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G553" s="2">
+        <v>45692</v>
+      </c>
+      <c r="H553" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I553" s="3"/>
+      <c r="J553" s="3"/>
+      <c r="K553">
+        <v>40</v>
+      </c>
+      <c r="L553">
+        <v>35</v>
+      </c>
+      <c r="M553" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="N553" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O553" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="554" spans="1:15">
+      <c r="A554">
+        <v>775</v>
+      </c>
+      <c r="B554" s="1">
+        <v>45747.628599536998</v>
+      </c>
+      <c r="C554" s="1">
+        <v>45747.628993055601</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F554" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G554" s="2">
+        <v>45684</v>
+      </c>
+      <c r="H554" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I554" s="3"/>
+      <c r="J554" s="3"/>
+      <c r="M554" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="N554" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O554" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="555" spans="1:15">
+      <c r="A555">
+        <v>776</v>
+      </c>
+      <c r="B555" s="1">
+        <v>45747.629016203697</v>
+      </c>
+      <c r="C555" s="1">
+        <v>45747.629537036999</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F555" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G555" s="2">
+        <v>45689</v>
+      </c>
+      <c r="H555" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I555" s="3"/>
+      <c r="J555" s="3"/>
+      <c r="M555" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="N555" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O555" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="556" spans="1:15">
+      <c r="A556">
+        <v>777</v>
+      </c>
+      <c r="B556" s="1">
+        <v>45747.629907407398</v>
+      </c>
+      <c r="C556" s="1">
+        <v>45747.630162037</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F556" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G556" s="2">
+        <v>45667</v>
+      </c>
+      <c r="H556" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I556" s="3"/>
+      <c r="J556" s="3"/>
+      <c r="M556" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="N556" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O556" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="557" spans="1:15">
+      <c r="A557">
+        <v>778</v>
+      </c>
+      <c r="B557" s="1">
+        <v>45747.630173611098</v>
+      </c>
+      <c r="C557" s="1">
+        <v>45747.630624999998</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E557" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F557" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G557" s="2">
+        <v>45659</v>
+      </c>
+      <c r="H557" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I557" s="3"/>
+      <c r="J557" s="3"/>
+      <c r="L557">
+        <v>5</v>
+      </c>
+      <c r="M557" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="N557" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O557" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="558" spans="1:15">
+      <c r="A558">
+        <v>779</v>
+      </c>
+      <c r="B558" s="1">
+        <v>45848.490381944401</v>
+      </c>
+      <c r="C558" s="1">
+        <v>45848.492708333302</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F558" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G558" s="2">
+        <v>45750</v>
+      </c>
+      <c r="H558" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I558" s="3"/>
+      <c r="J558" s="3"/>
+      <c r="M558" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="N558" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O558" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="559" spans="1:15">
+      <c r="A559">
+        <v>780</v>
+      </c>
+      <c r="B559" s="1">
+        <v>45848.4927314815</v>
+      </c>
+      <c r="C559" s="1">
+        <v>45848.493182870399</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F559" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G559" s="2">
+        <v>45759</v>
+      </c>
+      <c r="H559" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I559" s="3"/>
+      <c r="J559" s="3"/>
+      <c r="M559" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="N559" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O559" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="560" spans="1:15">
+      <c r="A560">
+        <v>781</v>
+      </c>
+      <c r="B560" s="1">
+        <v>45848.493206018502</v>
+      </c>
+      <c r="C560" s="1">
+        <v>45848.493819444397</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F560" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G560" s="2">
+        <v>45761</v>
+      </c>
+      <c r="H560" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I560" s="3"/>
+      <c r="J560" s="3"/>
+      <c r="K560">
+        <v>2</v>
+      </c>
+      <c r="L560">
+        <v>8</v>
+      </c>
+      <c r="M560" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="N560" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O560" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="561" spans="1:15">
+      <c r="A561">
+        <v>782</v>
+      </c>
+      <c r="B561" s="1">
+        <v>45848.493842592601</v>
+      </c>
+      <c r="C561" s="1">
+        <v>45848.494513888902</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E561" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F561" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G561" s="2">
+        <v>45761</v>
+      </c>
+      <c r="H561" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I561" s="3"/>
+      <c r="J561" s="3"/>
+      <c r="K561">
+        <v>2</v>
+      </c>
+      <c r="L561">
+        <v>3</v>
+      </c>
+      <c r="M561" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="N561" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O561" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="562" spans="1:15">
+      <c r="A562">
+        <v>783</v>
+      </c>
+      <c r="B562" s="1">
+        <v>45848.494537036997</v>
+      </c>
+      <c r="C562" s="1">
+        <v>45848.495231481502</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E562" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F562" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G562" s="2">
+        <v>45770</v>
+      </c>
+      <c r="H562" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I562" s="3"/>
+      <c r="J562" s="3"/>
+      <c r="L562">
+        <v>7</v>
+      </c>
+      <c r="M562" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="N562" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O562" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="563" spans="1:15">
+      <c r="A563">
+        <v>784</v>
+      </c>
+      <c r="B563" s="1">
+        <v>45848.495335648098</v>
+      </c>
+      <c r="C563" s="1">
+        <v>45848.496655092596</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F563" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G563" s="2">
+        <v>45814</v>
+      </c>
+      <c r="H563" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I563" s="3"/>
+      <c r="J563" s="3"/>
+      <c r="M563" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="N563" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O563" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="564" spans="1:15">
+      <c r="A564">
+        <v>785</v>
+      </c>
+      <c r="B564" s="1">
+        <v>45848.496666666702</v>
+      </c>
+      <c r="C564" s="1">
+        <v>45848.497164351902</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F564" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G564" s="2">
+        <v>45817</v>
+      </c>
+      <c r="H564" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I564" s="3"/>
+      <c r="J564" s="3"/>
+      <c r="L564">
+        <v>13</v>
+      </c>
+      <c r="M564" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="N564" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O564" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="565" spans="1:15">
+      <c r="A565">
+        <v>786</v>
+      </c>
+      <c r="B565" s="1">
+        <v>45848.497175925899</v>
+      </c>
+      <c r="C565" s="1">
+        <v>45848.498761574097</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F565" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="G565" s="2">
+        <v>45824</v>
+      </c>
+      <c r="H565" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I565" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="J565" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="M565" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="N565" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O565" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="566" spans="1:15">
+      <c r="A566">
+        <v>787</v>
+      </c>
+      <c r="B566" s="1">
+        <v>45848.498796296299</v>
+      </c>
+      <c r="C566" s="1">
+        <v>45848.4999537037</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F566" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G566" s="2">
+        <v>45835</v>
+      </c>
+      <c r="H566" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I566" s="3"/>
+      <c r="J566" s="3"/>
+      <c r="K566">
+        <v>3</v>
+      </c>
+      <c r="L566">
+        <v>8</v>
+      </c>
+      <c r="M566" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="N566" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O566" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="567" spans="1:15">
+      <c r="A567">
+        <v>788</v>
+      </c>
+      <c r="B567" s="1">
+        <v>45848.500034722201</v>
+      </c>
+      <c r="C567" s="1">
+        <v>45848.5005439815</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E567" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F567" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G567" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H567" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I567" s="3"/>
+      <c r="J567" s="3"/>
+      <c r="M567" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="N567" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O567" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="568" spans="1:15">
+      <c r="A568">
+        <v>765</v>
+      </c>
+      <c r="B568" s="1">
+        <v>45475.588877314804</v>
+      </c>
+      <c r="C568" s="1">
+        <v>45475.589456018497</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F568" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G568" s="2">
+        <v>45471</v>
+      </c>
+      <c r="H568" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I568" s="3"/>
+      <c r="J568" s="3"/>
+      <c r="L568">
+        <v>9</v>
+      </c>
+      <c r="M568" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="N568" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O530" s="3" t="s">
+      <c r="O568" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="569" spans="1:15">
+      <c r="A569">
+        <v>766</v>
+      </c>
+      <c r="B569" s="1">
+        <v>45475.589641203696</v>
+      </c>
+      <c r="C569" s="1">
+        <v>45475.591539351903</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F569" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G569" s="2">
+        <v>45442</v>
+      </c>
+      <c r="H569" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I569" s="3"/>
+      <c r="J569" s="3"/>
+      <c r="K569">
+        <v>144</v>
+      </c>
+      <c r="L569">
+        <v>9</v>
+      </c>
+      <c r="M569" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N569" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O569" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="570" spans="1:15">
+      <c r="A570">
+        <v>767</v>
+      </c>
+      <c r="B570" s="1">
+        <v>45698.690937500003</v>
+      </c>
+      <c r="C570" s="1">
+        <v>45698.691701388903</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F570" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G570" s="2">
+        <v>45686</v>
+      </c>
+      <c r="H570" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I570" s="3"/>
+      <c r="J570" s="3"/>
+      <c r="M570" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="N570" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="O570" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="571" spans="1:15">
+      <c r="A571">
+        <v>768</v>
+      </c>
+      <c r="B571" s="1">
+        <v>45700.522210648203</v>
+      </c>
+      <c r="C571" s="1">
+        <v>45700.524641203701</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F571" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G571" s="2">
+        <v>45695</v>
+      </c>
+      <c r="H571" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I571" s="3"/>
+      <c r="J571" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="M571" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="N571" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="O571" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="572" spans="1:15">
+      <c r="A572">
+        <v>769</v>
+      </c>
+      <c r="B572" s="1">
+        <v>45734.590648148202</v>
+      </c>
+      <c r="C572" s="1">
+        <v>45734.591481481497</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F572" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G572" s="2">
+        <v>45725</v>
+      </c>
+      <c r="H572" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I572" s="3"/>
+      <c r="J572" s="3"/>
+      <c r="M572" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="N572" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O572" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="573" spans="1:15">
+      <c r="A573">
+        <v>770</v>
+      </c>
+      <c r="B573" s="1">
+        <v>45734.593854166698</v>
+      </c>
+      <c r="C573" s="1">
+        <v>45734.594282407401</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E573" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F573" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G573" s="2">
+        <v>45725</v>
+      </c>
+      <c r="H573" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I573" s="3"/>
+      <c r="J573" s="3"/>
+      <c r="M573" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="N573" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O573" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -30217,7 +32014,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>762</v>
+        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -30230,7 +32027,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>763</v>
+        <v>819</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -30286,7 +32083,7 @@
         <v>56</v>
       </c>
       <c r="Q5" t="s">
-        <v>764</v>
+        <v>820</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -30934,7 +32731,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>764</v>
+        <v>820</v>
       </c>
       <c r="B62">
         <v>45</v>

--- a/data/Research metrics new.xlsx
+++ b/data/Research metrics new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29704"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sheddaquarium-my.sharepoint.com/personal/rcunning_sheddaquarium_org/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDCC4674-9D43-48A2-A0C1-E1AC5B2D555F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F8B87AD-FAFE-448B-8248-BB071396C650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$552:$M$552</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$M$568:$M$568</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="340" r:id="rId3"/>
+    <pivotCache cacheId="1046" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4074" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="846">
   <si>
     <t>Id</t>
   </si>
@@ -2410,6 +2410,81 @@
   </si>
   <si>
     <t>Presented on Coral Spawning research at Town Hall</t>
+  </si>
+  <si>
+    <t>https://insideclimatenews.org/news/04012026/florida-port-everglades-dredging-project-could-damaga-corals/</t>
+  </si>
+  <si>
+    <t>Inside Climate News story on Port Everglades dredging project</t>
+  </si>
+  <si>
+    <t>Tabling at Members Night at Shedd</t>
+  </si>
+  <si>
+    <t>Lab tour with Bridget and VIP guest donors</t>
+  </si>
+  <si>
+    <t>Lab tour with Bridget and donor Bob Livingston</t>
+  </si>
+  <si>
+    <t>Lab tour with Johnny Ford and Science Writers Conference attendees</t>
+  </si>
+  <si>
+    <t>Lab tour and interactive demo of DNA extraction/pipetting with Animal Care and Science Trustee's</t>
+  </si>
+  <si>
+    <t>Presented at Animal Care and Science Division meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He, F., Hogan, Z., Jähnig, S.C., Bess, Z.A., Böhm, M., Griffith, P., Gundermann, G., Herrera-R, G.A., Migueleiz, I., Murchie, K.J., Sayer, C.A., Thieme, M.L., Virtue, M., &amp; Stoffers T. (2026). The untapped potential of CMS for migratory freshwater fishes. Nature Reviews Biodiversity, https://doi.org/10.1038/s44358-025-00115-z   </t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s44358-025-00115-z</t>
+  </si>
+  <si>
+    <t>https://iucn.org/news/202601/freshwater-fish-underrepresented-convention-migratory-species</t>
+  </si>
+  <si>
+    <t>blog post highlighting the Nature Reviews Biodiversity paper</t>
+  </si>
+  <si>
+    <t>https://www.aza.org/connect-stories/stories/new-study-documents-functional-extinction-of-two-critically-endangered-coral-species-following-record-heatwave-in-florida</t>
+  </si>
+  <si>
+    <t>AZA Connect story on Acropora functional extinction</t>
+  </si>
+  <si>
+    <t>Lab tour and talk with American Ornithological Society CEO and team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karp, R. F., Lepiz-Conejo, F., Matsuda, S. B., Corbett, B., ..., Cunning, R., &amp; Baker, A. C. (2025). Heat-tolerant algal symbionts may prevent extirpation of the threatened elkhorn coral, Acropora palmata, in Florida during intensifying marine heatwaves. Coral Reefs, 44, 953–965. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00338-025-02652-7 </t>
+  </si>
+  <si>
+    <t>Robichaud, J. A., Haley A. L., LaRochelle, L., Russo, J. D. …, Kessel, S. T. …, &amp; Piczak, M. (2025). Global trends in aquatic animal satellite telemetry studies. Environmental Reviews, 33, 1-19. https://doi.org/10.1139/er-2025-0147</t>
+  </si>
+  <si>
+    <t>https://cdnsciencepub.com/doi/10.1139/er-2025-0147</t>
+  </si>
+  <si>
+    <t>Review of satellite telemetry employment to track aquatic animals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auliya, M., Nijman, V., Altherr, S., Aguilera, W. T., Ariano-Sánchez, D., …, Knapp, C. R., Lieberman, S., …, &amp; Weissgold, B. (2025). Trafficking of Galápagos iguanas as an example of a global problem: CITES permits, laundering and the role of transit countries in Europe and Africa. Biological Conservation, 305:111104. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.biocon.2025.111104 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knapp, C.R., Kessel, S.T., Parsons, G. &amp; Iverson, J.I. (2025). Cyclura cychlura inornata. Overwater dispersal. Herpetological Review, 56, 78-79. </t>
+  </si>
+  <si>
+    <t>https://aeon.co/essays/should-we-intensively-alter-coral-reefs-so-they-can-survive-the-heat</t>
+  </si>
+  <si>
+    <t>Irus Braverman interview/article for Aeon</t>
   </si>
   <si>
     <t>Taught two graduate school lectures on larval dispersal and marine conserservation on location at FAU</t>
@@ -2553,7 +2628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2561,6 +2636,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8353,7 +8429,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABFA26CD-99A8-4944-A749-8B86BBC7DC42}" name="PivotTable1" cacheId="340" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ABFA26CD-99A8-4944-A749-8B86BBC7DC42}" name="PivotTable1" cacheId="1046" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A4:Q62" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -9181,8 +9257,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:O549" totalsRowShown="0">
-  <autoFilter ref="A1:O549" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="OfficeForms.Table" displayName="OfficeForms.Table" ref="A1:O565" totalsRowShown="0">
+  <autoFilter ref="A1:O565" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="14">
       <extLst>
@@ -9293,7 +9369,7 @@
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:xlmsforms="http://schemas.microsoft.com/office/spreadsheetml/2023/msForms" uri="{839C7E11-91E4-4DBD-9C5D-0DEA604FA9AC}">
-      <xlmsforms:msForm id="WmKV9QsF-ESGzEsfiGZoTb83Sl3n5wlHr3isCMIkazlUREdPWjQwWjdHU1IxNFdNOVVTSVpHNktFSi4u" isFormConnected="1" maxResponseId="558" latestEventMarker="556">
+      <xlmsforms:msForm id="WmKV9QsF-ESGzEsfiGZoTb83Sl3n5wlHr3isCMIkazlUREdPWjQwWjdHU1IxNFdNOVVTSVpHNktFSi4u" isFormConnected="1" maxResponseId="574" latestEventMarker="572">
         <xlmsforms:syncedQuestionId>id</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>startDate</xlmsforms:syncedQuestionId>
         <xlmsforms:syncedQuestionId>submitDate</xlmsforms:syncedQuestionId>
@@ -9612,10 +9688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O573"/>
+  <dimension ref="A1:O589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="M478" sqref="M478"/>
+    <sheetView tabSelected="1" topLeftCell="D467" workbookViewId="0">
+      <selection activeCell="I402" sqref="I402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -31005,185 +31081,171 @@
     </row>
     <row r="550" spans="1:15">
       <c r="A550">
-        <v>771</v>
+        <v>559</v>
       </c>
       <c r="B550" s="1">
-        <v>45747.620694444398</v>
+        <v>46027.375590277799</v>
       </c>
       <c r="C550" s="1">
-        <v>45747.621539351901</v>
-      </c>
-      <c r="D550" s="3" t="s">
-        <v>214</v>
+        <v>46027.376516203702</v>
+      </c>
+      <c r="D550" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="E550" s="3" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="F550" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G550" s="2">
-        <v>45728</v>
+        <v>46026</v>
       </c>
       <c r="H550" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I550" s="3"/>
-      <c r="J550" s="3"/>
+      <c r="J550" s="3" t="s">
+        <v>789</v>
+      </c>
       <c r="M550" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N550" s="3" t="s">
-        <v>23</v>
+        <v>454</v>
       </c>
       <c r="O550" s="3" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
     </row>
     <row r="551" spans="1:15">
       <c r="A551">
-        <v>772</v>
+        <v>560</v>
       </c>
       <c r="B551" s="1">
-        <v>45747.621562499997</v>
+        <v>46027.380127314798</v>
       </c>
       <c r="C551" s="1">
-        <v>45747.626712963</v>
-      </c>
-      <c r="D551" s="3" t="s">
-        <v>214</v>
+        <v>46027.380370370403</v>
+      </c>
+      <c r="D551" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="E551" s="3" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="F551" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G551" s="2">
-        <v>45735</v>
+        <v>46009</v>
       </c>
       <c r="H551" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I551" s="3"/>
       <c r="J551" s="3"/>
-      <c r="L551">
-        <v>8</v>
-      </c>
       <c r="M551" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="N551" s="3" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="O551" s="3" t="s">
-        <v>218</v>
+        <v>31</v>
       </c>
     </row>
     <row r="552" spans="1:15">
       <c r="A552">
-        <v>773</v>
+        <v>561</v>
       </c>
       <c r="B552" s="1">
-        <v>45747.626747685201</v>
+        <v>46027.682789351798</v>
       </c>
       <c r="C552" s="1">
-        <v>45747.627129629604</v>
-      </c>
-      <c r="D552" s="3" t="s">
-        <v>214</v>
+        <v>46027.6848032407</v>
+      </c>
+      <c r="D552" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="E552" s="3" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="F552" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G552" s="2">
-        <v>45722</v>
+        <v>45940</v>
       </c>
       <c r="H552" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I552" s="3"/>
       <c r="J552" s="3"/>
-      <c r="L552">
-        <v>8</v>
-      </c>
       <c r="M552" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="N552" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O552" s="3" t="s">
-        <v>220</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="O552" s="3"/>
     </row>
     <row r="553" spans="1:15">
       <c r="A553">
-        <v>774</v>
+        <v>562</v>
       </c>
       <c r="B553" s="1">
-        <v>45747.627152777801</v>
+        <v>46027.684837963003</v>
       </c>
       <c r="C553" s="1">
-        <v>45747.628472222197</v>
-      </c>
-      <c r="D553" s="3" t="s">
-        <v>214</v>
+        <v>46027.686770833301</v>
+      </c>
+      <c r="D553" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="E553" s="3" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="F553" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G553" s="2">
-        <v>45692</v>
+        <v>45953</v>
       </c>
       <c r="H553" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I553" s="3"/>
       <c r="J553" s="3"/>
-      <c r="K553">
-        <v>40</v>
-      </c>
-      <c r="L553">
-        <v>35</v>
-      </c>
       <c r="M553" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N553" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O553" s="3" t="s">
-        <v>220</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="O553" s="3"/>
     </row>
     <row r="554" spans="1:15">
       <c r="A554">
-        <v>775</v>
+        <v>563</v>
       </c>
       <c r="B554" s="1">
-        <v>45747.628599536998</v>
+        <v>46027.686793981498</v>
       </c>
       <c r="C554" s="1">
-        <v>45747.628993055601</v>
-      </c>
-      <c r="D554" s="3" t="s">
-        <v>214</v>
+        <v>46027.6888078704</v>
+      </c>
+      <c r="D554" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="E554" s="3" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="F554" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G554" s="2">
-        <v>45684</v>
+        <v>45971</v>
       </c>
       <c r="H554" s="3" t="s">
         <v>28</v>
@@ -31191,36 +31253,34 @@
       <c r="I554" s="3"/>
       <c r="J554" s="3"/>
       <c r="M554" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N554" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O554" s="3" t="s">
-        <v>220</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="O554" s="3"/>
     </row>
     <row r="555" spans="1:15">
       <c r="A555">
-        <v>776</v>
+        <v>564</v>
       </c>
       <c r="B555" s="1">
-        <v>45747.629016203697</v>
+        <v>46027.688831018502</v>
       </c>
       <c r="C555" s="1">
-        <v>45747.629537036999</v>
-      </c>
-      <c r="D555" s="3" t="s">
-        <v>214</v>
+        <v>46027.690358796302</v>
+      </c>
+      <c r="D555" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="E555" s="3" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="F555" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G555" s="2">
-        <v>45689</v>
+        <v>45980</v>
       </c>
       <c r="H555" s="3" t="s">
         <v>28</v>
@@ -31228,287 +31288,275 @@
       <c r="I555" s="3"/>
       <c r="J555" s="3"/>
       <c r="M555" s="3" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="N555" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O555" s="3" t="s">
-        <v>220</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="O555" s="3"/>
     </row>
     <row r="556" spans="1:15">
       <c r="A556">
-        <v>777</v>
+        <v>565</v>
       </c>
       <c r="B556" s="1">
-        <v>45747.629907407398</v>
+        <v>46027.690381944398</v>
       </c>
       <c r="C556" s="1">
-        <v>45747.630162037</v>
-      </c>
-      <c r="D556" s="3" t="s">
-        <v>214</v>
+        <v>46027.691956018498</v>
+      </c>
+      <c r="D556" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="E556" s="3" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="F556" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G556" s="2">
-        <v>45667</v>
+        <v>45994</v>
       </c>
       <c r="H556" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I556" s="3"/>
       <c r="J556" s="3"/>
       <c r="M556" s="3" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="N556" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O556" s="3" t="s">
-        <v>220</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="O556" s="3"/>
     </row>
     <row r="557" spans="1:15">
       <c r="A557">
-        <v>778</v>
+        <v>566</v>
       </c>
       <c r="B557" s="1">
-        <v>45747.630173611098</v>
+        <v>46028.446655092601</v>
       </c>
       <c r="C557" s="1">
-        <v>45747.630624999998</v>
-      </c>
-      <c r="D557" s="3" t="s">
-        <v>214</v>
+        <v>46028.447141203702</v>
+      </c>
+      <c r="D557" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E557" s="3" t="s">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="F557" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G557" s="2">
-        <v>45659</v>
+        <v>46028</v>
       </c>
       <c r="H557" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I557" s="3"/>
-      <c r="J557" s="3"/>
-      <c r="L557">
-        <v>5</v>
-      </c>
-      <c r="M557" s="3" t="s">
-        <v>796</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I557" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="J557" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="M557" s="3"/>
       <c r="N557" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O557" s="3" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
     </row>
     <row r="558" spans="1:15">
       <c r="A558">
-        <v>779</v>
+        <v>567</v>
       </c>
       <c r="B558" s="1">
-        <v>45848.490381944401</v>
+        <v>46028.447233796302</v>
       </c>
       <c r="C558" s="1">
-        <v>45848.492708333302</v>
-      </c>
-      <c r="D558" s="3" t="s">
-        <v>214</v>
+        <v>46028.447870370401</v>
+      </c>
+      <c r="D558" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E558" s="3" t="s">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="F558" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G558" s="2">
-        <v>45750</v>
+        <v>46028</v>
       </c>
       <c r="H558" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I558" s="3"/>
-      <c r="J558" s="3"/>
+      <c r="J558" s="3" t="s">
+        <v>799</v>
+      </c>
       <c r="M558" s="3" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="N558" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O558" s="3" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
     </row>
     <row r="559" spans="1:15">
       <c r="A559">
-        <v>780</v>
+        <v>568</v>
       </c>
       <c r="B559" s="1">
-        <v>45848.4927314815</v>
+        <v>46029.345671296302</v>
       </c>
       <c r="C559" s="1">
-        <v>45848.493182870399</v>
-      </c>
-      <c r="D559" s="3" t="s">
-        <v>214</v>
+        <v>46029.346168981501</v>
+      </c>
+      <c r="D559" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="E559" s="3" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="F559" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G559" s="2">
-        <v>45759</v>
+        <v>45968</v>
       </c>
       <c r="H559" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I559" s="3"/>
-      <c r="J559" s="3"/>
+      <c r="J559" s="3" t="s">
+        <v>801</v>
+      </c>
       <c r="M559" s="3" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="N559" s="3" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="O559" s="3" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
     </row>
     <row r="560" spans="1:15">
       <c r="A560">
-        <v>781</v>
+        <v>569</v>
       </c>
       <c r="B560" s="1">
-        <v>45848.493206018502</v>
+        <v>46029.606493055602</v>
       </c>
       <c r="C560" s="1">
-        <v>45848.493819444397</v>
-      </c>
-      <c r="D560" s="3" t="s">
-        <v>214</v>
+        <v>46029.607268518499</v>
+      </c>
+      <c r="D560" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="E560" s="3" t="s">
-        <v>215</v>
+        <v>108</v>
       </c>
       <c r="F560" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G560" s="2">
-        <v>45761</v>
+        <v>46001</v>
       </c>
       <c r="H560" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I560" s="3"/>
       <c r="J560" s="3"/>
-      <c r="K560">
-        <v>2</v>
-      </c>
-      <c r="L560">
-        <v>8</v>
-      </c>
       <c r="M560" s="3" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="N560" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O560" s="3" t="s">
-        <v>220</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="O560" s="3"/>
     </row>
     <row r="561" spans="1:15">
       <c r="A561">
-        <v>782</v>
+        <v>570</v>
       </c>
       <c r="B561" s="1">
-        <v>45848.493842592601</v>
+        <v>46030.542442129597</v>
       </c>
       <c r="C561" s="1">
-        <v>45848.494513888902</v>
-      </c>
-      <c r="D561" s="3" t="s">
-        <v>214</v>
+        <v>46030.542719907397</v>
+      </c>
+      <c r="D561" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="E561" s="3" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="F561" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G561" s="2">
-        <v>45761</v>
+        <v>45717</v>
       </c>
       <c r="H561" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I561" s="3"/>
-      <c r="J561" s="3"/>
-      <c r="K561">
-        <v>2</v>
-      </c>
-      <c r="L561">
-        <v>3</v>
-      </c>
-      <c r="M561" s="3" t="s">
-        <v>800</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I561" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="J561" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="M561" s="3"/>
       <c r="N561" s="3" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="O561" s="3" t="s">
-        <v>220</v>
+        <v>31</v>
       </c>
     </row>
     <row r="562" spans="1:15">
       <c r="A562">
-        <v>783</v>
+        <v>571</v>
       </c>
       <c r="B562" s="1">
-        <v>45848.494537036997</v>
+        <v>46030.549340277801</v>
       </c>
       <c r="C562" s="1">
-        <v>45848.495231481502</v>
-      </c>
-      <c r="D562" s="3" t="s">
-        <v>214</v>
+        <v>46030.551655092597</v>
+      </c>
+      <c r="D562" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="E562" s="3" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="F562" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G562" s="2">
-        <v>45770</v>
+        <v>45939</v>
       </c>
       <c r="H562" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I562" s="3"/>
-      <c r="J562" s="3"/>
-      <c r="L562">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="I562" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="J562" s="3" t="s">
+        <v>807</v>
       </c>
       <c r="M562" s="3" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="N562" s="3" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="O562" s="3" t="s">
         <v>220</v>
@@ -31516,131 +31564,130 @@
     </row>
     <row r="563" spans="1:15">
       <c r="A563">
-        <v>784</v>
+        <v>572</v>
       </c>
       <c r="B563" s="1">
-        <v>45848.495335648098</v>
+        <v>46030.627013888901</v>
       </c>
       <c r="C563" s="1">
-        <v>45848.496655092596</v>
-      </c>
-      <c r="D563" s="3" t="s">
-        <v>214</v>
+        <v>46030.629143518498</v>
+      </c>
+      <c r="D563" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E563" s="3" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="F563" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G563" s="2">
-        <v>45814</v>
+        <v>45876</v>
       </c>
       <c r="H563" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I563" s="3"/>
-      <c r="J563" s="3"/>
-      <c r="M563" s="3" t="s">
-        <v>802</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I563" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="J563" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="M563" s="3"/>
       <c r="N563" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="O563" s="3" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
     </row>
     <row r="564" spans="1:15">
       <c r="A564">
-        <v>785</v>
+        <v>573</v>
       </c>
       <c r="B564" s="1">
-        <v>45848.496666666702</v>
+        <v>46030.629270833299</v>
       </c>
       <c r="C564" s="1">
-        <v>45848.497164351902</v>
-      </c>
-      <c r="D564" s="3" t="s">
-        <v>214</v>
+        <v>46030.629618055602</v>
+      </c>
+      <c r="D564" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E564" s="3" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="F564" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G564" s="2">
-        <v>45817</v>
+        <v>46001</v>
       </c>
       <c r="H564" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I564" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="I564" s="3" t="s">
+        <v>811</v>
+      </c>
       <c r="J564" s="3"/>
-      <c r="L564">
-        <v>13</v>
-      </c>
-      <c r="M564" s="3" t="s">
-        <v>803</v>
-      </c>
+      <c r="M564" s="3"/>
       <c r="N564" s="3" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="O564" s="3" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
     </row>
     <row r="565" spans="1:15">
-      <c r="A565">
-        <v>786</v>
+      <c r="A565" s="7">
+        <v>574</v>
       </c>
       <c r="B565" s="1">
-        <v>45848.497175925899</v>
+        <v>46031.311631944402</v>
       </c>
       <c r="C565" s="1">
-        <v>45848.498761574097</v>
-      </c>
-      <c r="D565" s="3" t="s">
-        <v>214</v>
+        <v>46031.312476851803</v>
+      </c>
+      <c r="D565" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="E565" s="3" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="F565" s="3" t="s">
-        <v>804</v>
+        <v>17</v>
       </c>
       <c r="G565" s="2">
-        <v>45824</v>
+        <v>46031</v>
       </c>
       <c r="H565" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I565" s="3" t="s">
-        <v>805</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I565" s="3"/>
       <c r="J565" s="3" t="s">
-        <v>806</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="K565" s="7"/>
+      <c r="L565" s="7"/>
       <c r="M565" s="3" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="N565" s="3" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="O565" s="3" t="s">
-        <v>220</v>
+        <v>31</v>
       </c>
     </row>
     <row r="566" spans="1:15">
       <c r="A566">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="B566" s="1">
-        <v>45848.498796296299</v>
+        <v>45747.620694444398</v>
       </c>
       <c r="C566" s="1">
-        <v>45848.4999537037</v>
+        <v>45747.621539351901</v>
       </c>
       <c r="D566" s="3" t="s">
         <v>214</v>
@@ -31652,21 +31699,15 @@
         <v>17</v>
       </c>
       <c r="G566" s="2">
-        <v>45835</v>
+        <v>45728</v>
       </c>
       <c r="H566" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I566" s="3"/>
       <c r="J566" s="3"/>
-      <c r="K566">
-        <v>3</v>
-      </c>
-      <c r="L566">
-        <v>8</v>
-      </c>
       <c r="M566" s="3" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="N566" s="3" t="s">
         <v>23</v>
@@ -31677,13 +31718,13 @@
     </row>
     <row r="567" spans="1:15">
       <c r="A567">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="B567" s="1">
-        <v>45848.500034722201</v>
+        <v>45747.621562499997</v>
       </c>
       <c r="C567" s="1">
-        <v>45848.5005439815</v>
+        <v>45747.626712963</v>
       </c>
       <c r="D567" s="3" t="s">
         <v>214</v>
@@ -31695,44 +31736,47 @@
         <v>17</v>
       </c>
       <c r="G567" s="2">
-        <v>45845</v>
+        <v>45735</v>
       </c>
       <c r="H567" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I567" s="3"/>
       <c r="J567" s="3"/>
+      <c r="L567">
+        <v>8</v>
+      </c>
       <c r="M567" s="3" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="N567" s="3" t="s">
         <v>23</v>
       </c>
       <c r="O567" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="568" spans="1:15">
       <c r="A568">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="B568" s="1">
-        <v>45475.588877314804</v>
+        <v>45747.626747685201</v>
       </c>
       <c r="C568" s="1">
-        <v>45475.589456018497</v>
+        <v>45747.627129629604</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="E568" s="3" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="F568" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G568" s="2">
-        <v>45471</v>
+        <v>45722</v>
       </c>
       <c r="H568" s="3" t="s">
         <v>41</v>
@@ -31740,39 +31784,39 @@
       <c r="I568" s="3"/>
       <c r="J568" s="3"/>
       <c r="L568">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M568" s="3" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="N568" s="3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="O568" s="3" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
     </row>
     <row r="569" spans="1:15">
       <c r="A569">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="B569" s="1">
-        <v>45475.589641203696</v>
+        <v>45747.627152777801</v>
       </c>
       <c r="C569" s="1">
-        <v>45475.591539351903</v>
+        <v>45747.628472222197</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="E569" s="3" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="F569" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G569" s="2">
-        <v>45442</v>
+        <v>45692</v>
       </c>
       <c r="H569" s="3" t="s">
         <v>18</v>
@@ -31780,42 +31824,42 @@
       <c r="I569" s="3"/>
       <c r="J569" s="3"/>
       <c r="K569">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="L569">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="M569" s="3" t="s">
-        <v>161</v>
+        <v>817</v>
       </c>
       <c r="N569" s="3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="O569" s="3" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
     </row>
     <row r="570" spans="1:15">
       <c r="A570">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="B570" s="1">
-        <v>45698.690937500003</v>
+        <v>45747.628599536998</v>
       </c>
       <c r="C570" s="1">
-        <v>45698.691701388903</v>
+        <v>45747.628993055601</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="E570" s="3" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="F570" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G570" s="2">
-        <v>45686</v>
+        <v>45684</v>
       </c>
       <c r="H570" s="3" t="s">
         <v>28</v>
@@ -31823,125 +31867,757 @@
       <c r="I570" s="3"/>
       <c r="J570" s="3"/>
       <c r="M570" s="3" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="N570" s="3" t="s">
-        <v>812</v>
+        <v>23</v>
       </c>
       <c r="O570" s="3" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
     </row>
     <row r="571" spans="1:15">
       <c r="A571">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="B571" s="1">
-        <v>45700.522210648203</v>
+        <v>45747.629016203697</v>
       </c>
       <c r="C571" s="1">
-        <v>45700.524641203701</v>
+        <v>45747.629537036999</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="E571" s="3" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="F571" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G571" s="2">
-        <v>45695</v>
+        <v>45689</v>
       </c>
       <c r="H571" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I571" s="3"/>
-      <c r="J571" s="3" t="s">
-        <v>813</v>
-      </c>
+      <c r="J571" s="3"/>
       <c r="M571" s="3" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="N571" s="3" t="s">
-        <v>815</v>
+        <v>23</v>
       </c>
       <c r="O571" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="572" spans="1:15">
       <c r="A572">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="B572" s="1">
-        <v>45734.590648148202</v>
+        <v>45747.629907407398</v>
       </c>
       <c r="C572" s="1">
-        <v>45734.591481481497</v>
+        <v>45747.630162037</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="E572" s="3" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="F572" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G572" s="2">
-        <v>45725</v>
+        <v>45667</v>
       </c>
       <c r="H572" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I572" s="3"/>
       <c r="J572" s="3"/>
       <c r="M572" s="3" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="N572" s="3" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="O572" s="3" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
     </row>
     <row r="573" spans="1:15">
       <c r="A573">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="B573" s="1">
-        <v>45734.593854166698</v>
+        <v>45747.630173611098</v>
       </c>
       <c r="C573" s="1">
-        <v>45734.594282407401</v>
+        <v>45747.630624999998</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="E573" s="3" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="F573" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G573" s="2">
-        <v>45725</v>
+        <v>45659</v>
       </c>
       <c r="H573" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I573" s="3"/>
       <c r="J573" s="3"/>
+      <c r="L573">
+        <v>5</v>
+      </c>
       <c r="M573" s="3" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="N573" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O573" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="574" spans="1:15">
+      <c r="A574">
+        <v>779</v>
+      </c>
+      <c r="B574" s="1">
+        <v>45848.490381944401</v>
+      </c>
+      <c r="C574" s="1">
+        <v>45848.492708333302</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F574" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G574" s="2">
+        <v>45750</v>
+      </c>
+      <c r="H574" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I574" s="3"/>
+      <c r="J574" s="3"/>
+      <c r="M574" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="N574" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O574" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="575" spans="1:15">
+      <c r="A575">
+        <v>780</v>
+      </c>
+      <c r="B575" s="1">
+        <v>45848.4927314815</v>
+      </c>
+      <c r="C575" s="1">
+        <v>45848.493182870399</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E575" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F575" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G575" s="2">
+        <v>45759</v>
+      </c>
+      <c r="H575" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I575" s="3"/>
+      <c r="J575" s="3"/>
+      <c r="M575" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="N575" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O575" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="576" spans="1:15">
+      <c r="A576">
+        <v>781</v>
+      </c>
+      <c r="B576" s="1">
+        <v>45848.493206018502</v>
+      </c>
+      <c r="C576" s="1">
+        <v>45848.493819444397</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F576" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G576" s="2">
+        <v>45761</v>
+      </c>
+      <c r="H576" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I576" s="3"/>
+      <c r="J576" s="3"/>
+      <c r="K576">
+        <v>2</v>
+      </c>
+      <c r="L576">
+        <v>8</v>
+      </c>
+      <c r="M576" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="N576" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O576" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="577" spans="1:15">
+      <c r="A577">
+        <v>782</v>
+      </c>
+      <c r="B577" s="1">
+        <v>45848.493842592601</v>
+      </c>
+      <c r="C577" s="1">
+        <v>45848.494513888902</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F577" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G577" s="2">
+        <v>45761</v>
+      </c>
+      <c r="H577" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I577" s="3"/>
+      <c r="J577" s="3"/>
+      <c r="K577">
+        <v>2</v>
+      </c>
+      <c r="L577">
+        <v>3</v>
+      </c>
+      <c r="M577" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="N577" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O577" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="578" spans="1:15">
+      <c r="A578">
+        <v>783</v>
+      </c>
+      <c r="B578" s="1">
+        <v>45848.494537036997</v>
+      </c>
+      <c r="C578" s="1">
+        <v>45848.495231481502</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E578" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F578" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G578" s="2">
+        <v>45770</v>
+      </c>
+      <c r="H578" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I578" s="3"/>
+      <c r="J578" s="3"/>
+      <c r="L578">
+        <v>7</v>
+      </c>
+      <c r="M578" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="N578" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O578" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="579" spans="1:15">
+      <c r="A579">
+        <v>784</v>
+      </c>
+      <c r="B579" s="1">
+        <v>45848.495335648098</v>
+      </c>
+      <c r="C579" s="1">
+        <v>45848.496655092596</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E579" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F579" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G579" s="2">
+        <v>45814</v>
+      </c>
+      <c r="H579" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I579" s="3"/>
+      <c r="J579" s="3"/>
+      <c r="M579" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="N579" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O579" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="580" spans="1:15">
+      <c r="A580">
+        <v>785</v>
+      </c>
+      <c r="B580" s="1">
+        <v>45848.496666666702</v>
+      </c>
+      <c r="C580" s="1">
+        <v>45848.497164351902</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F580" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G580" s="2">
+        <v>45817</v>
+      </c>
+      <c r="H580" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I580" s="3"/>
+      <c r="J580" s="3"/>
+      <c r="L580">
+        <v>13</v>
+      </c>
+      <c r="M580" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="N580" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O580" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="581" spans="1:15">
+      <c r="A581">
+        <v>786</v>
+      </c>
+      <c r="B581" s="1">
+        <v>45848.497175925899</v>
+      </c>
+      <c r="C581" s="1">
+        <v>45848.498761574097</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E581" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F581" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="G581" s="2">
+        <v>45824</v>
+      </c>
+      <c r="H581" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I581" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="J581" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="M581" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="N581" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O581" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="582" spans="1:15">
+      <c r="A582">
+        <v>787</v>
+      </c>
+      <c r="B582" s="1">
+        <v>45848.498796296299</v>
+      </c>
+      <c r="C582" s="1">
+        <v>45848.4999537037</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E582" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F582" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G582" s="2">
+        <v>45835</v>
+      </c>
+      <c r="H582" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I582" s="3"/>
+      <c r="J582" s="3"/>
+      <c r="K582">
+        <v>3</v>
+      </c>
+      <c r="L582">
+        <v>8</v>
+      </c>
+      <c r="M582" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="N582" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O582" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="583" spans="1:15">
+      <c r="A583">
+        <v>788</v>
+      </c>
+      <c r="B583" s="1">
+        <v>45848.500034722201</v>
+      </c>
+      <c r="C583" s="1">
+        <v>45848.5005439815</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F583" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G583" s="2">
+        <v>45845</v>
+      </c>
+      <c r="H583" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I583" s="3"/>
+      <c r="J583" s="3"/>
+      <c r="M583" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="N583" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O583" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="584" spans="1:15">
+      <c r="A584">
+        <v>765</v>
+      </c>
+      <c r="B584" s="1">
+        <v>45475.588877314804</v>
+      </c>
+      <c r="C584" s="1">
+        <v>45475.589456018497</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F584" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G584" s="2">
+        <v>45471</v>
+      </c>
+      <c r="H584" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I584" s="3"/>
+      <c r="J584" s="3"/>
+      <c r="L584">
+        <v>9</v>
+      </c>
+      <c r="M584" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="N584" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O573" s="3" t="s">
+      <c r="O584" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="585" spans="1:15">
+      <c r="A585">
+        <v>766</v>
+      </c>
+      <c r="B585" s="1">
+        <v>45475.589641203696</v>
+      </c>
+      <c r="C585" s="1">
+        <v>45475.591539351903</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E585" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F585" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G585" s="2">
+        <v>45442</v>
+      </c>
+      <c r="H585" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I585" s="3"/>
+      <c r="J585" s="3"/>
+      <c r="K585">
+        <v>144</v>
+      </c>
+      <c r="L585">
+        <v>9</v>
+      </c>
+      <c r="M585" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N585" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O585" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="586" spans="1:15">
+      <c r="A586">
+        <v>767</v>
+      </c>
+      <c r="B586" s="1">
+        <v>45698.690937500003</v>
+      </c>
+      <c r="C586" s="1">
+        <v>45698.691701388903</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F586" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G586" s="2">
+        <v>45686</v>
+      </c>
+      <c r="H586" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I586" s="3"/>
+      <c r="J586" s="3"/>
+      <c r="M586" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="N586" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="O586" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="587" spans="1:15">
+      <c r="A587">
+        <v>768</v>
+      </c>
+      <c r="B587" s="1">
+        <v>45700.522210648203</v>
+      </c>
+      <c r="C587" s="1">
+        <v>45700.524641203701</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F587" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G587" s="2">
+        <v>45695</v>
+      </c>
+      <c r="H587" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I587" s="3"/>
+      <c r="J587" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="M587" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="N587" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="O587" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="588" spans="1:15">
+      <c r="A588">
+        <v>769</v>
+      </c>
+      <c r="B588" s="1">
+        <v>45734.590648148202</v>
+      </c>
+      <c r="C588" s="1">
+        <v>45734.591481481497</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F588" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G588" s="2">
+        <v>45725</v>
+      </c>
+      <c r="H588" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I588" s="3"/>
+      <c r="J588" s="3"/>
+      <c r="M588" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="N588" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O588" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="589" spans="1:15">
+      <c r="A589">
+        <v>770</v>
+      </c>
+      <c r="B589" s="1">
+        <v>45734.593854166698</v>
+      </c>
+      <c r="C589" s="1">
+        <v>45734.594282407401</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F589" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G589" s="2">
+        <v>45725</v>
+      </c>
+      <c r="H589" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I589" s="3"/>
+      <c r="J589" s="3"/>
+      <c r="M589" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="N589" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O589" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -32014,7 +32690,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>818</v>
+        <v>843</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -32027,7 +32703,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>819</v>
+        <v>844</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -32083,7 +32759,7 @@
         <v>56</v>
       </c>
       <c r="Q5" t="s">
-        <v>820</v>
+        <v>845</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -32731,7 +33407,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>820</v>
+        <v>845</v>
       </c>
       <c r="B62">
         <v>45</v>
